--- a/data/nzd0335/nzd0335.xlsx
+++ b/data/nzd0335/nzd0335.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S457"/>
+  <dimension ref="A1:S467"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25717,6 +25717,624 @@
         </is>
       </c>
     </row>
+    <row r="458">
+      <c r="A458" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-27 22:19:21+00:00</t>
+        </is>
+      </c>
+      <c r="B458" t="n">
+        <v>380.11</v>
+      </c>
+      <c r="C458" t="n">
+        <v>369.3633333333333</v>
+      </c>
+      <c r="D458" t="n">
+        <v>361.6570588235294</v>
+      </c>
+      <c r="E458" t="n">
+        <v>360.27</v>
+      </c>
+      <c r="F458" t="n">
+        <v>369.17</v>
+      </c>
+      <c r="G458" t="n">
+        <v>366.97</v>
+      </c>
+      <c r="H458" t="n">
+        <v>361.04</v>
+      </c>
+      <c r="I458" t="n">
+        <v>358.62</v>
+      </c>
+      <c r="J458" t="n">
+        <v>355.78</v>
+      </c>
+      <c r="K458" t="n">
+        <v>357.47</v>
+      </c>
+      <c r="L458" t="n">
+        <v>355.3033333333333</v>
+      </c>
+      <c r="M458" t="n">
+        <v>367.1471428571429</v>
+      </c>
+      <c r="N458" t="n">
+        <v>361.85</v>
+      </c>
+      <c r="O458" t="n">
+        <v>354.67</v>
+      </c>
+      <c r="P458" t="n">
+        <v>364.9442857142857</v>
+      </c>
+      <c r="Q458" t="n">
+        <v>351.06</v>
+      </c>
+      <c r="R458" t="n">
+        <v>343.91</v>
+      </c>
+      <c r="S458" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-05 22:13:30+00:00</t>
+        </is>
+      </c>
+      <c r="B459" t="n">
+        <v>359.48</v>
+      </c>
+      <c r="C459" t="n">
+        <v>354.5933333333333</v>
+      </c>
+      <c r="D459" t="n">
+        <v>349.3370588235294</v>
+      </c>
+      <c r="E459" t="n">
+        <v>355.045</v>
+      </c>
+      <c r="F459" t="n">
+        <v>356.13</v>
+      </c>
+      <c r="G459" t="n">
+        <v>365.375</v>
+      </c>
+      <c r="H459" t="n">
+        <v>363.805</v>
+      </c>
+      <c r="I459" t="n">
+        <v>353.98</v>
+      </c>
+      <c r="J459" t="n">
+        <v>348.585</v>
+      </c>
+      <c r="K459" t="n">
+        <v>355.39</v>
+      </c>
+      <c r="L459" t="n">
+        <v>365.0933333333333</v>
+      </c>
+      <c r="M459" t="n">
+        <v>358.34</v>
+      </c>
+      <c r="N459" t="n">
+        <v>359.75</v>
+      </c>
+      <c r="O459" t="n">
+        <v>357.93</v>
+      </c>
+      <c r="P459" t="n">
+        <v>333.87</v>
+      </c>
+      <c r="Q459" t="n">
+        <v>333.21</v>
+      </c>
+      <c r="R459" t="n">
+        <v>343.5</v>
+      </c>
+      <c r="S459" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-12 22:19:21+00:00</t>
+        </is>
+      </c>
+      <c r="B460" t="n">
+        <v>370.4</v>
+      </c>
+      <c r="C460" t="n">
+        <v>355.18</v>
+      </c>
+      <c r="D460" t="n">
+        <v>362.9135294117647</v>
+      </c>
+      <c r="E460" t="n">
+        <v>358.56</v>
+      </c>
+      <c r="F460" t="n">
+        <v>365.48</v>
+      </c>
+      <c r="G460" t="n">
+        <v>368.05</v>
+      </c>
+      <c r="H460" t="n">
+        <v>365.96</v>
+      </c>
+      <c r="I460" t="n">
+        <v>359.87</v>
+      </c>
+      <c r="J460" t="n">
+        <v>362.73</v>
+      </c>
+      <c r="K460" t="n">
+        <v>369.13</v>
+      </c>
+      <c r="L460" t="n">
+        <v>371.72</v>
+      </c>
+      <c r="M460" t="n">
+        <v>382.77</v>
+      </c>
+      <c r="N460" t="n">
+        <v>382.73</v>
+      </c>
+      <c r="O460" t="n">
+        <v>376</v>
+      </c>
+      <c r="P460" t="inlineStr"/>
+      <c r="Q460" t="n">
+        <v>384.33</v>
+      </c>
+      <c r="R460" t="n">
+        <v>362.29</v>
+      </c>
+      <c r="S460" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-20 22:19:13+00:00</t>
+        </is>
+      </c>
+      <c r="B461" t="n">
+        <v>373.7933333333333</v>
+      </c>
+      <c r="C461" t="n">
+        <v>352.5055555555556</v>
+      </c>
+      <c r="D461" t="n">
+        <v>351.3788235294118</v>
+      </c>
+      <c r="E461" t="n">
+        <v>353.37</v>
+      </c>
+      <c r="F461" t="n">
+        <v>355.1266666666667</v>
+      </c>
+      <c r="G461" t="n">
+        <v>361.18</v>
+      </c>
+      <c r="H461" t="n">
+        <v>359.71</v>
+      </c>
+      <c r="I461" t="n">
+        <v>353.4666666666667</v>
+      </c>
+      <c r="J461" t="n">
+        <v>350.26</v>
+      </c>
+      <c r="K461" t="n">
+        <v>355.77</v>
+      </c>
+      <c r="L461" t="n">
+        <v>369.3855555555555</v>
+      </c>
+      <c r="M461" t="n">
+        <v>363.5728571428572</v>
+      </c>
+      <c r="N461" t="n">
+        <v>370.1766666666667</v>
+      </c>
+      <c r="O461" t="n">
+        <v>372.6966666666667</v>
+      </c>
+      <c r="P461" t="n">
+        <v>348.5357142857143</v>
+      </c>
+      <c r="Q461" t="n">
+        <v>345.71</v>
+      </c>
+      <c r="R461" t="n">
+        <v>340.5633333333333</v>
+      </c>
+      <c r="S461" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-21 22:13:37+00:00</t>
+        </is>
+      </c>
+      <c r="B462" t="n">
+        <v>365.4533333333333</v>
+      </c>
+      <c r="C462" t="n">
+        <v>355.5255555555556</v>
+      </c>
+      <c r="D462" t="n">
+        <v>351.9988235294118</v>
+      </c>
+      <c r="E462" t="n">
+        <v>351.36</v>
+      </c>
+      <c r="F462" t="n">
+        <v>357.2366666666667</v>
+      </c>
+      <c r="G462" t="n">
+        <v>361.97</v>
+      </c>
+      <c r="H462" t="n">
+        <v>361.11</v>
+      </c>
+      <c r="I462" t="n">
+        <v>355.2966666666667</v>
+      </c>
+      <c r="J462" t="n">
+        <v>348.91</v>
+      </c>
+      <c r="K462" t="n">
+        <v>353.44</v>
+      </c>
+      <c r="L462" t="n">
+        <v>369.2055555555555</v>
+      </c>
+      <c r="M462" t="n">
+        <v>368.3728571428572</v>
+      </c>
+      <c r="N462" t="n">
+        <v>371.8866666666667</v>
+      </c>
+      <c r="O462" t="n">
+        <v>369.8866666666667</v>
+      </c>
+      <c r="P462" t="n">
+        <v>347.2857142857143</v>
+      </c>
+      <c r="Q462" t="n">
+        <v>348.21</v>
+      </c>
+      <c r="R462" t="n">
+        <v>343.5833333333333</v>
+      </c>
+      <c r="S462" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-05 22:19:15+00:00</t>
+        </is>
+      </c>
+      <c r="B463" t="n">
+        <v>379.59</v>
+      </c>
+      <c r="C463" t="n">
+        <v>350.62</v>
+      </c>
+      <c r="D463" t="n">
+        <v>346.5729411764706</v>
+      </c>
+      <c r="E463" t="n">
+        <v>344.175</v>
+      </c>
+      <c r="F463" t="n">
+        <v>347.07</v>
+      </c>
+      <c r="G463" t="n">
+        <v>347.555</v>
+      </c>
+      <c r="H463" t="n">
+        <v>356.815</v>
+      </c>
+      <c r="I463" t="n">
+        <v>356.52</v>
+      </c>
+      <c r="J463" t="n">
+        <v>351.045</v>
+      </c>
+      <c r="K463" t="n">
+        <v>347.44</v>
+      </c>
+      <c r="L463" t="n">
+        <v>351.5</v>
+      </c>
+      <c r="M463" t="n">
+        <v>363.1271428571428</v>
+      </c>
+      <c r="N463" t="n">
+        <v>375.87</v>
+      </c>
+      <c r="O463" t="n">
+        <v>374.79</v>
+      </c>
+      <c r="P463" t="n">
+        <v>350.5742857142857</v>
+      </c>
+      <c r="Q463" t="n">
+        <v>345.07</v>
+      </c>
+      <c r="R463" t="n">
+        <v>348.24</v>
+      </c>
+      <c r="S463" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-13 22:19:22+00:00</t>
+        </is>
+      </c>
+      <c r="B464" t="n">
+        <v>367.1733333333333</v>
+      </c>
+      <c r="C464" t="n">
+        <v>357.6488888888889</v>
+      </c>
+      <c r="D464" t="n">
+        <v>355.6470588235294</v>
+      </c>
+      <c r="E464" t="n">
+        <v>357.1</v>
+      </c>
+      <c r="F464" t="n">
+        <v>354.6366666666667</v>
+      </c>
+      <c r="G464" t="n">
+        <v>370.1</v>
+      </c>
+      <c r="H464" t="n">
+        <v>367.18</v>
+      </c>
+      <c r="I464" t="n">
+        <v>367.4766666666666</v>
+      </c>
+      <c r="J464" t="n">
+        <v>374.48</v>
+      </c>
+      <c r="K464" t="n">
+        <v>366.3</v>
+      </c>
+      <c r="L464" t="n">
+        <v>374.7888888888889</v>
+      </c>
+      <c r="M464" t="n">
+        <v>382.2314285714286</v>
+      </c>
+      <c r="N464" t="n">
+        <v>395.9966666666666</v>
+      </c>
+      <c r="O464" t="n">
+        <v>397.8666666666666</v>
+      </c>
+      <c r="P464" t="n">
+        <v>404.7728571428571</v>
+      </c>
+      <c r="Q464" t="inlineStr"/>
+      <c r="R464" t="n">
+        <v>374.6533333333333</v>
+      </c>
+      <c r="S464" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-14 22:13:00+00:00</t>
+        </is>
+      </c>
+      <c r="B465" t="inlineStr"/>
+      <c r="C465" t="inlineStr"/>
+      <c r="D465" t="inlineStr"/>
+      <c r="E465" t="n">
+        <v>357.955</v>
+      </c>
+      <c r="F465" t="n">
+        <v>358.8633333333333</v>
+      </c>
+      <c r="G465" t="n">
+        <v>366.805</v>
+      </c>
+      <c r="H465" t="n">
+        <v>371.015</v>
+      </c>
+      <c r="I465" t="n">
+        <v>379.1633333333334</v>
+      </c>
+      <c r="J465" t="n">
+        <v>374.385</v>
+      </c>
+      <c r="K465" t="n">
+        <v>367.98</v>
+      </c>
+      <c r="L465" t="n">
+        <v>380.0311111111111</v>
+      </c>
+      <c r="M465" t="n">
+        <v>380.8585714285715</v>
+      </c>
+      <c r="N465" t="n">
+        <v>394.5633333333333</v>
+      </c>
+      <c r="O465" t="n">
+        <v>393.0533333333333</v>
+      </c>
+      <c r="P465" t="n">
+        <v>404.0671428571428</v>
+      </c>
+      <c r="Q465" t="inlineStr"/>
+      <c r="R465" t="n">
+        <v>382.1066666666667</v>
+      </c>
+      <c r="S465" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-22 22:13:33+00:00</t>
+        </is>
+      </c>
+      <c r="B466" t="n">
+        <v>378.79</v>
+      </c>
+      <c r="C466" t="n">
+        <v>353.8233333333333</v>
+      </c>
+      <c r="D466" t="n">
+        <v>349.1764705882353</v>
+      </c>
+      <c r="E466" t="n">
+        <v>344.46</v>
+      </c>
+      <c r="F466" t="n">
+        <v>346.7</v>
+      </c>
+      <c r="G466" t="n">
+        <v>341.51</v>
+      </c>
+      <c r="H466" t="n">
+        <v>344.17</v>
+      </c>
+      <c r="I466" t="n">
+        <v>353.53</v>
+      </c>
+      <c r="J466" t="n">
+        <v>355.3</v>
+      </c>
+      <c r="K466" t="n">
+        <v>354.37</v>
+      </c>
+      <c r="L466" t="n">
+        <v>352.5033333333333</v>
+      </c>
+      <c r="M466" t="n">
+        <v>357.5514285714286</v>
+      </c>
+      <c r="N466" t="n">
+        <v>367.49</v>
+      </c>
+      <c r="O466" t="n">
+        <v>382.78</v>
+      </c>
+      <c r="P466" t="n">
+        <v>370.6128571428572</v>
+      </c>
+      <c r="Q466" t="n">
+        <v>347.96</v>
+      </c>
+      <c r="R466" t="n">
+        <v>344.32</v>
+      </c>
+      <c r="S466" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-01 22:19:15+00:00</t>
+        </is>
+      </c>
+      <c r="B467" t="n">
+        <v>370.9966666666666</v>
+      </c>
+      <c r="C467" t="n">
+        <v>358.2377777777777</v>
+      </c>
+      <c r="D467" t="n">
+        <v>341.7482352941176</v>
+      </c>
+      <c r="E467" t="n">
+        <v>345.76</v>
+      </c>
+      <c r="F467" t="n">
+        <v>346.5133333333334</v>
+      </c>
+      <c r="G467" t="n">
+        <v>347.2</v>
+      </c>
+      <c r="H467" t="n">
+        <v>354.17</v>
+      </c>
+      <c r="I467" t="n">
+        <v>357.3133333333333</v>
+      </c>
+      <c r="J467" t="n">
+        <v>357.25</v>
+      </c>
+      <c r="K467" t="n">
+        <v>356.19</v>
+      </c>
+      <c r="L467" t="n">
+        <v>361.4077777777778</v>
+      </c>
+      <c r="M467" t="n">
+        <v>367.0542857142857</v>
+      </c>
+      <c r="N467" t="n">
+        <v>375.9633333333334</v>
+      </c>
+      <c r="O467" t="n">
+        <v>393.6933333333334</v>
+      </c>
+      <c r="P467" t="n">
+        <v>404.0285714285715</v>
+      </c>
+      <c r="Q467" t="n">
+        <v>384.87</v>
+      </c>
+      <c r="R467" t="n">
+        <v>363.1566666666667</v>
+      </c>
+      <c r="S467" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -25728,7 +26346,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B464"/>
+  <dimension ref="A1:B474"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30376,6 +30994,106 @@
       </c>
       <c r="B464" t="n">
         <v>0.39</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>2024-12-27 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B465" t="n">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>2025-01-05 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B466" t="n">
+        <v>-1.05</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>2025-01-12 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B467" t="n">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>2025-01-20 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B468" t="n">
+        <v>-0.76</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>2025-01-21 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B469" t="n">
+        <v>-0.76</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>2025-02-05 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B470" t="n">
+        <v>-0.99</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>2025-02-13 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B471" t="n">
+        <v>1.16</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>2025-02-14 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B472" t="n">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>2025-02-22 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B473" t="n">
+        <v>-0.24</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>2025-03-01 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B474" t="n">
+        <v>1.24</v>
       </c>
     </row>
   </sheetData>
@@ -30544,28 +31262,28 @@
         <v>0.06419999999999999</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.3950059676032153</v>
+        <v>-0.431610643933122</v>
       </c>
       <c r="J2" t="n">
-        <v>456</v>
+        <v>466</v>
       </c>
       <c r="K2" t="n">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="L2" t="n">
-        <v>0.02584730414297187</v>
+        <v>0.03239233463193891</v>
       </c>
       <c r="M2" t="n">
-        <v>13.82213018023085</v>
+        <v>13.6152452057379</v>
       </c>
       <c r="N2" t="n">
-        <v>320.9216706055456</v>
+        <v>312.8857337767206</v>
       </c>
       <c r="O2" t="n">
-        <v>17.91428677356555</v>
+        <v>17.68857636376429</v>
       </c>
       <c r="P2" t="n">
-        <v>387.9828804142466</v>
+        <v>388.3416562361805</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -30621,28 +31339,28 @@
         <v>0.1113</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.1825318129049654</v>
+        <v>-0.2426929155892065</v>
       </c>
       <c r="J3" t="n">
-        <v>456</v>
+        <v>466</v>
       </c>
       <c r="K3" t="n">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="L3" t="n">
-        <v>0.005059499373746723</v>
+        <v>0.009298280027328354</v>
       </c>
       <c r="M3" t="n">
-        <v>14.87735969430515</v>
+        <v>14.764461237215</v>
       </c>
       <c r="N3" t="n">
-        <v>357.2169683446441</v>
+        <v>350.5398819329847</v>
       </c>
       <c r="O3" t="n">
-        <v>18.90018434684287</v>
+        <v>18.72271032551069</v>
       </c>
       <c r="P3" t="n">
-        <v>372.2173228652547</v>
+        <v>372.8177493378657</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -30698,28 +31416,28 @@
         <v>0.1027</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.3250764836743733</v>
+        <v>-0.3748648595294879</v>
       </c>
       <c r="J4" t="n">
-        <v>456</v>
+        <v>466</v>
       </c>
       <c r="K4" t="n">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01784119037779852</v>
+        <v>0.02437379925609107</v>
       </c>
       <c r="M4" t="n">
-        <v>14.29457394400099</v>
+        <v>14.2070127006901</v>
       </c>
       <c r="N4" t="n">
-        <v>318.8676630854129</v>
+        <v>314.7474454348254</v>
       </c>
       <c r="O4" t="n">
-        <v>17.85686599281668</v>
+        <v>17.74112300376798</v>
       </c>
       <c r="P4" t="n">
-        <v>371.653349208219</v>
+        <v>372.1473992777827</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -30775,28 +31493,28 @@
         <v>0.0896</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.1310472812597757</v>
+        <v>-0.1777252143489944</v>
       </c>
       <c r="J5" t="n">
-        <v>456</v>
+        <v>466</v>
       </c>
       <c r="K5" t="n">
-        <v>365</v>
+        <v>375</v>
       </c>
       <c r="L5" t="n">
-        <v>0.003291698119269215</v>
+        <v>0.006264696815657556</v>
       </c>
       <c r="M5" t="n">
-        <v>13.64883578843808</v>
+        <v>13.52869093837305</v>
       </c>
       <c r="N5" t="n">
-        <v>284.9465456650489</v>
+        <v>280.6589263614116</v>
       </c>
       <c r="O5" t="n">
-        <v>16.88035976112621</v>
+        <v>16.7528781515718</v>
       </c>
       <c r="P5" t="n">
-        <v>366.0357352637441</v>
+        <v>366.4984084315951</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -30852,28 +31570,28 @@
         <v>0.0824</v>
       </c>
       <c r="I6" t="n">
-        <v>0.05764152405989076</v>
+        <v>0.02127534349426117</v>
       </c>
       <c r="J6" t="n">
-        <v>456</v>
+        <v>466</v>
       </c>
       <c r="K6" t="n">
-        <v>385</v>
+        <v>395</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0008164849352202408</v>
+        <v>0.0001151315215369708</v>
       </c>
       <c r="M6" t="n">
-        <v>12.26681411576121</v>
+        <v>12.1795536905027</v>
       </c>
       <c r="N6" t="n">
-        <v>233.3881259088047</v>
+        <v>230.4349510875792</v>
       </c>
       <c r="O6" t="n">
-        <v>15.27704571927455</v>
+        <v>15.18008402768507</v>
       </c>
       <c r="P6" t="n">
-        <v>362.4957331014409</v>
+        <v>362.843163337937</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -30929,28 +31647,28 @@
         <v>0.0901</v>
       </c>
       <c r="I7" t="n">
-        <v>0.06855924970829928</v>
+        <v>0.05609079928110153</v>
       </c>
       <c r="J7" t="n">
-        <v>456</v>
+        <v>466</v>
       </c>
       <c r="K7" t="n">
-        <v>382</v>
+        <v>392</v>
       </c>
       <c r="L7" t="n">
-        <v>0.001329072741508952</v>
+        <v>0.0009200435363665438</v>
       </c>
       <c r="M7" t="n">
-        <v>11.4403969077458</v>
+        <v>11.34457597056032</v>
       </c>
       <c r="N7" t="n">
-        <v>205.822394172855</v>
+        <v>203.2009467255407</v>
       </c>
       <c r="O7" t="n">
-        <v>14.34651156807309</v>
+        <v>14.2548569521248</v>
       </c>
       <c r="P7" t="n">
-        <v>360.762968592295</v>
+        <v>360.8816340843272</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -31006,28 +31724,28 @@
         <v>0.08649999999999999</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.04744950533688173</v>
+        <v>-0.05017058201791468</v>
       </c>
       <c r="J8" t="n">
-        <v>456</v>
+        <v>466</v>
       </c>
       <c r="K8" t="n">
-        <v>389</v>
+        <v>399</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0007865242135846051</v>
+        <v>0.0009139422540688225</v>
       </c>
       <c r="M8" t="n">
-        <v>10.30999760429664</v>
+        <v>10.18404127882516</v>
       </c>
       <c r="N8" t="n">
-        <v>166.9427844384221</v>
+        <v>164.0642648617016</v>
       </c>
       <c r="O8" t="n">
-        <v>12.92063405713598</v>
+        <v>12.80875735041076</v>
       </c>
       <c r="P8" t="n">
-        <v>362.3201867689983</v>
+        <v>362.3460370061439</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -31083,28 +31801,28 @@
         <v>0.0809</v>
       </c>
       <c r="I9" t="n">
-        <v>0.01110763102796282</v>
+        <v>0.001419649427414558</v>
       </c>
       <c r="J9" t="n">
-        <v>456</v>
+        <v>466</v>
       </c>
       <c r="K9" t="n">
-        <v>385</v>
+        <v>395</v>
       </c>
       <c r="L9" t="n">
-        <v>4.190101324574869e-05</v>
+        <v>7.10195819042525e-07</v>
       </c>
       <c r="M9" t="n">
-        <v>10.28687978539799</v>
+        <v>10.19553614263935</v>
       </c>
       <c r="N9" t="n">
-        <v>177.1376707898725</v>
+        <v>174.257586791853</v>
       </c>
       <c r="O9" t="n">
-        <v>13.30930767507733</v>
+        <v>13.20066614954916</v>
       </c>
       <c r="P9" t="n">
-        <v>361.528953385169</v>
+        <v>361.6176164894615</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -31160,28 +31878,28 @@
         <v>0.08790000000000001</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.01823365511826434</v>
+        <v>-0.035755014739867</v>
       </c>
       <c r="J10" t="n">
-        <v>456</v>
+        <v>466</v>
       </c>
       <c r="K10" t="n">
-        <v>389</v>
+        <v>399</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0001181630777866705</v>
+        <v>0.0004680150316804799</v>
       </c>
       <c r="M10" t="n">
-        <v>10.25610024195595</v>
+        <v>10.21997136566493</v>
       </c>
       <c r="N10" t="n">
-        <v>166.6861978211002</v>
+        <v>165.0534816694014</v>
       </c>
       <c r="O10" t="n">
-        <v>12.91070090355672</v>
+        <v>12.8473141811587</v>
       </c>
       <c r="P10" t="n">
-        <v>362.4894855203811</v>
+        <v>362.6522406348114</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -31237,28 +31955,28 @@
         <v>0.1185</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.09030294251000871</v>
+        <v>-0.09973747401697744</v>
       </c>
       <c r="J11" t="n">
-        <v>456</v>
+        <v>466</v>
       </c>
       <c r="K11" t="n">
-        <v>387</v>
+        <v>397</v>
       </c>
       <c r="L11" t="n">
-        <v>0.002865416012326705</v>
+        <v>0.00362702972160267</v>
       </c>
       <c r="M11" t="n">
-        <v>10.41287232934379</v>
+        <v>10.31525835307697</v>
       </c>
       <c r="N11" t="n">
-        <v>165.6695484298938</v>
+        <v>162.7490837737033</v>
       </c>
       <c r="O11" t="n">
-        <v>12.8712683302732</v>
+        <v>12.75731491238275</v>
       </c>
       <c r="P11" t="n">
-        <v>362.8513832646748</v>
+        <v>362.9405251008048</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -31314,28 +32032,28 @@
         <v>0.106</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.2079119182964825</v>
+        <v>-0.1885338406545758</v>
       </c>
       <c r="J12" t="n">
-        <v>456</v>
+        <v>466</v>
       </c>
       <c r="K12" t="n">
-        <v>389</v>
+        <v>399</v>
       </c>
       <c r="L12" t="n">
-        <v>0.01450763797312127</v>
+        <v>0.01231505767824759</v>
       </c>
       <c r="M12" t="n">
-        <v>10.18890465322081</v>
+        <v>10.15831887761137</v>
       </c>
       <c r="N12" t="n">
-        <v>169.200283476913</v>
+        <v>167.564374560978</v>
       </c>
       <c r="O12" t="n">
-        <v>13.00770092971517</v>
+        <v>12.9446658728983</v>
       </c>
       <c r="P12" t="n">
-        <v>365.8686239112048</v>
+        <v>365.6835183664654</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -31391,28 +32109,28 @@
         <v>0.07679999999999999</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.1434516845194075</v>
+        <v>-0.1179370707751146</v>
       </c>
       <c r="J13" t="n">
-        <v>456</v>
+        <v>466</v>
       </c>
       <c r="K13" t="n">
-        <v>386</v>
+        <v>396</v>
       </c>
       <c r="L13" t="n">
-        <v>0.00547539932312735</v>
+        <v>0.003831168848130617</v>
       </c>
       <c r="M13" t="n">
-        <v>11.480224529469</v>
+        <v>11.38696604448879</v>
       </c>
       <c r="N13" t="n">
-        <v>215.3888724817009</v>
+        <v>212.8271285331525</v>
       </c>
       <c r="O13" t="n">
-        <v>14.6761327495257</v>
+        <v>14.58859583829617</v>
       </c>
       <c r="P13" t="n">
-        <v>366.9089330691379</v>
+        <v>366.6664400947987</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -31468,28 +32186,28 @@
         <v>0.0883</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.2718941583779566</v>
+        <v>-0.2075403056810936</v>
       </c>
       <c r="J14" t="n">
-        <v>456</v>
+        <v>466</v>
       </c>
       <c r="K14" t="n">
-        <v>365</v>
+        <v>375</v>
       </c>
       <c r="L14" t="n">
-        <v>0.01803846361412853</v>
+        <v>0.01069922762976827</v>
       </c>
       <c r="M14" t="n">
-        <v>11.98031364398136</v>
+        <v>12.05105644810588</v>
       </c>
       <c r="N14" t="n">
-        <v>229.8948246363227</v>
+        <v>232.331022455938</v>
       </c>
       <c r="O14" t="n">
-        <v>15.16228296254633</v>
+        <v>15.24240868288008</v>
       </c>
       <c r="P14" t="n">
-        <v>368.4839689918631</v>
+        <v>367.863547359377</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -31545,28 +32263,28 @@
         <v>0.0925</v>
       </c>
       <c r="I15" t="n">
-        <v>-2.338542872595112</v>
+        <v>-2.060274056300434</v>
       </c>
       <c r="J15" t="n">
-        <v>456</v>
+        <v>466</v>
       </c>
       <c r="K15" t="n">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="L15" t="n">
-        <v>0.06461459713713269</v>
+        <v>0.05239850144057923</v>
       </c>
       <c r="M15" t="n">
-        <v>42.70940914915833</v>
+        <v>41.76548346733792</v>
       </c>
       <c r="N15" t="n">
-        <v>4531.346832204678</v>
+        <v>4489.490956371843</v>
       </c>
       <c r="O15" t="n">
-        <v>67.31527933689853</v>
+        <v>67.00366375334892</v>
       </c>
       <c r="P15" t="n">
-        <v>380.6691657765795</v>
+        <v>377.9753877088792</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -31622,28 +32340,28 @@
         <v>0.0468</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.6047161436168255</v>
+        <v>-0.4222915881485725</v>
       </c>
       <c r="J16" t="n">
-        <v>456</v>
+        <v>466</v>
       </c>
       <c r="K16" t="n">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="L16" t="n">
-        <v>0.005800681350949355</v>
+        <v>0.002944532497208718</v>
       </c>
       <c r="M16" t="n">
-        <v>40.23864864980933</v>
+        <v>39.60190763010113</v>
       </c>
       <c r="N16" t="n">
-        <v>3365.690306600914</v>
+        <v>3317.916700333023</v>
       </c>
       <c r="O16" t="n">
-        <v>58.01456977864193</v>
+        <v>57.60136022988539</v>
       </c>
       <c r="P16" t="n">
-        <v>350.7724323643912</v>
+        <v>348.9198064333099</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -31699,28 +32417,28 @@
         <v>0.0532</v>
       </c>
       <c r="I17" t="n">
-        <v>-1.191951488238518</v>
+        <v>-1.082747711332925</v>
       </c>
       <c r="J17" t="n">
-        <v>456</v>
+        <v>466</v>
       </c>
       <c r="K17" t="n">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="L17" t="n">
-        <v>0.04985871133052744</v>
+        <v>0.04271412045149681</v>
       </c>
       <c r="M17" t="n">
-        <v>24.97564955179813</v>
+        <v>24.68324505402575</v>
       </c>
       <c r="N17" t="n">
-        <v>1495.043725820944</v>
+        <v>1479.745793404352</v>
       </c>
       <c r="O17" t="n">
-        <v>38.66579529533751</v>
+        <v>38.46746408855608</v>
       </c>
       <c r="P17" t="n">
-        <v>360.5858487281545</v>
+        <v>359.5048886103567</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -31776,28 +32494,28 @@
         <v>0.0703</v>
       </c>
       <c r="I18" t="n">
-        <v>-1.73040844153606</v>
+        <v>-1.533250327655901</v>
       </c>
       <c r="J18" t="n">
-        <v>456</v>
+        <v>466</v>
       </c>
       <c r="K18" t="n">
-        <v>339</v>
+        <v>349</v>
       </c>
       <c r="L18" t="n">
-        <v>0.09538604289933794</v>
+        <v>0.07784432870101898</v>
       </c>
       <c r="M18" t="n">
-        <v>28.29936921196882</v>
+        <v>27.9354203634975</v>
       </c>
       <c r="N18" t="n">
-        <v>1629.656993724246</v>
+        <v>1632.679603422029</v>
       </c>
       <c r="O18" t="n">
-        <v>40.36901031390596</v>
+        <v>40.40643022369125</v>
       </c>
       <c r="P18" t="n">
-        <v>357.9156779159252</v>
+        <v>356.0143661833749</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -31834,7 +32552,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S457"/>
+  <dimension ref="A1:S467"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -69083,6 +69801,952 @@
         </is>
       </c>
     </row>
+    <row r="458">
+      <c r="A458" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-27 22:19:21+00:00</t>
+        </is>
+      </c>
+      <c r="B458" t="inlineStr">
+        <is>
+          <t>-41.03150934965664,172.11097782324248</t>
+        </is>
+      </c>
+      <c r="C458" t="inlineStr">
+        <is>
+          <t>-41.03082567736863,172.1109988055916</t>
+        </is>
+      </c>
+      <c r="D458" t="inlineStr">
+        <is>
+          <t>-41.03014504377079,172.11098384421035</t>
+        </is>
+      </c>
+      <c r="E458" t="inlineStr">
+        <is>
+          <t>-41.02947073329221,172.11089418094028</t>
+        </is>
+      </c>
+      <c r="F458" t="inlineStr">
+        <is>
+          <t>-41.02880672037364,172.11068291428452</t>
+        </is>
+      </c>
+      <c r="G458" t="inlineStr">
+        <is>
+          <t>-41.0281315818189,172.110602861244</t>
+        </is>
+      </c>
+      <c r="H458" t="inlineStr">
+        <is>
+          <t>-41.02745270015282,172.11056689901335</t>
+        </is>
+      </c>
+      <c r="I458" t="inlineStr">
+        <is>
+          <t>-41.026777340974924,172.1104894459353</t>
+        </is>
+      </c>
+      <c r="J458" t="inlineStr">
+        <is>
+          <t>-41.02610163298602,172.11041661114564</t>
+        </is>
+      </c>
+      <c r="K458" t="inlineStr">
+        <is>
+          <t>-41.02543070800426,172.11028791669648</t>
+        </is>
+      </c>
+      <c r="L458" t="inlineStr">
+        <is>
+          <t>-41.024755752831275,172.1102047924859</t>
+        </is>
+      </c>
+      <c r="M458" t="inlineStr">
+        <is>
+          <t>-41.02409519872517,172.10995611808596</t>
+        </is>
+      </c>
+      <c r="N458" t="inlineStr">
+        <is>
+          <t>-41.02341701055198,172.1099099842771</t>
+        </is>
+      </c>
+      <c r="O458" t="inlineStr">
+        <is>
+          <t>-41.02273976805128,172.10988618969128</t>
+        </is>
+      </c>
+      <c r="P458" t="inlineStr">
+        <is>
+          <t>-41.02212170378774,172.10951218205668</t>
+        </is>
+      </c>
+      <c r="Q458" t="inlineStr">
+        <is>
+          <t>-41.02144026231436,172.10939529051228</t>
+        </is>
+      </c>
+      <c r="R458" t="inlineStr">
+        <is>
+          <t>-41.020775751517746,172.10920155625843</t>
+        </is>
+      </c>
+      <c r="S458" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-05 22:13:30+00:00</t>
+        </is>
+      </c>
+      <c r="B459" t="inlineStr">
+        <is>
+          <t>-41.03148868447215,172.11122169984475</t>
+        </is>
+      </c>
+      <c r="C459" t="inlineStr">
+        <is>
+          <t>-41.030810882128726,172.11117340666559</t>
+        </is>
+      </c>
+      <c r="D459" t="inlineStr">
+        <is>
+          <t>-41.03013270269621,172.11112948151995</t>
+        </is>
+      </c>
+      <c r="E459" t="inlineStr">
+        <is>
+          <t>-41.02946549940017,172.1109559461422</t>
+        </is>
+      </c>
+      <c r="F459" t="inlineStr">
+        <is>
+          <t>-41.02879365834119,172.1108370597767</t>
+        </is>
+      </c>
+      <c r="G459" t="inlineStr">
+        <is>
+          <t>-41.02812998414062,172.11062171550753</t>
+        </is>
+      </c>
+      <c r="H459" t="inlineStr">
+        <is>
+          <t>-41.02745546979136,172.1105342146839</t>
+        </is>
+      </c>
+      <c r="I459" t="inlineStr">
+        <is>
+          <t>-41.026772685144714,172.11054429238723</t>
+        </is>
+      </c>
+      <c r="J459" t="inlineStr">
+        <is>
+          <t>-41.02609431732203,172.11050164341256</t>
+        </is>
+      </c>
+      <c r="K459" t="inlineStr">
+        <is>
+          <t>-41.02542856896431,172.1103124947504</t>
+        </is>
+      </c>
+      <c r="L459" t="inlineStr">
+        <is>
+          <t>-41.02476582060964,172.11008911136022</t>
+        </is>
+      </c>
+      <c r="M459" t="inlineStr">
+        <is>
+          <t>-41.02408614177414,172.1100601844775</t>
+        </is>
+      </c>
+      <c r="N459" t="inlineStr">
+        <is>
+          <t>-41.02341485099534,172.1099347979089</t>
+        </is>
+      </c>
+      <c r="O459" t="inlineStr">
+        <is>
+          <t>-41.02274557774478,172.10984818279036</t>
+        </is>
+      </c>
+      <c r="P459" t="inlineStr">
+        <is>
+          <t>-41.02204060413995,172.10986591210474</t>
+        </is>
+      </c>
+      <c r="Q459" t="inlineStr">
+        <is>
+          <t>-41.021392157506284,172.10959786369736</t>
+        </is>
+      </c>
+      <c r="R459" t="inlineStr">
+        <is>
+          <t>-41.02077464659707,172.10920620915783</t>
+        </is>
+      </c>
+      <c r="S459" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-12 22:19:21+00:00</t>
+        </is>
+      </c>
+      <c r="B460" t="inlineStr">
+        <is>
+          <t>-41.03149962316071,172.11109260958162</t>
+        </is>
+      </c>
+      <c r="C460" t="inlineStr">
+        <is>
+          <t>-41.030811469802984,172.11116647148555</t>
+        </is>
+      </c>
+      <c r="D460" t="inlineStr">
+        <is>
+          <t>-41.030146302380324,172.11096899120454</t>
+        </is>
+      </c>
+      <c r="E460" t="inlineStr">
+        <is>
+          <t>-41.02946902038575,172.11091439500737</t>
+        </is>
+      </c>
+      <c r="F460" t="inlineStr">
+        <is>
+          <t>-41.02880302415997,172.1107265336819</t>
+        </is>
+      </c>
+      <c r="G460" t="inlineStr">
+        <is>
+          <t>-41.02813266363064,172.11059009472024</t>
+        </is>
+      </c>
+      <c r="H460" t="inlineStr">
+        <is>
+          <t>-41.02745762840013,172.11050874100036</t>
+        </is>
+      </c>
+      <c r="I460" t="inlineStr">
+        <is>
+          <t>-41.02677859523504,172.110474670489</t>
+        </is>
+      </c>
+      <c r="J460" t="inlineStr">
+        <is>
+          <t>-41.02610869948145,172.11033447433175</t>
+        </is>
+      </c>
+      <c r="K460" t="inlineStr">
+        <is>
+          <t>-41.025442698871196,172.11015013777023</t>
+        </is>
+      </c>
+      <c r="L460" t="inlineStr">
+        <is>
+          <t>-41.024772635233155,172.11001080896554</t>
+        </is>
+      </c>
+      <c r="M460" t="inlineStr">
+        <is>
+          <t>-41.02411126448127,172.10977151622623</t>
+        </is>
+      </c>
+      <c r="N460" t="inlineStr">
+        <is>
+          <t>-41.02343848242361,172.10966326579802</t>
+        </is>
+      </c>
+      <c r="O460" t="inlineStr">
+        <is>
+          <t>-41.02277778032639,172.10963751251998</t>
+        </is>
+      </c>
+      <c r="P460" t="inlineStr"/>
+      <c r="Q460" t="inlineStr">
+        <is>
+          <t>-41.02152992224933,172.10901772056047</t>
+        </is>
+      </c>
+      <c r="R460" t="inlineStr">
+        <is>
+          <t>-41.020825284108824,172.10899297002692</t>
+        </is>
+      </c>
+      <c r="S460" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-20 22:19:13+00:00</t>
+        </is>
+      </c>
+      <c r="B461" t="inlineStr">
+        <is>
+          <t>-41.03150302227188,172.11105249544406</t>
+        </is>
+      </c>
+      <c r="C461" t="inlineStr">
+        <is>
+          <t>-41.03080879076182,172.11119808697396</t>
+        </is>
+      </c>
+      <c r="D461" t="inlineStr">
+        <is>
+          <t>-41.03013474796632,172.1111053453937</t>
+        </is>
+      </c>
+      <c r="E461" t="inlineStr">
+        <is>
+          <t>-41.02946382154258,172.11097574646817</t>
+        </is>
+      </c>
+      <c r="F461" t="inlineStr">
+        <is>
+          <t>-41.02879265330404,172.1108489201509</t>
+        </is>
+      </c>
+      <c r="G461" t="inlineStr">
+        <is>
+          <t>-41.02812578208172,172.11067130398965</t>
+        </is>
+      </c>
+      <c r="H461" t="inlineStr">
+        <is>
+          <t>-41.02745136791832,172.11058262058862</t>
+        </is>
+      </c>
+      <c r="I461" t="inlineStr">
+        <is>
+          <t>-41.026772170058436,172.11055036016955</t>
+        </is>
+      </c>
+      <c r="J461" t="inlineStr">
+        <is>
+          <t>-41.026096020418294,172.11048184785514</t>
+        </is>
+      </c>
+      <c r="K461" t="inlineStr">
+        <is>
+          <t>-41.02542895975085,172.11030800452912</t>
+        </is>
+      </c>
+      <c r="L461" t="inlineStr">
+        <is>
+          <t>-41.02477023458129,172.1100383933622</t>
+        </is>
+      </c>
+      <c r="M461" t="inlineStr">
+        <is>
+          <t>-41.02409152306882,172.10999835233278</t>
+        </is>
+      </c>
+      <c r="N461" t="inlineStr">
+        <is>
+          <t>-41.023425573312714,172.1098115962427</t>
+        </is>
+      </c>
+      <c r="O461" t="inlineStr">
+        <is>
+          <t>-41.02277189347868,172.10967602466135</t>
+        </is>
+      </c>
+      <c r="P461" t="inlineStr">
+        <is>
+          <t>-41.022078879790655,172.10969896697932</t>
+        </is>
+      </c>
+      <c r="Q461" t="inlineStr">
+        <is>
+          <t>-41.0214258443844,172.10945600575494</t>
+        </is>
+      </c>
+      <c r="R461" t="inlineStr">
+        <is>
+          <t>-41.020766732484816,172.10923953601807</t>
+        </is>
+      </c>
+      <c r="S461" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-21 22:13:37+00:00</t>
+        </is>
+      </c>
+      <c r="B462" t="inlineStr">
+        <is>
+          <t>-41.03149466804626,172.11115108637247</t>
+        </is>
+      </c>
+      <c r="C462" t="inlineStr">
+        <is>
+          <t>-41.03081181595183,172.11116238655936</t>
+        </is>
+      </c>
+      <c r="D462" t="inlineStr">
+        <is>
+          <t>-41.030135369029765,172.11109801624417</t>
+        </is>
+      </c>
+      <c r="E462" t="inlineStr">
+        <is>
+          <t>-41.02946180810897,172.11099950685806</t>
+        </is>
+      </c>
+      <c r="F462" t="inlineStr">
+        <is>
+          <t>-41.02879476688572,172.11082397790176</t>
+        </is>
+      </c>
+      <c r="G462" t="inlineStr">
+        <is>
+          <t>-41.02812657341268,172.1106619655155</t>
+        </is>
+      </c>
+      <c r="H462" t="inlineStr">
+        <is>
+          <t>-41.02745277027038,172.110566071562</t>
+        </is>
+      </c>
+      <c r="I462" t="inlineStr">
+        <is>
+          <t>-41.02677400630609,172.1105287289192</t>
+        </is>
+      </c>
+      <c r="J462" t="inlineStr">
+        <is>
+          <t>-41.026094647773796,172.11049780248356</t>
+        </is>
+      </c>
+      <c r="K462" t="inlineStr">
+        <is>
+          <t>-41.025426563609585,172.1103355366746</t>
+        </is>
+      </c>
+      <c r="L462" t="inlineStr">
+        <is>
+          <t>-41.024770049476025,172.11004052028846</t>
+        </is>
+      </c>
+      <c r="M462" t="inlineStr">
+        <is>
+          <t>-41.02409645919847,172.10994163487803</t>
+        </is>
+      </c>
+      <c r="N462" t="inlineStr">
+        <is>
+          <t>-41.02342733178758,172.10979139085077</t>
+        </is>
+      </c>
+      <c r="O462" t="inlineStr">
+        <is>
+          <t>-41.022766885786716,172.10970878523653</t>
+        </is>
+      </c>
+      <c r="P462" t="inlineStr">
+        <is>
+          <t>-41.02207561745901,172.1097131961884</t>
+        </is>
+      </c>
+      <c r="Q462" t="inlineStr">
+        <is>
+          <t>-41.021432581738864,172.10942763414945</t>
+        </is>
+      </c>
+      <c r="R462" t="inlineStr">
+        <is>
+          <t>-41.020774871174446,172.1092052634466</t>
+        </is>
+      </c>
+      <c r="S462" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-05 22:19:15+00:00</t>
+        </is>
+      </c>
+      <c r="B463" t="inlineStr">
+        <is>
+          <t>-41.03150882877613,172.11098397040047</t>
+        </is>
+      </c>
+      <c r="C463" t="inlineStr">
+        <is>
+          <t>-41.03080690196021,172.1112203767456</t>
+        </is>
+      </c>
+      <c r="D463" t="inlineStr">
+        <is>
+          <t>-41.0301299338249,172.11116215672862</t>
+        </is>
+      </c>
+      <c r="E463" t="inlineStr">
+        <is>
+          <t>-41.02945461079493,172.11108444137494</t>
+        </is>
+      </c>
+      <c r="F463" t="inlineStr">
+        <is>
+          <t>-41.02878458291159,172.11094415776128</t>
+        </is>
+      </c>
+      <c r="G463" t="inlineStr">
+        <is>
+          <t>-41.02811213400732,172.11083236308312</t>
+        </is>
+      </c>
+      <c r="H463" t="inlineStr">
+        <is>
+          <t>-41.027448468047055,172.1106168416094</t>
+        </is>
+      </c>
+      <c r="I463" t="inlineStr">
+        <is>
+          <t>-41.026775233813616,172.11051426868383</t>
+        </is>
+      </c>
+      <c r="J463" t="inlineStr">
+        <is>
+          <t>-41.02609681858462,172.11047257053386</t>
+        </is>
+      </c>
+      <c r="K463" t="inlineStr">
+        <is>
+          <t>-41.02542039325835,172.11040643489466</t>
+        </is>
+      </c>
+      <c r="L463" t="inlineStr">
+        <is>
+          <t>-41.02475184155193,172.11024973362927</t>
+        </is>
+      </c>
+      <c r="M463" t="inlineStr">
+        <is>
+          <t>-41.0240910647125,172.1100036189532</t>
+        </is>
+      </c>
+      <c r="N463" t="inlineStr">
+        <is>
+          <t>-41.02343142802614,172.10974432370577</t>
+        </is>
+      </c>
+      <c r="O463" t="inlineStr">
+        <is>
+          <t>-41.02277562399519,172.1096516193899</t>
+        </is>
+      </c>
+      <c r="P463" t="inlineStr">
+        <is>
+          <t>-41.02208420018371,172.10967576116906</t>
+        </is>
+      </c>
+      <c r="Q463" t="inlineStr">
+        <is>
+          <t>-41.02142411962051,172.10946326888504</t>
+        </is>
+      </c>
+      <c r="R463" t="inlineStr">
+        <is>
+          <t>-41.0207874205466,172.1091524170922</t>
+        </is>
+      </c>
+      <c r="S463" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-13 22:19:22+00:00</t>
+        </is>
+      </c>
+      <c r="B464" t="inlineStr">
+        <is>
+          <t>-41.031496390987,172.11113075347308</t>
+        </is>
+      </c>
+      <c r="C464" t="inlineStr">
+        <is>
+          <t>-41.03081394292758,172.1111372859349</t>
+        </is>
+      </c>
+      <c r="D464" t="inlineStr">
+        <is>
+          <t>-41.03013902351315,172.11105488969</t>
+        </is>
+      </c>
+      <c r="E464" t="inlineStr">
+        <is>
+          <t>-41.029467557901384,172.11093165380072</t>
+        </is>
+      </c>
+      <c r="F464" t="inlineStr">
+        <is>
+          <t>-41.02879216247151,172.11085471242654</t>
+        </is>
+      </c>
+      <c r="G464" t="inlineStr">
+        <is>
+          <t>-41.02813471706572,172.11056586196574</t>
+        </is>
+      </c>
+      <c r="H464" t="inlineStr">
+        <is>
+          <t>-41.02745885044063,172.1104943197032</t>
+        </is>
+      </c>
+      <c r="I464" t="inlineStr">
+        <is>
+          <t>-41.026786227785024,172.11038475696188</t>
+        </is>
+      </c>
+      <c r="J464" t="inlineStr">
+        <is>
+          <t>-41.02612064630058,172.11019560989652</t>
+        </is>
+      </c>
+      <c r="K464" t="inlineStr">
+        <is>
+          <t>-41.025439788581636,172.1101835781143</t>
+        </is>
+      </c>
+      <c r="L464" t="inlineStr">
+        <is>
+          <t>-41.024775791149025,172.1099745461814</t>
+        </is>
+      </c>
+      <c r="M464" t="inlineStr">
+        <is>
+          <t>-41.024110710646596,172.10977788006278</t>
+        </is>
+      </c>
+      <c r="N464" t="inlineStr">
+        <is>
+          <t>-41.02345212487645,172.10950650653265</t>
+        </is>
+      </c>
+      <c r="O464" t="inlineStr">
+        <is>
+          <t>-41.022816748436945,172.10938257829864</t>
+        </is>
+      </c>
+      <c r="P464" t="inlineStr">
+        <is>
+          <t>-41.02222564932507,172.1090587975041</t>
+        </is>
+      </c>
+      <c r="Q464" t="inlineStr"/>
+      <c r="R464" t="inlineStr">
+        <is>
+          <t>-41.020858602062766,172.10885266402698</t>
+        </is>
+      </c>
+      <c r="S464" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-14 22:13:00+00:00</t>
+        </is>
+      </c>
+      <c r="B465" t="inlineStr"/>
+      <c r="C465" t="inlineStr"/>
+      <c r="D465" t="inlineStr"/>
+      <c r="E465" t="inlineStr">
+        <is>
+          <t>-41.02946841435657,172.1109215467677</t>
+        </is>
+      </c>
+      <c r="F465" t="inlineStr">
+        <is>
+          <t>-41.02879639630991,172.110804749121</t>
+        </is>
+      </c>
+      <c r="G465" t="inlineStr">
+        <is>
+          <t>-41.028131416541996,172.11060481168508</t>
+        </is>
+      </c>
+      <c r="H465" t="inlineStr">
+        <is>
+          <t>-41.02746269184305,172.11044898717978</t>
+        </is>
+      </c>
+      <c r="I465" t="inlineStr">
+        <is>
+          <t>-41.026797954080955,172.11024661633397</t>
+        </is>
+      </c>
+      <c r="J465" t="inlineStr">
+        <is>
+          <t>-41.02612054970995,172.11019673263044</t>
+        </is>
+      </c>
+      <c r="K465" t="inlineStr">
+        <is>
+          <t>-41.02544151624586,172.11016372660293</t>
+        </is>
+      </c>
+      <c r="L465" t="inlineStr">
+        <is>
+          <t>-41.02478118200276,172.10991260272135</t>
+        </is>
+      </c>
+      <c r="M465" t="inlineStr">
+        <is>
+          <t>-41.02410929888073,172.10979410193744</t>
+        </is>
+      </c>
+      <c r="N465" t="inlineStr">
+        <is>
+          <t>-41.02345065095341,172.1095234428381</t>
+        </is>
+      </c>
+      <c r="O465" t="inlineStr">
+        <is>
+          <t>-41.02280817074911,172.10943869494187</t>
+        </is>
+      </c>
+      <c r="P465" t="inlineStr">
+        <is>
+          <t>-41.02222380755109,172.10906683094413</t>
+        </is>
+      </c>
+      <c r="Q465" t="inlineStr"/>
+      <c r="R465" t="inlineStr">
+        <is>
+          <t>-41.020878687971624,172.10876807937768</t>
+        </is>
+      </c>
+      <c r="S465" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-22 22:13:33+00:00</t>
+        </is>
+      </c>
+      <c r="B466" t="inlineStr">
+        <is>
+          <t>-41.03150802742088,172.11099342756646</t>
+        </is>
+      </c>
+      <c r="C466" t="inlineStr">
+        <is>
+          <t>-41.03081011080562,172.11118250908922</t>
+        </is>
+      </c>
+      <c r="D466" t="inlineStr">
+        <is>
+          <t>-41.03013254183205,172.1111313798669</t>
+        </is>
+      </c>
+      <c r="E466" t="inlineStr">
+        <is>
+          <t>-41.02945489628458,172.11108107236524</t>
+        </is>
+      </c>
+      <c r="F466" t="inlineStr">
+        <is>
+          <t>-41.028784212279334,172.11094853151945</t>
+        </is>
+      </c>
+      <c r="G466" t="inlineStr">
+        <is>
+          <t>-41.0281060786976,172.11090382010678</t>
+        </is>
+      </c>
+      <c r="H466" t="inlineStr">
+        <is>
+          <t>-41.02743580165045,172.11076631473978</t>
+        </is>
+      </c>
+      <c r="I466" t="inlineStr">
+        <is>
+          <t>-41.02677223360806,172.11054961154707</t>
+        </is>
+      </c>
+      <c r="J466" t="inlineStr">
+        <is>
+          <t>-41.02610114493811,172.1104222839034</t>
+        </is>
+      </c>
+      <c r="K466" t="inlineStr">
+        <is>
+          <t>-41.0254275200101,172.11032454744938</t>
+        </is>
+      </c>
+      <c r="L466" t="inlineStr">
+        <is>
+          <t>-41.02475287336352,172.1102378779907</t>
+        </is>
+      </c>
+      <c r="M466" t="inlineStr">
+        <is>
+          <t>-41.02408533083086,172.1100695023429</t>
+        </is>
+      </c>
+      <c r="N466" t="inlineStr">
+        <is>
+          <t>-41.023422810477584,172.10984334194418</t>
+        </is>
+      </c>
+      <c r="O466" t="inlineStr">
+        <is>
+          <t>-41.022789862877445,172.1095584673977</t>
+        </is>
+      </c>
+      <c r="P466" t="inlineStr">
+        <is>
+          <t>-41.02213649786792,172.109447654527</t>
+        </is>
+      </c>
+      <c r="Q466" t="inlineStr">
+        <is>
+          <t>-41.021431908003734,172.10943047131025</t>
+        </is>
+      </c>
+      <c r="R466" t="inlineStr">
+        <is>
+          <t>-41.020776856438246,172.1091969033589</t>
+        </is>
+      </c>
+      <c r="S466" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-01 22:19:15+00:00</t>
+        </is>
+      </c>
+      <c r="B467" t="inlineStr">
+        <is>
+          <t>-41.03150022084435,172.11108555611372</t>
+        </is>
+      </c>
+      <c r="C467" t="inlineStr">
+        <is>
+          <t>-41.030814532825694,172.1111303244846</t>
+        </is>
+      </c>
+      <c r="D467" t="inlineStr">
+        <is>
+          <t>-41.03012510079935,172.11121919057254</t>
+        </is>
+      </c>
+      <c r="E467" t="inlineStr">
+        <is>
+          <t>-41.02945619851678,172.11106570495204</t>
+        </is>
+      </c>
+      <c r="F467" t="inlineStr">
+        <is>
+          <t>-41.028784025293646,172.11095073810012</t>
+        </is>
+      </c>
+      <c r="G467" t="inlineStr">
+        <is>
+          <t>-41.0281117784031,172.11083655948437</t>
+        </is>
+      </c>
+      <c r="H467" t="inlineStr">
+        <is>
+          <t>-41.02744581858753,172.11064810744463</t>
+        </is>
+      </c>
+      <c r="I467" t="inlineStr">
+        <is>
+          <t>-41.02677602985297,172.1105048912012</t>
+        </is>
+      </c>
+      <c r="J467" t="inlineStr">
+        <is>
+          <t>-41.02610312763094,172.1103992383245</t>
+        </is>
+      </c>
+      <c r="K467" t="inlineStr">
+        <is>
+          <t>-41.0254293916726,172.1103030416529</t>
+        </is>
+      </c>
+      <c r="L467" t="inlineStr">
+        <is>
+          <t>-41.024762030494976,172.11013266082432</t>
+        </is>
+      </c>
+      <c r="M467" t="inlineStr">
+        <is>
+          <t>-41.024095103234686,172.1099572152987</t>
+        </is>
+      </c>
+      <c r="N467" t="inlineStr">
+        <is>
+          <t>-41.023431524004735,172.10974322087722</t>
+        </is>
+      </c>
+      <c r="O467" t="inlineStr">
+        <is>
+          <t>-41.02280931127429,172.10943123344993</t>
+        </is>
+      </c>
+      <c r="P467" t="inlineStr">
+        <is>
+          <t>-41.02222370688732,172.10906727001876</t>
+        </is>
+      </c>
+      <c r="Q467" t="inlineStr">
+        <is>
+          <t>-41.02153137749496,172.10901159227524</t>
+        </is>
+      </c>
+      <c r="R467" t="inlineStr">
+        <is>
+          <t>-41.02082761969493,172.10898313461487</t>
+        </is>
+      </c>
+      <c r="S467" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0335/nzd0335.xlsx
+++ b/data/nzd0335/nzd0335.xlsx
@@ -31107,7 +31107,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W18"/>
+  <dimension ref="A1:X18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31198,35 +31198,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -31285,27 +31290,28 @@
       <c r="P2" t="n">
         <v>388.3416562361805</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (172.11547125320413 -41.03112850826896, 172.1048076845659 -41.0320320076708)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>172.1154712532041</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-41.03112850826896</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>172.1048076845659</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-41.0320320076708</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>172.110139468885</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-41.03158025796988</v>
       </c>
     </row>
@@ -31362,27 +31368,28 @@
       <c r="P3" t="n">
         <v>372.8177493378657</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (172.11536515011454 -41.03045560318388, 172.10470165301453 -41.03135910012434)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>172.1153651501145</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-41.03045560318388</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>172.1047016530145</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-41.03135910012434</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>172.1100334015645</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-41.03090735165411</v>
       </c>
     </row>
@@ -31439,27 +31446,28 @@
       <c r="P4" t="n">
         <v>372.1473992777827</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (172.11525904702555 -41.029782691221364, 172.1045956214621 -41.03068618570063)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>172.1152590470255</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-41.02978269122136</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>172.1045956214621</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-41.03068618570063</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>172.1099273342438</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-41.03023443846099</v>
       </c>
     </row>
@@ -31516,27 +31524,28 @@
       <c r="P5" t="n">
         <v>366.4984084315951</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (172.11515294393706 -41.02910977238141, 172.10448958990852 -41.030013264399656)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>172.1151529439371</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-41.02910977238141</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>172.1044895899085</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-41.03001326439966</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>172.1098212669228</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-41.02956151839054</v>
       </c>
     </row>
@@ -31593,27 +31602,28 @@
       <c r="P6" t="n">
         <v>362.843163337937</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (172.11504684084917 -41.02843684666402, 172.10438355835382 -41.029340336221445)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>172.1150468408492</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-41.02843684666402</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>172.1043835583538</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-41.02934033622144</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>172.1097151996015</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-41.02888859144274</v>
       </c>
     </row>
@@ -31670,27 +31680,28 @@
       <c r="P7" t="n">
         <v>360.8816340843272</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
         <is>
           <t>LINESTRING (172.1149407377618 -41.02776391406925, 172.10427752679806 -41.02866740116601)</t>
         </is>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>172.1149407377618</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>-41.02776391406925</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>172.1042775267981</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>-41.02866740116601</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>172.1096091322799</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>-41.02821565761763</v>
       </c>
     </row>
@@ -31747,27 +31758,28 @@
       <c r="P8" t="n">
         <v>362.3460370061439</v>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
         <is>
           <t>LINESTRING (172.11483463467496 -41.027090974597044, 172.10417149524122 -41.02799445923347)</t>
         </is>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>172.114834634675</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>-41.02709097459704</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>172.1041714952412</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>-41.02799445923347</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>172.1095030649581</v>
       </c>
-      <c r="W8" t="n">
+      <c r="X8" t="n">
         <v>-41.02754271691526</v>
       </c>
     </row>
@@ -31824,27 +31836,28 @@
       <c r="P9" t="n">
         <v>361.6176164894615</v>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr">
         <is>
           <t>LINESTRING (172.1147284405834 -41.0264174202817, 172.1040656043929 -41.02732246551234)</t>
         </is>
       </c>
-      <c r="R9" t="n">
+      <c r="S9" t="n">
         <v>172.1147284405834</v>
       </c>
-      <c r="S9" t="n">
+      <c r="T9" t="n">
         <v>-41.0264174202817</v>
       </c>
-      <c r="T9" t="n">
+      <c r="U9" t="n">
         <v>172.1040656043929</v>
       </c>
-      <c r="U9" t="n">
+      <c r="V9" t="n">
         <v>-41.02732246551234</v>
       </c>
-      <c r="V9" t="n">
+      <c r="W9" t="n">
         <v>172.1093970224882</v>
       </c>
-      <c r="W9" t="n">
+      <c r="X9" t="n">
         <v>-41.02686994289702</v>
       </c>
     </row>
@@ -31901,27 +31914,28 @@
       <c r="P10" t="n">
         <v>362.6522406348114</v>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr">
         <is>
           <t>LINESTRING (172.11462128483257 -41.025739810972524, 172.103960320304 -41.02665690508453)</t>
         </is>
       </c>
-      <c r="R10" t="n">
+      <c r="S10" t="n">
         <v>172.1146212848326</v>
       </c>
-      <c r="S10" t="n">
+      <c r="T10" t="n">
         <v>-41.02573981097252</v>
       </c>
-      <c r="T10" t="n">
+      <c r="U10" t="n">
         <v>172.103960320304</v>
       </c>
-      <c r="U10" t="n">
+      <c r="V10" t="n">
         <v>-41.02665690508453</v>
       </c>
-      <c r="V10" t="n">
+      <c r="W10" t="n">
         <v>172.1092908025683</v>
       </c>
-      <c r="W10" t="n">
+      <c r="X10" t="n">
         <v>-41.02619835802852</v>
       </c>
     </row>
@@ -31978,27 +31992,28 @@
       <c r="P11" t="n">
         <v>362.9405251008048</v>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr">
         <is>
           <t>LINESTRING (172.1145118932181 -41.025063014156196, 172.1038525861869 -41.02599059250232)</t>
         </is>
       </c>
-      <c r="R11" t="n">
+      <c r="S11" t="n">
         <v>172.1145118932181</v>
       </c>
-      <c r="S11" t="n">
+      <c r="T11" t="n">
         <v>-41.0250630141562</v>
       </c>
-      <c r="T11" t="n">
+      <c r="U11" t="n">
         <v>172.1038525861869</v>
       </c>
-      <c r="U11" t="n">
+      <c r="V11" t="n">
         <v>-41.02599059250232</v>
       </c>
-      <c r="V11" t="n">
+      <c r="W11" t="n">
         <v>172.1091822397025</v>
       </c>
-      <c r="W11" t="n">
+      <c r="X11" t="n">
         <v>-41.02552680332926</v>
       </c>
     </row>
@@ -32055,27 +32070,28 @@
       <c r="P12" t="n">
         <v>365.6835183664654</v>
       </c>
-      <c r="Q12" t="inlineStr">
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr">
         <is>
           <t>LINESTRING (172.11440312441397 -41.02439028939855, 172.10374388881232 -41.02531786520499)</t>
         </is>
       </c>
-      <c r="R12" t="n">
+      <c r="S12" t="n">
         <v>172.114403124414</v>
       </c>
-      <c r="S12" t="n">
+      <c r="T12" t="n">
         <v>-41.02439028939855</v>
       </c>
-      <c r="T12" t="n">
+      <c r="U12" t="n">
         <v>172.1037438888123</v>
       </c>
-      <c r="U12" t="n">
+      <c r="V12" t="n">
         <v>-41.02531786520499</v>
       </c>
-      <c r="V12" t="n">
+      <c r="W12" t="n">
         <v>172.1090735066131</v>
       </c>
-      <c r="W12" t="n">
+      <c r="X12" t="n">
         <v>-41.02485407730177</v>
       </c>
     </row>
@@ -32132,27 +32148,28 @@
       <c r="P13" t="n">
         <v>366.6664400947987</v>
       </c>
-      <c r="Q13" t="inlineStr">
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr">
         <is>
           <t>LINESTRING (172.11429435561044 -41.02371755776861, 172.1036351914366 -41.024645131035506)</t>
         </is>
       </c>
-      <c r="R13" t="n">
+      <c r="S13" t="n">
         <v>172.1142943556104</v>
       </c>
-      <c r="S13" t="n">
+      <c r="T13" t="n">
         <v>-41.02371755776861</v>
       </c>
-      <c r="T13" t="n">
+      <c r="U13" t="n">
         <v>172.1036351914366</v>
       </c>
-      <c r="U13" t="n">
+      <c r="V13" t="n">
         <v>-41.02464513103551</v>
       </c>
-      <c r="V13" t="n">
+      <c r="W13" t="n">
         <v>172.1089647735235</v>
       </c>
-      <c r="W13" t="n">
+      <c r="X13" t="n">
         <v>-41.02418134440206</v>
       </c>
     </row>
@@ -32209,27 +32226,28 @@
       <c r="P14" t="n">
         <v>367.863547359377</v>
       </c>
-      <c r="Q14" t="inlineStr">
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr">
         <is>
           <t>LINESTRING (172.11418558680737 -41.02304481926647, 172.10352649405976 -41.02397238999388)</t>
         </is>
       </c>
-      <c r="R14" t="n">
+      <c r="S14" t="n">
         <v>172.1141855868074</v>
       </c>
-      <c r="S14" t="n">
+      <c r="T14" t="n">
         <v>-41.02304481926647</v>
       </c>
-      <c r="T14" t="n">
+      <c r="U14" t="n">
         <v>172.1035264940598</v>
       </c>
-      <c r="U14" t="n">
+      <c r="V14" t="n">
         <v>-41.02397238999388</v>
       </c>
-      <c r="V14" t="n">
+      <c r="W14" t="n">
         <v>172.1088560404336</v>
       </c>
-      <c r="W14" t="n">
+      <c r="X14" t="n">
         <v>-41.02350860463017</v>
       </c>
     </row>
@@ -32286,27 +32304,28 @@
       <c r="P15" t="n">
         <v>377.9753877088792</v>
       </c>
-      <c r="Q15" t="inlineStr">
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr">
         <is>
           <t>LINESTRING (172.1140210920309 -41.022107630174695, 172.10350433844556 -41.02371510034905)</t>
         </is>
       </c>
-      <c r="R15" t="n">
+      <c r="S15" t="n">
         <v>172.1140210920309</v>
       </c>
-      <c r="S15" t="n">
+      <c r="T15" t="n">
         <v>-41.02210763017469</v>
       </c>
-      <c r="T15" t="n">
+      <c r="U15" t="n">
         <v>172.1035043384456</v>
       </c>
-      <c r="U15" t="n">
+      <c r="V15" t="n">
         <v>-41.02371510034905</v>
       </c>
-      <c r="V15" t="n">
+      <c r="W15" t="n">
         <v>172.1087627152382</v>
       </c>
-      <c r="W15" t="n">
+      <c r="X15" t="n">
         <v>-41.02291136526188</v>
       </c>
     </row>
@@ -32363,27 +32382,28 @@
       <c r="P16" t="n">
         <v>348.9198064333099</v>
       </c>
-      <c r="Q16" t="inlineStr">
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr">
         <is>
           <t>LINESTRING (172.11366642372448 -41.02116917984386, 172.1033984423917 -41.02352319625291)</t>
         </is>
       </c>
-      <c r="R16" t="n">
+      <c r="S16" t="n">
         <v>172.1136664237245</v>
       </c>
-      <c r="S16" t="n">
+      <c r="T16" t="n">
         <v>-41.02116917984386</v>
       </c>
-      <c r="T16" t="n">
+      <c r="U16" t="n">
         <v>172.1033984423917</v>
       </c>
-      <c r="U16" t="n">
+      <c r="V16" t="n">
         <v>-41.02352319625291</v>
       </c>
-      <c r="V16" t="n">
+      <c r="W16" t="n">
         <v>172.1085324330581</v>
       </c>
-      <c r="W16" t="n">
+      <c r="X16" t="n">
         <v>-41.02234618804839</v>
       </c>
     </row>
@@ -32440,27 +32460,28 @@
       <c r="P17" t="n">
         <v>359.5048886103567</v>
       </c>
-      <c r="Q17" t="inlineStr">
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr">
         <is>
           <t>LINESTRING (172.1133792902345 -41.02049410815152, 172.10314266819947 -41.02292485438791)</t>
         </is>
       </c>
-      <c r="R17" t="n">
+      <c r="S17" t="n">
         <v>172.1133792902345</v>
       </c>
-      <c r="S17" t="n">
+      <c r="T17" t="n">
         <v>-41.02049410815152</v>
       </c>
-      <c r="T17" t="n">
+      <c r="U17" t="n">
         <v>172.1031426681995</v>
       </c>
-      <c r="U17" t="n">
+      <c r="V17" t="n">
         <v>-41.02292485438791</v>
       </c>
-      <c r="V17" t="n">
+      <c r="W17" t="n">
         <v>172.108260979217</v>
       </c>
-      <c r="W17" t="n">
+      <c r="X17" t="n">
         <v>-41.02170948126971</v>
       </c>
     </row>
@@ -32517,27 +32538,28 @@
       <c r="P18" t="n">
         <v>356.0143661833749</v>
       </c>
-      <c r="Q18" t="inlineStr">
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr">
         <is>
           <t>LINESTRING (172.11310437736702 -41.01984887201742, 172.10286781577187 -41.022279610917)</t>
         </is>
       </c>
-      <c r="R18" t="n">
+      <c r="S18" t="n">
         <v>172.113104377367</v>
       </c>
-      <c r="S18" t="n">
+      <c r="T18" t="n">
         <v>-41.01984887201742</v>
       </c>
-      <c r="T18" t="n">
+      <c r="U18" t="n">
         <v>172.1028678157719</v>
       </c>
-      <c r="U18" t="n">
+      <c r="V18" t="n">
         <v>-41.022279610917</v>
       </c>
-      <c r="V18" t="n">
+      <c r="W18" t="n">
         <v>172.1079860965694</v>
       </c>
-      <c r="W18" t="n">
+      <c r="X18" t="n">
         <v>-41.02106424146722</v>
       </c>
     </row>

--- a/data/nzd0335/nzd0335.xlsx
+++ b/data/nzd0335/nzd0335.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S467"/>
+  <dimension ref="A1:S472"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26335,6 +26335,311 @@
         </is>
       </c>
     </row>
+    <row r="468">
+      <c r="A468" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-09 22:19:02+00:00</t>
+        </is>
+      </c>
+      <c r="B468" t="n">
+        <v>370.1266666666667</v>
+      </c>
+      <c r="C468" t="n">
+        <v>354.2677777777778</v>
+      </c>
+      <c r="D468" t="n">
+        <v>346.4411764705882</v>
+      </c>
+      <c r="E468" t="n">
+        <v>342.725</v>
+      </c>
+      <c r="F468" t="n">
+        <v>342.1133333333333</v>
+      </c>
+      <c r="G468" t="n">
+        <v>342.685</v>
+      </c>
+      <c r="H468" t="n">
+        <v>339.535</v>
+      </c>
+      <c r="I468" t="n">
+        <v>349.2333333333333</v>
+      </c>
+      <c r="J468" t="n">
+        <v>361.745</v>
+      </c>
+      <c r="K468" t="n">
+        <v>359.9</v>
+      </c>
+      <c r="L468" t="n">
+        <v>358.1577777777778</v>
+      </c>
+      <c r="M468" t="n">
+        <v>363.4714285714285</v>
+      </c>
+      <c r="N468" t="n">
+        <v>367.2333333333333</v>
+      </c>
+      <c r="O468" t="n">
+        <v>374.2233333333333</v>
+      </c>
+      <c r="P468" t="n">
+        <v>375.0328571428572</v>
+      </c>
+      <c r="Q468" t="n">
+        <v>373.17</v>
+      </c>
+      <c r="R468" t="n">
+        <v>355.4066666666667</v>
+      </c>
+      <c r="S468" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-18 22:12:42+00:00</t>
+        </is>
+      </c>
+      <c r="B469" t="inlineStr"/>
+      <c r="C469" t="n">
+        <v>295.6122222222222</v>
+      </c>
+      <c r="D469" t="n">
+        <v>340.5852941176471</v>
+      </c>
+      <c r="E469" t="n">
+        <v>334.3</v>
+      </c>
+      <c r="F469" t="n">
+        <v>328.8166666666667</v>
+      </c>
+      <c r="G469" t="n">
+        <v>339.97</v>
+      </c>
+      <c r="H469" t="n">
+        <v>335.44</v>
+      </c>
+      <c r="I469" t="n">
+        <v>336.2466666666667</v>
+      </c>
+      <c r="J469" t="n">
+        <v>348.95</v>
+      </c>
+      <c r="K469" t="n">
+        <v>346.6</v>
+      </c>
+      <c r="L469" t="n">
+        <v>356.7922222222222</v>
+      </c>
+      <c r="M469" t="n">
+        <v>355.6757142857143</v>
+      </c>
+      <c r="N469" t="n">
+        <v>360.3266666666667</v>
+      </c>
+      <c r="O469" t="n">
+        <v>368.9966666666666</v>
+      </c>
+      <c r="P469" t="n">
+        <v>366.7314285714286</v>
+      </c>
+      <c r="Q469" t="n">
+        <v>358.05</v>
+      </c>
+      <c r="R469" t="n">
+        <v>349.8133333333333</v>
+      </c>
+      <c r="S469" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-25 22:18:51+00:00</t>
+        </is>
+      </c>
+      <c r="B470" t="inlineStr"/>
+      <c r="C470" t="inlineStr"/>
+      <c r="D470" t="inlineStr"/>
+      <c r="E470" t="inlineStr"/>
+      <c r="F470" t="n">
+        <v>343.0833333333333</v>
+      </c>
+      <c r="G470" t="n">
+        <v>339.815</v>
+      </c>
+      <c r="H470" t="n">
+        <v>348.355</v>
+      </c>
+      <c r="I470" t="n">
+        <v>351.0533333333333</v>
+      </c>
+      <c r="J470" t="n">
+        <v>359.775</v>
+      </c>
+      <c r="K470" t="n">
+        <v>362.09</v>
+      </c>
+      <c r="L470" t="n">
+        <v>363.2944444444445</v>
+      </c>
+      <c r="M470" t="n">
+        <v>372.7285714285715</v>
+      </c>
+      <c r="N470" t="n">
+        <v>367.9633333333333</v>
+      </c>
+      <c r="O470" t="n">
+        <v>374.1833333333333</v>
+      </c>
+      <c r="P470" t="n">
+        <v>371.0171428571429</v>
+      </c>
+      <c r="Q470" t="n">
+        <v>367.59</v>
+      </c>
+      <c r="R470" t="n">
+        <v>356.0466666666667</v>
+      </c>
+      <c r="S470" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-26 22:13:17+00:00</t>
+        </is>
+      </c>
+      <c r="B471" t="n">
+        <v>367.2666666666667</v>
+      </c>
+      <c r="C471" t="n">
+        <v>332.1477777777778</v>
+      </c>
+      <c r="D471" t="n">
+        <v>353.6717647058824</v>
+      </c>
+      <c r="E471" t="n">
+        <v>349.095</v>
+      </c>
+      <c r="F471" t="n">
+        <v>345.2233333333334</v>
+      </c>
+      <c r="G471" t="n">
+        <v>341.825</v>
+      </c>
+      <c r="H471" t="n">
+        <v>350.895</v>
+      </c>
+      <c r="I471" t="n">
+        <v>354.9333333333333</v>
+      </c>
+      <c r="J471" t="n">
+        <v>362.045</v>
+      </c>
+      <c r="K471" t="n">
+        <v>366.34</v>
+      </c>
+      <c r="L471" t="n">
+        <v>367.0577777777777</v>
+      </c>
+      <c r="M471" t="n">
+        <v>373.3971428571429</v>
+      </c>
+      <c r="N471" t="n">
+        <v>376.2833333333334</v>
+      </c>
+      <c r="O471" t="n">
+        <v>380.4733333333334</v>
+      </c>
+      <c r="P471" t="n">
+        <v>395.2242857142857</v>
+      </c>
+      <c r="Q471" t="n">
+        <v>382.3</v>
+      </c>
+      <c r="R471" t="n">
+        <v>365.6766666666667</v>
+      </c>
+      <c r="S471" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-10 22:18:46+00:00</t>
+        </is>
+      </c>
+      <c r="B472" t="n">
+        <v>370.18</v>
+      </c>
+      <c r="C472" t="n">
+        <v>355.84</v>
+      </c>
+      <c r="D472" t="n">
+        <v>363.3847058823529</v>
+      </c>
+      <c r="E472" t="n">
+        <v>359.215</v>
+      </c>
+      <c r="F472" t="n">
+        <v>353.1</v>
+      </c>
+      <c r="G472" t="n">
+        <v>341.675</v>
+      </c>
+      <c r="H472" t="n">
+        <v>350.545</v>
+      </c>
+      <c r="I472" t="n">
+        <v>358.15</v>
+      </c>
+      <c r="J472" t="n">
+        <v>361.355</v>
+      </c>
+      <c r="K472" t="n">
+        <v>359.79</v>
+      </c>
+      <c r="L472" t="n">
+        <v>362.56</v>
+      </c>
+      <c r="M472" t="n">
+        <v>366.3042857142857</v>
+      </c>
+      <c r="N472" t="n">
+        <v>373.34</v>
+      </c>
+      <c r="O472" t="n">
+        <v>373.68</v>
+      </c>
+      <c r="P472" t="n">
+        <v>380.9985714285714</v>
+      </c>
+      <c r="Q472" t="n">
+        <v>361.12</v>
+      </c>
+      <c r="R472" t="n">
+        <v>348.85</v>
+      </c>
+      <c r="S472" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -26346,7 +26651,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B474"/>
+  <dimension ref="A1:B479"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31094,6 +31399,56 @@
       </c>
       <c r="B474" t="n">
         <v>1.24</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>2025-03-09 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B475" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>2025-03-18 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B476" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>2025-03-25 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B477" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>2025-03-26 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B478" t="n">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>2025-04-10 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B479" t="n">
+        <v>1.17</v>
       </c>
     </row>
   </sheetData>
@@ -31267,28 +31622,28 @@
         <v>0.06419999999999999</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.431610643933122</v>
+        <v>-0.4473785242108935</v>
       </c>
       <c r="J2" t="n">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="K2" t="n">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="L2" t="n">
-        <v>0.03239233463193891</v>
+        <v>0.03531833591970479</v>
       </c>
       <c r="M2" t="n">
-        <v>13.6152452057379</v>
+        <v>13.5575567444956</v>
       </c>
       <c r="N2" t="n">
-        <v>312.8857337767206</v>
+        <v>310.1764660579435</v>
       </c>
       <c r="O2" t="n">
-        <v>17.68857636376429</v>
+        <v>17.61182744799481</v>
       </c>
       <c r="P2" t="n">
-        <v>388.3416562361805</v>
+        <v>388.4976419509151</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -31345,28 +31700,28 @@
         <v>0.1113</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.2426929155892065</v>
+        <v>-0.317765418296611</v>
       </c>
       <c r="J3" t="n">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="K3" t="n">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="L3" t="n">
-        <v>0.009298280027328354</v>
+        <v>0.01527250376954292</v>
       </c>
       <c r="M3" t="n">
-        <v>14.764461237215</v>
+        <v>14.98432010305093</v>
       </c>
       <c r="N3" t="n">
-        <v>350.5398819329847</v>
+        <v>367.2412515690971</v>
       </c>
       <c r="O3" t="n">
-        <v>18.72271032551069</v>
+        <v>19.16353964091961</v>
       </c>
       <c r="P3" t="n">
-        <v>372.8177493378657</v>
+        <v>373.5728616657981</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -31423,28 +31778,28 @@
         <v>0.1027</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.3748648595294879</v>
+        <v>-0.3973712939585206</v>
       </c>
       <c r="J4" t="n">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="K4" t="n">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="L4" t="n">
-        <v>0.02437379925609107</v>
+        <v>0.0276429205053359</v>
       </c>
       <c r="M4" t="n">
-        <v>14.2070127006901</v>
+        <v>14.17907322216766</v>
       </c>
       <c r="N4" t="n">
-        <v>314.7474454348254</v>
+        <v>313.4857917981753</v>
       </c>
       <c r="O4" t="n">
-        <v>17.74112300376798</v>
+        <v>17.70552997789604</v>
       </c>
       <c r="P4" t="n">
-        <v>372.1473992777827</v>
+        <v>372.3721016045532</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -31501,28 +31856,28 @@
         <v>0.0896</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.1777252143489944</v>
+        <v>-0.2066555913425597</v>
       </c>
       <c r="J5" t="n">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="K5" t="n">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="L5" t="n">
-        <v>0.006264696815657556</v>
+        <v>0.008508118053862646</v>
       </c>
       <c r="M5" t="n">
-        <v>13.52869093837305</v>
+        <v>13.53854973294657</v>
       </c>
       <c r="N5" t="n">
-        <v>280.6589263614116</v>
+        <v>281.0710013503864</v>
       </c>
       <c r="O5" t="n">
-        <v>16.7528781515718</v>
+        <v>16.76517227320932</v>
       </c>
       <c r="P5" t="n">
-        <v>366.4984084315951</v>
+        <v>366.7869640706945</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -31579,28 +31934,28 @@
         <v>0.0824</v>
       </c>
       <c r="I6" t="n">
-        <v>0.02127534349426117</v>
+        <v>-0.02358431031354928</v>
       </c>
       <c r="J6" t="n">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="K6" t="n">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0001151315215369708</v>
+        <v>0.0001409203451806507</v>
       </c>
       <c r="M6" t="n">
-        <v>12.1795536905027</v>
+        <v>12.26164979696109</v>
       </c>
       <c r="N6" t="n">
-        <v>230.4349510875792</v>
+        <v>233.6065077915883</v>
       </c>
       <c r="O6" t="n">
-        <v>15.18008402768507</v>
+        <v>15.28419143401404</v>
       </c>
       <c r="P6" t="n">
-        <v>362.843163337937</v>
+        <v>363.2742759923208</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -31657,28 +32012,28 @@
         <v>0.0901</v>
       </c>
       <c r="I7" t="n">
-        <v>0.05609079928110153</v>
+        <v>0.01111331813147214</v>
       </c>
       <c r="J7" t="n">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="K7" t="n">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0009200435363665438</v>
+        <v>3.598184941289162e-05</v>
       </c>
       <c r="M7" t="n">
-        <v>11.34457597056032</v>
+        <v>11.45206045795278</v>
       </c>
       <c r="N7" t="n">
-        <v>203.2009467255407</v>
+        <v>206.0849932285157</v>
       </c>
       <c r="O7" t="n">
-        <v>14.2548569521248</v>
+        <v>14.35566066847903</v>
       </c>
       <c r="P7" t="n">
-        <v>360.8816340843272</v>
+        <v>361.3105118483385</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -31735,28 +32090,28 @@
         <v>0.08649999999999999</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.05017058201791468</v>
+        <v>-0.08426797518668035</v>
       </c>
       <c r="J8" t="n">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="K8" t="n">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0009139422540688225</v>
+        <v>0.002575211554596168</v>
       </c>
       <c r="M8" t="n">
-        <v>10.18404127882516</v>
+        <v>10.24876103007484</v>
       </c>
       <c r="N8" t="n">
-        <v>164.0642648617016</v>
+        <v>165.6253691366861</v>
       </c>
       <c r="O8" t="n">
-        <v>12.80875735041076</v>
+        <v>12.86955201771554</v>
       </c>
       <c r="P8" t="n">
-        <v>362.3460370061439</v>
+        <v>362.6681255893644</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -31813,28 +32168,28 @@
         <v>0.0809</v>
       </c>
       <c r="I9" t="n">
-        <v>0.001419649427414558</v>
+        <v>-0.02300992866327723</v>
       </c>
       <c r="J9" t="n">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="K9" t="n">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="L9" t="n">
-        <v>7.10195819042525e-07</v>
+        <v>0.0001881138057622245</v>
       </c>
       <c r="M9" t="n">
-        <v>10.19553614263935</v>
+        <v>10.19946677456673</v>
       </c>
       <c r="N9" t="n">
-        <v>174.257586791853</v>
+        <v>174.444915639647</v>
       </c>
       <c r="O9" t="n">
-        <v>13.20066614954916</v>
+        <v>13.20775967526844</v>
       </c>
       <c r="P9" t="n">
-        <v>361.6176164894615</v>
+        <v>361.8438221449512</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -31891,28 +32246,28 @@
         <v>0.08790000000000001</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.035755014739867</v>
+        <v>-0.04190348942139149</v>
       </c>
       <c r="J10" t="n">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="K10" t="n">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0004680150316804799</v>
+        <v>0.0006551967497127054</v>
       </c>
       <c r="M10" t="n">
-        <v>10.21997136566493</v>
+        <v>10.12825700214819</v>
       </c>
       <c r="N10" t="n">
-        <v>165.0534816694014</v>
+        <v>163.4219574732321</v>
       </c>
       <c r="O10" t="n">
-        <v>12.8473141811587</v>
+        <v>12.78365978400677</v>
       </c>
       <c r="P10" t="n">
-        <v>362.6522406348114</v>
+        <v>362.7099971941363</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -31969,28 +32324,28 @@
         <v>0.1185</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.09973747401697744</v>
+        <v>-0.102754451885523</v>
       </c>
       <c r="J11" t="n">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="K11" t="n">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="L11" t="n">
-        <v>0.00362702972160267</v>
+        <v>0.003919484716649269</v>
       </c>
       <c r="M11" t="n">
-        <v>10.31525835307697</v>
+        <v>10.24276905083888</v>
       </c>
       <c r="N11" t="n">
-        <v>162.7490837737033</v>
+        <v>161.2937871565368</v>
       </c>
       <c r="O11" t="n">
-        <v>12.75731491238275</v>
+        <v>12.70014909977583</v>
       </c>
       <c r="P11" t="n">
-        <v>362.9405251008048</v>
+        <v>362.9692260190469</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -32047,28 +32402,28 @@
         <v>0.106</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.1885338406545758</v>
+        <v>-0.1870165366402011</v>
       </c>
       <c r="J12" t="n">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="K12" t="n">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="L12" t="n">
-        <v>0.01231505767824759</v>
+        <v>0.0123695596220571</v>
       </c>
       <c r="M12" t="n">
-        <v>10.15831887761137</v>
+        <v>10.07493332844284</v>
       </c>
       <c r="N12" t="n">
-        <v>167.564374560978</v>
+        <v>165.6666137795401</v>
       </c>
       <c r="O12" t="n">
-        <v>12.9446658728983</v>
+        <v>12.87115432972273</v>
       </c>
       <c r="P12" t="n">
-        <v>365.6835183664654</v>
+        <v>365.6688241395799</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -32125,28 +32480,28 @@
         <v>0.07679999999999999</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.1179370707751146</v>
+        <v>-0.112220817874646</v>
       </c>
       <c r="J13" t="n">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="K13" t="n">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="L13" t="n">
-        <v>0.003831168848130617</v>
+        <v>0.003537618116409291</v>
       </c>
       <c r="M13" t="n">
-        <v>11.38696604448879</v>
+        <v>11.31917422007999</v>
       </c>
       <c r="N13" t="n">
-        <v>212.8271285331525</v>
+        <v>210.7894582749959</v>
       </c>
       <c r="O13" t="n">
-        <v>14.58859583829617</v>
+        <v>14.51859009253295</v>
       </c>
       <c r="P13" t="n">
-        <v>366.6664400947987</v>
+        <v>366.6115791338983</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -32203,28 +32558,28 @@
         <v>0.0883</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.2075403056810936</v>
+        <v>-0.19304771429905</v>
       </c>
       <c r="J14" t="n">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="K14" t="n">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="L14" t="n">
-        <v>0.01069922762976827</v>
+        <v>0.009445144586854415</v>
       </c>
       <c r="M14" t="n">
-        <v>12.05105644810588</v>
+        <v>11.99203656230343</v>
       </c>
       <c r="N14" t="n">
-        <v>232.331022455938</v>
+        <v>230.2053953893996</v>
       </c>
       <c r="O14" t="n">
-        <v>15.24240868288008</v>
+        <v>15.1725210624141</v>
       </c>
       <c r="P14" t="n">
-        <v>367.863547359377</v>
+        <v>367.7226827239558</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -32281,28 +32636,28 @@
         <v>0.0925</v>
       </c>
       <c r="I15" t="n">
-        <v>-2.060274056300434</v>
+        <v>-1.941796588787261</v>
       </c>
       <c r="J15" t="n">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="K15" t="n">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="L15" t="n">
-        <v>0.05239850144057923</v>
+        <v>0.04757413298090674</v>
       </c>
       <c r="M15" t="n">
-        <v>41.76548346733792</v>
+        <v>41.30829734920268</v>
       </c>
       <c r="N15" t="n">
-        <v>4489.490956371843</v>
+        <v>4458.197764911974</v>
       </c>
       <c r="O15" t="n">
-        <v>67.00366375334892</v>
+        <v>66.76973689413471</v>
       </c>
       <c r="P15" t="n">
-        <v>377.9753877088792</v>
+        <v>376.8189654168844</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -32359,28 +32714,28 @@
         <v>0.0468</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.4222915881485725</v>
+        <v>-0.3093984378145064</v>
       </c>
       <c r="J16" t="n">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="K16" t="n">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="L16" t="n">
-        <v>0.002944532497208718</v>
+        <v>0.001614697402819498</v>
       </c>
       <c r="M16" t="n">
-        <v>39.60190763010113</v>
+        <v>39.31144112177849</v>
       </c>
       <c r="N16" t="n">
-        <v>3317.916700333023</v>
+        <v>3289.644755205618</v>
       </c>
       <c r="O16" t="n">
-        <v>57.60136022988539</v>
+        <v>57.35542481061071</v>
       </c>
       <c r="P16" t="n">
-        <v>348.9198064333099</v>
+        <v>347.7657625228048</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -32437,28 +32792,28 @@
         <v>0.0532</v>
       </c>
       <c r="I17" t="n">
-        <v>-1.082747711332925</v>
+        <v>-0.9846534659902515</v>
       </c>
       <c r="J17" t="n">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="K17" t="n">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="L17" t="n">
-        <v>0.04271412045149681</v>
+        <v>0.03602400664315719</v>
       </c>
       <c r="M17" t="n">
-        <v>24.68324505402575</v>
+        <v>24.6090340023227</v>
       </c>
       <c r="N17" t="n">
-        <v>1479.745793404352</v>
+        <v>1477.933789933362</v>
       </c>
       <c r="O17" t="n">
-        <v>38.46746408855608</v>
+        <v>38.44390445744763</v>
       </c>
       <c r="P17" t="n">
-        <v>359.5048886103567</v>
+        <v>358.5258987825848</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -32515,28 +32870,28 @@
         <v>0.0703</v>
       </c>
       <c r="I18" t="n">
-        <v>-1.533250327655901</v>
+        <v>-1.442640991076071</v>
       </c>
       <c r="J18" t="n">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="K18" t="n">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="L18" t="n">
-        <v>0.07784432870101898</v>
+        <v>0.0702696303662983</v>
       </c>
       <c r="M18" t="n">
-        <v>27.9354203634975</v>
+        <v>27.75671834177683</v>
       </c>
       <c r="N18" t="n">
-        <v>1632.679603422029</v>
+        <v>1630.169787258759</v>
       </c>
       <c r="O18" t="n">
-        <v>40.40643022369125</v>
+        <v>40.37536114090818</v>
       </c>
       <c r="P18" t="n">
-        <v>356.0143661833749</v>
+        <v>355.1332753278933</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -32574,7 +32929,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S467"/>
+  <dimension ref="A1:S472"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70769,6 +71124,471 @@
         </is>
       </c>
     </row>
+    <row r="468">
+      <c r="A468" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-09 22:19:02+00:00</t>
+        </is>
+      </c>
+      <c r="B468" t="inlineStr">
+        <is>
+          <t>-41.031499349361376,172.11109584077917</t>
+        </is>
+      </c>
+      <c r="C468" t="inlineStr">
+        <is>
+          <t>-41.030810556013854,172.11117725516507</t>
+        </is>
+      </c>
+      <c r="D468" t="inlineStr">
+        <is>
+          <t>-41.03012980183337,172.1111637143465</t>
+        </is>
+      </c>
+      <c r="E468" t="inlineStr">
+        <is>
+          <t>-41.02945315830223,172.11110158195038</t>
+        </is>
+      </c>
+      <c r="F468" t="inlineStr">
+        <is>
+          <t>-41.02877961776123,172.11100275035557</t>
+        </is>
+      </c>
+      <c r="G468" t="inlineStr">
+        <is>
+          <t>-41.02810725570503,172.11088993061185</t>
+        </is>
+      </c>
+      <c r="H468" t="inlineStr">
+        <is>
+          <t>-41.02743115875886,172.11082110380966</t>
+        </is>
+      </c>
+      <c r="I468" t="inlineStr">
+        <is>
+          <t>-41.02676792225684,172.11060039966966</t>
+        </is>
+      </c>
+      <c r="J468" t="inlineStr">
+        <is>
+          <t>-41.0261076979745,172.11034611530565</t>
+        </is>
+      </c>
+      <c r="K468" t="inlineStr">
+        <is>
+          <t>-41.025433206972146,172.11025920291038</t>
+        </is>
+      </c>
+      <c r="L468" t="inlineStr">
+        <is>
+          <t>-41.02475868827886,172.11017106364903</t>
+        </is>
+      </c>
+      <c r="M468" t="inlineStr">
+        <is>
+          <t>-41.0240914187634,172.10999955082653</t>
+        </is>
+      </c>
+      <c r="N468" t="inlineStr">
+        <is>
+          <t>-41.02342254653382,172.10984637472197</t>
+        </is>
+      </c>
+      <c r="O468" t="inlineStr">
+        <is>
+          <t>-41.02277461414249,172.10965822591268</t>
+        </is>
+      </c>
+      <c r="P468" t="inlineStr">
+        <is>
+          <t>-41.02214803334767,172.10939733994667</t>
+        </is>
+      </c>
+      <c r="Q468" t="inlineStr">
+        <is>
+          <t>-41.02149984709924,172.1091443717293</t>
+        </is>
+      </c>
+      <c r="R468" t="inlineStr">
+        <is>
+          <t>-41.02080673413522,172.1090710858713</t>
+        </is>
+      </c>
+      <c r="S468" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-18 22:12:42+00:00</t>
+        </is>
+      </c>
+      <c r="B469" t="inlineStr"/>
+      <c r="C469" t="inlineStr">
+        <is>
+          <t>-41.03075179758128,172.11187064122998</t>
+        </is>
+      </c>
+      <c r="D469" t="inlineStr">
+        <is>
+          <t>-41.03012393584857,172.111232937939</t>
+        </is>
+      </c>
+      <c r="E469" t="inlineStr">
+        <is>
+          <t>-41.029444718768154,172.11120117459006</t>
+        </is>
+      </c>
+      <c r="F469" t="inlineStr">
+        <is>
+          <t>-41.02876629818877,172.11115992977574</t>
+        </is>
+      </c>
+      <c r="G469" t="inlineStr">
+        <is>
+          <t>-41.02810453606404,172.11092202421008</t>
+        </is>
+      </c>
+      <c r="H469" t="inlineStr">
+        <is>
+          <t>-41.02742705676493,172.1108695096809</t>
+        </is>
+      </c>
+      <c r="I469" t="inlineStr">
+        <is>
+          <t>-41.026754891069615,172.11075390663385</t>
+        </is>
+      </c>
+      <c r="J469" t="inlineStr">
+        <is>
+          <t>-41.02609468844479,172.11049732975385</t>
+        </is>
+      </c>
+      <c r="K469" t="inlineStr">
+        <is>
+          <t>-41.02541952940569,172.11041636064448</t>
+        </is>
+      </c>
+      <c r="L469" t="inlineStr">
+        <is>
+          <t>-41.02475728397293,172.11018719939887</t>
+        </is>
+      </c>
+      <c r="M469" t="inlineStr">
+        <is>
+          <t>-41.02408340189934,172.1100916660327</t>
+        </is>
+      </c>
+      <c r="N469" t="inlineStr">
+        <is>
+          <t>-41.023415444016976,172.109927984007</t>
+        </is>
+      </c>
+      <c r="O469" t="inlineStr">
+        <is>
+          <t>-41.022765299718614,172.10971916136077</t>
+        </is>
+      </c>
+      <c r="P469" t="inlineStr">
+        <is>
+          <t>-41.02212636795355,172.10949183832494</t>
+        </is>
+      </c>
+      <c r="Q469" t="inlineStr">
+        <is>
+          <t>-41.02145909989756,172.10931596345515</t>
+        </is>
+      </c>
+      <c r="R469" t="inlineStr">
+        <is>
+          <t>-41.020791660558,172.10913456205606</t>
+        </is>
+      </c>
+      <c r="S469" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-25 22:18:51+00:00</t>
+        </is>
+      </c>
+      <c r="B470" t="inlineStr"/>
+      <c r="C470" t="inlineStr"/>
+      <c r="D470" t="inlineStr"/>
+      <c r="E470" t="inlineStr"/>
+      <c r="F470" t="inlineStr">
+        <is>
+          <t>-41.02878058942381,172.11099128401798</t>
+        </is>
+      </c>
+      <c r="G470" t="inlineStr">
+        <is>
+          <t>-41.0281043807988,172.11092385644125</t>
+        </is>
+      </c>
+      <c r="H470" t="inlineStr">
+        <is>
+          <t>-41.02743999375342,172.1107168449909</t>
+        </is>
+      </c>
+      <c r="I470" t="inlineStr">
+        <is>
+          <t>-41.02676974847973,172.11057888662546</t>
+        </is>
+      </c>
+      <c r="J470" t="inlineStr">
+        <is>
+          <t>-41.0261056949571,172.11036939725247</t>
+        </is>
+      </c>
+      <c r="K470" t="inlineStr">
+        <is>
+          <t>-41.02543545912224,172.1102333250521</t>
+        </is>
+      </c>
+      <c r="L470" t="inlineStr">
+        <is>
+          <t>-41.02476397068838,172.11011036749056</t>
+        </is>
+      </c>
+      <c r="M470" t="inlineStr">
+        <is>
+          <t>-41.02410093841807,172.10989016715692</t>
+        </is>
+      </c>
+      <c r="N470" t="inlineStr">
+        <is>
+          <t>-41.02342329723081,172.1098377490292</t>
+        </is>
+      </c>
+      <c r="O470" t="inlineStr">
+        <is>
+          <t>-41.02277454285876,172.10965869225546</t>
+        </is>
+      </c>
+      <c r="P470" t="inlineStr">
+        <is>
+          <t>-41.022137552988674,172.10944305238607</t>
+        </is>
+      </c>
+      <c r="Q470" t="inlineStr">
+        <is>
+          <t>-41.021484809471524,172.10920769727133</t>
+        </is>
+      </c>
+      <c r="R470" t="inlineStr">
+        <is>
+          <t>-41.020808458880786,172.1090638228019</t>
+        </is>
+      </c>
+      <c r="S470" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-26 22:13:17+00:00</t>
+        </is>
+      </c>
+      <c r="B471" t="inlineStr">
+        <is>
+          <t>-41.031496484479824,172.11112965013743</t>
+        </is>
+      </c>
+      <c r="C471" t="inlineStr">
+        <is>
+          <t>-41.03078839770873,172.11143874288945</t>
+        </is>
+      </c>
+      <c r="D471" t="inlineStr">
+        <is>
+          <t>-41.03013704483809,172.1110782400564</t>
+        </is>
+      </c>
+      <c r="E471" t="inlineStr">
+        <is>
+          <t>-41.02945953923386,172.11102628162413</t>
+        </is>
+      </c>
+      <c r="F471" t="inlineStr">
+        <is>
+          <t>-41.028782733087716,172.11096598714843</t>
+        </is>
+      </c>
+      <c r="G471" t="inlineStr">
+        <is>
+          <t>-41.02810639423593,172.1109000965401</t>
+        </is>
+      </c>
+      <c r="H471" t="inlineStr">
+        <is>
+          <t>-41.027442538054025,172.11068682033752</t>
+        </is>
+      </c>
+      <c r="I471" t="inlineStr">
+        <is>
+          <t>-41.026773641732646,172.11053302364843</t>
+        </is>
+      </c>
+      <c r="J471" t="inlineStr">
+        <is>
+          <t>-41.02610800300212,172.1103425698314</t>
+        </is>
+      </c>
+      <c r="K471" t="inlineStr">
+        <is>
+          <t>-41.02543982971653,172.11018310545927</t>
+        </is>
+      </c>
+      <c r="L471" t="inlineStr">
+        <is>
+          <t>-41.02476784077859,172.1100658989819</t>
+        </is>
+      </c>
+      <c r="M471" t="inlineStr">
+        <is>
+          <t>-41.02410162594465,172.1098822672241</t>
+        </is>
+      </c>
+      <c r="N471" t="inlineStr">
+        <is>
+          <t>-41.02343185307406,172.10973943975065</t>
+        </is>
+      </c>
+      <c r="O471" t="inlineStr">
+        <is>
+          <t>-41.02278575220248,172.10958535984167</t>
+        </is>
+      </c>
+      <c r="P471" t="inlineStr">
+        <is>
+          <t>-41.02220072940406,172.10916749283763</t>
+        </is>
+      </c>
+      <c r="Q471" t="inlineStr">
+        <is>
+          <t>-41.02152445160076,172.1090407583711</t>
+        </is>
+      </c>
+      <c r="R471" t="inlineStr">
+        <is>
+          <t>-41.020834410855876,172.1089545362591</t>
+        </is>
+      </c>
+      <c r="S471" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-10 22:18:46+00:00</t>
+        </is>
+      </c>
+      <c r="B472" t="inlineStr">
+        <is>
+          <t>-41.03149940278564,172.1110952103016</t>
+        </is>
+      </c>
+      <c r="C472" t="inlineStr">
+        <is>
+          <t>-41.03081213093603,172.11115866940784</t>
+        </is>
+      </c>
+      <c r="D472" t="inlineStr">
+        <is>
+          <t>-41.0301467743584,172.11096342132723</t>
+        </is>
+      </c>
+      <c r="E472" t="inlineStr">
+        <is>
+          <t>-41.02946967649945,172.11090665219234</t>
+        </is>
+      </c>
+      <c r="F472" t="inlineStr">
+        <is>
+          <t>-41.02879062319206,172.11087287731766</t>
+        </is>
+      </c>
+      <c r="G472" t="inlineStr">
+        <is>
+          <t>-41.02810624397959,172.1109018696671</t>
+        </is>
+      </c>
+      <c r="H472" t="inlineStr">
+        <is>
+          <t>-41.0274421874619,172.11069095759302</t>
+        </is>
+      </c>
+      <c r="I472" t="inlineStr">
+        <is>
+          <t>-41.02677686937262,172.11049500150293</t>
+        </is>
+      </c>
+      <c r="J472" t="inlineStr">
+        <is>
+          <t>-41.026107301438444,172.11035072442212</t>
+        </is>
+      </c>
+      <c r="K472" t="inlineStr">
+        <is>
+          <t>-41.0254330938503,172.11026050271147</t>
+        </is>
+      </c>
+      <c r="L472" t="inlineStr">
+        <is>
+          <t>-41.02476321540749,172.1101190458733</t>
+        </is>
+      </c>
+      <c r="M472" t="inlineStr">
+        <is>
+          <t>-41.02409433196506,172.10996607740117</t>
+        </is>
+      </c>
+      <c r="N472" t="inlineStr">
+        <is>
+          <t>-41.02342882631703,172.10977421823617</t>
+        </is>
+      </c>
+      <c r="O472" t="inlineStr">
+        <is>
+          <t>-41.02277364587163,172.109664560402</t>
+        </is>
+      </c>
+      <c r="P472" t="inlineStr">
+        <is>
+          <t>-41.022163602854675,172.10932942987174</t>
+        </is>
+      </c>
+      <c r="Q472" t="inlineStr">
+        <is>
+          <t>-41.02146737332513,172.10928112308844</t>
+        </is>
+      </c>
+      <c r="R472" t="inlineStr">
+        <is>
+          <t>-41.02078906444966,172.10914549448313</t>
+        </is>
+      </c>
+      <c r="S472" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0335/nzd0335.xlsx
+++ b/data/nzd0335/nzd0335.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S472"/>
+  <dimension ref="A1:S476"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26640,6 +26640,232 @@
         </is>
       </c>
     </row>
+    <row r="473">
+      <c r="A473" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-26 22:18:36+00:00</t>
+        </is>
+      </c>
+      <c r="B473" t="inlineStr"/>
+      <c r="C473" t="inlineStr"/>
+      <c r="D473" t="n">
+        <v>366.2076470588235</v>
+      </c>
+      <c r="E473" t="n">
+        <v>366.115</v>
+      </c>
+      <c r="F473" t="n">
+        <v>359.8</v>
+      </c>
+      <c r="G473" t="n">
+        <v>357.495</v>
+      </c>
+      <c r="H473" t="n">
+        <v>363.455</v>
+      </c>
+      <c r="I473" t="n">
+        <v>367.65</v>
+      </c>
+      <c r="J473" t="n">
+        <v>375.285</v>
+      </c>
+      <c r="K473" t="n">
+        <v>370.94</v>
+      </c>
+      <c r="L473" t="n">
+        <v>375.68</v>
+      </c>
+      <c r="M473" t="n">
+        <v>378.4085714285715</v>
+      </c>
+      <c r="N473" t="n">
+        <v>378.03</v>
+      </c>
+      <c r="O473" t="n">
+        <v>381.53</v>
+      </c>
+      <c r="P473" t="n">
+        <v>381.5371428571429</v>
+      </c>
+      <c r="Q473" t="n">
+        <v>371.4</v>
+      </c>
+      <c r="R473" t="n">
+        <v>354.99</v>
+      </c>
+      <c r="S473" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:12:24+00:00</t>
+        </is>
+      </c>
+      <c r="B474" t="inlineStr"/>
+      <c r="C474" t="inlineStr"/>
+      <c r="D474" t="n">
+        <v>359.5552941176471</v>
+      </c>
+      <c r="E474" t="n">
+        <v>365.925</v>
+      </c>
+      <c r="F474" t="n">
+        <v>352.9066666666666</v>
+      </c>
+      <c r="G474" t="n">
+        <v>344.915</v>
+      </c>
+      <c r="H474" t="n">
+        <v>353.405</v>
+      </c>
+      <c r="I474" t="n">
+        <v>368.0466666666666</v>
+      </c>
+      <c r="J474" t="n">
+        <v>387.535</v>
+      </c>
+      <c r="K474" t="n">
+        <v>381.05</v>
+      </c>
+      <c r="L474" t="n">
+        <v>376.8255555555555</v>
+      </c>
+      <c r="M474" t="n">
+        <v>376.65</v>
+      </c>
+      <c r="N474" t="n">
+        <v>374.5966666666666</v>
+      </c>
+      <c r="O474" t="n">
+        <v>381.8166666666667</v>
+      </c>
+      <c r="P474" t="n">
+        <v>355.58</v>
+      </c>
+      <c r="Q474" t="n">
+        <v>359.36</v>
+      </c>
+      <c r="R474" t="n">
+        <v>360.2733333333333</v>
+      </c>
+      <c r="S474" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-13 22:12:34+00:00</t>
+        </is>
+      </c>
+      <c r="B475" t="inlineStr"/>
+      <c r="C475" t="n">
+        <v>340.9111111111111</v>
+      </c>
+      <c r="D475" t="n">
+        <v>353.6835294117647</v>
+      </c>
+      <c r="E475" t="n">
+        <v>352.865</v>
+      </c>
+      <c r="F475" t="n">
+        <v>349.7733333333334</v>
+      </c>
+      <c r="G475" t="n">
+        <v>339.135</v>
+      </c>
+      <c r="H475" t="n">
+        <v>344.055</v>
+      </c>
+      <c r="I475" t="n">
+        <v>351.6733333333333</v>
+      </c>
+      <c r="J475" t="n">
+        <v>364.325</v>
+      </c>
+      <c r="K475" t="n">
+        <v>373.65</v>
+      </c>
+      <c r="L475" t="n">
+        <v>370.9111111111111</v>
+      </c>
+      <c r="M475" t="n">
+        <v>377.9414285714286</v>
+      </c>
+      <c r="N475" t="n">
+        <v>380.5833333333334</v>
+      </c>
+      <c r="O475" t="n">
+        <v>370.8333333333334</v>
+      </c>
+      <c r="P475" t="n">
+        <v>380.0028571428572</v>
+      </c>
+      <c r="Q475" t="n">
+        <v>376.87</v>
+      </c>
+      <c r="R475" t="n">
+        <v>362.8966666666667</v>
+      </c>
+      <c r="S475" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:12:51+00:00</t>
+        </is>
+      </c>
+      <c r="B476" t="inlineStr"/>
+      <c r="C476" t="inlineStr"/>
+      <c r="D476" t="inlineStr"/>
+      <c r="E476" t="inlineStr"/>
+      <c r="F476" t="inlineStr"/>
+      <c r="G476" t="inlineStr"/>
+      <c r="H476" t="n">
+        <v>361.7</v>
+      </c>
+      <c r="I476" t="n">
+        <v>347.4466666666667</v>
+      </c>
+      <c r="J476" t="n">
+        <v>351.17</v>
+      </c>
+      <c r="K476" t="n">
+        <v>369.97</v>
+      </c>
+      <c r="L476" t="n">
+        <v>363.3855555555555</v>
+      </c>
+      <c r="M476" t="n">
+        <v>358.5028571428572</v>
+      </c>
+      <c r="N476" t="n">
+        <v>356.5966666666667</v>
+      </c>
+      <c r="O476" t="n">
+        <v>355.0166666666667</v>
+      </c>
+      <c r="P476" t="n">
+        <v>348.2057142857143</v>
+      </c>
+      <c r="Q476" t="inlineStr"/>
+      <c r="R476" t="inlineStr"/>
+      <c r="S476" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -26651,7 +26877,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B479"/>
+  <dimension ref="A1:B483"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31449,6 +31675,46 @@
       </c>
       <c r="B479" t="n">
         <v>1.17</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>2025-04-26 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B480" t="n">
+        <v>1.71</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B481" t="n">
+        <v>-0.49</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>2025-05-13 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B482" t="n">
+        <v>1.09</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B483" t="n">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
@@ -31625,7 +31891,7 @@
         <v>-0.4473785242108935</v>
       </c>
       <c r="J2" t="n">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="K2" t="n">
         <v>274</v>
@@ -31700,28 +31966,28 @@
         <v>0.1113</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.317765418296611</v>
+        <v>-0.3321422644107916</v>
       </c>
       <c r="J3" t="n">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="K3" t="n">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01527250376954292</v>
+        <v>0.01666839022340016</v>
       </c>
       <c r="M3" t="n">
-        <v>14.98432010305093</v>
+        <v>15.01555997409337</v>
       </c>
       <c r="N3" t="n">
-        <v>367.2412515690971</v>
+        <v>368.0044952143814</v>
       </c>
       <c r="O3" t="n">
-        <v>19.16353964091961</v>
+        <v>19.18344325751718</v>
       </c>
       <c r="P3" t="n">
-        <v>373.5728616657981</v>
+        <v>373.7186852771608</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -31778,28 +32044,28 @@
         <v>0.1027</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.3973712939585206</v>
+        <v>-0.4007764756724781</v>
       </c>
       <c r="J4" t="n">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="K4" t="n">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0276429205053359</v>
+        <v>0.02848497217997692</v>
       </c>
       <c r="M4" t="n">
-        <v>14.17907322216766</v>
+        <v>14.10289481988096</v>
       </c>
       <c r="N4" t="n">
-        <v>313.4857917981753</v>
+        <v>311.1483954993165</v>
       </c>
       <c r="O4" t="n">
-        <v>17.70552997789604</v>
+        <v>17.63939895516047</v>
       </c>
       <c r="P4" t="n">
-        <v>372.3721016045532</v>
+        <v>372.406443467665</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -31856,28 +32122,28 @@
         <v>0.0896</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.2066555913425597</v>
+        <v>-0.2064459007633617</v>
       </c>
       <c r="J5" t="n">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="K5" t="n">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="L5" t="n">
-        <v>0.008508118053862646</v>
+        <v>0.008599891866988396</v>
       </c>
       <c r="M5" t="n">
-        <v>13.53854973294657</v>
+        <v>13.47858739066775</v>
       </c>
       <c r="N5" t="n">
-        <v>281.0710013503864</v>
+        <v>279.1655744022593</v>
       </c>
       <c r="O5" t="n">
-        <v>16.76517227320932</v>
+        <v>16.70824869345256</v>
       </c>
       <c r="P5" t="n">
-        <v>366.7869640706945</v>
+        <v>366.7849364214144</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -31934,28 +32200,28 @@
         <v>0.0824</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.02358431031354928</v>
+        <v>-0.03444475109465919</v>
       </c>
       <c r="J6" t="n">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="K6" t="n">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0001409203451806507</v>
+        <v>0.0003036692551059428</v>
       </c>
       <c r="M6" t="n">
-        <v>12.26164979696109</v>
+        <v>12.2275757547401</v>
       </c>
       <c r="N6" t="n">
-        <v>233.6065077915883</v>
+        <v>232.525847190856</v>
       </c>
       <c r="O6" t="n">
-        <v>15.28419143401404</v>
+        <v>15.24879822119946</v>
       </c>
       <c r="P6" t="n">
-        <v>363.2742759923208</v>
+        <v>363.3794551516679</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -32012,28 +32278,28 @@
         <v>0.0901</v>
       </c>
       <c r="I7" t="n">
-        <v>0.01111331813147214</v>
+        <v>-0.007147730629076502</v>
       </c>
       <c r="J7" t="n">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="K7" t="n">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="L7" t="n">
-        <v>3.598184941289162e-05</v>
+        <v>1.493701558641369e-05</v>
       </c>
       <c r="M7" t="n">
-        <v>11.45206045795278</v>
+        <v>11.47016922820042</v>
       </c>
       <c r="N7" t="n">
-        <v>206.0849932285157</v>
+        <v>206.506549298473</v>
       </c>
       <c r="O7" t="n">
-        <v>14.35566066847903</v>
+        <v>14.37033574063157</v>
       </c>
       <c r="P7" t="n">
-        <v>361.3105118483385</v>
+        <v>361.4859478232558</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -32090,28 +32356,28 @@
         <v>0.08649999999999999</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.08426797518668035</v>
+        <v>-0.09236266530638387</v>
       </c>
       <c r="J8" t="n">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="K8" t="n">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="L8" t="n">
-        <v>0.002575211554596168</v>
+        <v>0.003131487745803518</v>
       </c>
       <c r="M8" t="n">
-        <v>10.24876103007484</v>
+        <v>10.21479752822855</v>
       </c>
       <c r="N8" t="n">
-        <v>165.6253691366861</v>
+        <v>164.8064594439715</v>
       </c>
       <c r="O8" t="n">
-        <v>12.86955201771554</v>
+        <v>12.83769681227795</v>
       </c>
       <c r="P8" t="n">
-        <v>362.6681255893644</v>
+        <v>362.7452341074332</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -32168,28 +32434,28 @@
         <v>0.0809</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.02300992866327723</v>
+        <v>-0.02724110422868183</v>
       </c>
       <c r="J9" t="n">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="K9" t="n">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0001881138057622245</v>
+        <v>0.0002668428937049327</v>
       </c>
       <c r="M9" t="n">
-        <v>10.19946677456673</v>
+        <v>10.18656825680544</v>
       </c>
       <c r="N9" t="n">
-        <v>174.444915639647</v>
+        <v>173.6302984421412</v>
       </c>
       <c r="O9" t="n">
-        <v>13.20775967526844</v>
+        <v>13.17688500527121</v>
       </c>
       <c r="P9" t="n">
-        <v>361.8438221449512</v>
+        <v>361.883612678965</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -32246,28 +32512,28 @@
         <v>0.08790000000000001</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.04190348942139149</v>
+        <v>-0.02894012188425478</v>
       </c>
       <c r="J10" t="n">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="K10" t="n">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0006551967497127054</v>
+        <v>0.0003134371475081998</v>
       </c>
       <c r="M10" t="n">
-        <v>10.12825700214819</v>
+        <v>10.16540330054011</v>
       </c>
       <c r="N10" t="n">
-        <v>163.4219574732321</v>
+        <v>164.190564363911</v>
       </c>
       <c r="O10" t="n">
-        <v>12.78365978400677</v>
+        <v>12.81368660315645</v>
       </c>
       <c r="P10" t="n">
-        <v>362.7099971941363</v>
+        <v>362.58750455251</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -32324,28 +32590,28 @@
         <v>0.1185</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.102754451885523</v>
+        <v>-0.08029669305202231</v>
       </c>
       <c r="J11" t="n">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="K11" t="n">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="L11" t="n">
-        <v>0.003919484716649269</v>
+        <v>0.002409043496991448</v>
       </c>
       <c r="M11" t="n">
-        <v>10.24276905083888</v>
+        <v>10.27445431483133</v>
       </c>
       <c r="N11" t="n">
-        <v>161.2937871565368</v>
+        <v>161.6580638355105</v>
       </c>
       <c r="O11" t="n">
-        <v>12.70014909977583</v>
+        <v>12.71448244465777</v>
       </c>
       <c r="P11" t="n">
-        <v>362.9692260190469</v>
+        <v>362.7534653795634</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -32402,28 +32668,28 @@
         <v>0.106</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.1870165366402011</v>
+        <v>-0.1690546163231139</v>
       </c>
       <c r="J12" t="n">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="K12" t="n">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0123695596220571</v>
+        <v>0.01021723383508233</v>
       </c>
       <c r="M12" t="n">
-        <v>10.07493332844284</v>
+        <v>10.08166317489449</v>
       </c>
       <c r="N12" t="n">
-        <v>165.6666137795401</v>
+        <v>165.4383096158337</v>
       </c>
       <c r="O12" t="n">
-        <v>12.87115432972273</v>
+        <v>12.86228244192428</v>
       </c>
       <c r="P12" t="n">
-        <v>365.6688241395799</v>
+        <v>365.4945470778117</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -32480,28 +32746,28 @@
         <v>0.07679999999999999</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.112220817874646</v>
+        <v>-0.09684366917777353</v>
       </c>
       <c r="J13" t="n">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="K13" t="n">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="L13" t="n">
-        <v>0.003537618116409291</v>
+        <v>0.00266448418604448</v>
       </c>
       <c r="M13" t="n">
-        <v>11.31917422007999</v>
+        <v>11.32416634748641</v>
       </c>
       <c r="N13" t="n">
-        <v>210.7894582749959</v>
+        <v>210.1961367941972</v>
       </c>
       <c r="O13" t="n">
-        <v>14.51859009253295</v>
+        <v>14.49814252910342</v>
       </c>
       <c r="P13" t="n">
-        <v>366.6115791338983</v>
+        <v>366.4633205369357</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -32558,28 +32824,28 @@
         <v>0.0883</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.19304771429905</v>
+        <v>-0.1760292563059691</v>
       </c>
       <c r="J14" t="n">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="K14" t="n">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="L14" t="n">
-        <v>0.009445144586854415</v>
+        <v>0.007942671125382827</v>
       </c>
       <c r="M14" t="n">
-        <v>11.99203656230343</v>
+        <v>12.00418401798481</v>
       </c>
       <c r="N14" t="n">
-        <v>230.2053953893996</v>
+        <v>229.6782892874309</v>
       </c>
       <c r="O14" t="n">
-        <v>15.1725210624141</v>
+        <v>15.1551406884737</v>
       </c>
       <c r="P14" t="n">
-        <v>367.7226827239558</v>
+        <v>367.5563685962357</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -32636,28 +32902,28 @@
         <v>0.0925</v>
       </c>
       <c r="I15" t="n">
-        <v>-1.941796588787261</v>
+        <v>-1.855613867991609</v>
       </c>
       <c r="J15" t="n">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="K15" t="n">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="L15" t="n">
-        <v>0.04757413298090674</v>
+        <v>0.04419586574205225</v>
       </c>
       <c r="M15" t="n">
-        <v>41.30829734920268</v>
+        <v>40.94738032992274</v>
       </c>
       <c r="N15" t="n">
-        <v>4458.197764911974</v>
+        <v>4431.410629714184</v>
       </c>
       <c r="O15" t="n">
-        <v>66.76973689413471</v>
+        <v>66.56884128264653</v>
       </c>
       <c r="P15" t="n">
-        <v>376.8189654168844</v>
+        <v>375.9713727410085</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -32714,28 +32980,28 @@
         <v>0.0468</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.3093984378145064</v>
+        <v>-0.2504041042292949</v>
       </c>
       <c r="J16" t="n">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="K16" t="n">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="L16" t="n">
-        <v>0.001614697402819498</v>
+        <v>0.001077719176448388</v>
       </c>
       <c r="M16" t="n">
-        <v>39.31144112177849</v>
+        <v>38.98806750488084</v>
       </c>
       <c r="N16" t="n">
-        <v>3289.644755205618</v>
+        <v>3258.443091659815</v>
       </c>
       <c r="O16" t="n">
-        <v>57.35542481061071</v>
+        <v>57.08277403612945</v>
       </c>
       <c r="P16" t="n">
-        <v>347.7657625228048</v>
+        <v>347.1585907567129</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -32792,28 +33058,28 @@
         <v>0.0532</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.9846534659902515</v>
+        <v>-0.9276105532345854</v>
       </c>
       <c r="J17" t="n">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="K17" t="n">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="L17" t="n">
-        <v>0.03602400664315719</v>
+        <v>0.03233768660549019</v>
       </c>
       <c r="M17" t="n">
-        <v>24.6090340023227</v>
+        <v>24.57358646085395</v>
       </c>
       <c r="N17" t="n">
-        <v>1477.933789933362</v>
+        <v>1476.455315707681</v>
       </c>
       <c r="O17" t="n">
-        <v>38.44390445744763</v>
+        <v>38.42467066492153</v>
       </c>
       <c r="P17" t="n">
-        <v>358.5258987825848</v>
+        <v>357.9526968975152</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -32870,28 +33136,28 @@
         <v>0.0703</v>
       </c>
       <c r="I18" t="n">
-        <v>-1.442640991076071</v>
+        <v>-1.384720720934454</v>
       </c>
       <c r="J18" t="n">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="K18" t="n">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0702696303662983</v>
+        <v>0.06542993432884292</v>
       </c>
       <c r="M18" t="n">
-        <v>27.75671834177683</v>
+        <v>27.66647146337433</v>
       </c>
       <c r="N18" t="n">
-        <v>1630.169787258759</v>
+        <v>1630.612364038887</v>
       </c>
       <c r="O18" t="n">
-        <v>40.37536114090818</v>
+        <v>40.38084154693766</v>
       </c>
       <c r="P18" t="n">
-        <v>355.1332753278933</v>
+        <v>354.5660040112487</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -32929,7 +33195,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S472"/>
+  <dimension ref="A1:S476"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -71589,6 +71855,342 @@
         </is>
       </c>
     </row>
+    <row r="473">
+      <c r="A473" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-26 22:18:36+00:00</t>
+        </is>
+      </c>
+      <c r="B473" t="inlineStr"/>
+      <c r="C473" t="inlineStr"/>
+      <c r="D473" t="inlineStr">
+        <is>
+          <t>-41.03014960209657,172.11093005073738</t>
+        </is>
+      </c>
+      <c r="E473" t="inlineStr">
+        <is>
+          <t>-41.02947658820001,172.11082508665083</t>
+        </is>
+      </c>
+      <c r="F473" t="inlineStr">
+        <is>
+          <t>-41.02879733456295,172.1107936768104</t>
+        </is>
+      </c>
+      <c r="G473" t="inlineStr">
+        <is>
+          <t>-41.02812209086332,172.1107148638314</t>
+        </is>
+      </c>
+      <c r="H473" t="inlineStr">
+        <is>
+          <t>-41.02745511920472,172.1105383519409</t>
+        </is>
+      </c>
+      <c r="I473" t="inlineStr">
+        <is>
+          <t>-41.02678640170733,172.1103827080995</t>
+        </is>
+      </c>
+      <c r="J473" t="inlineStr">
+        <is>
+          <t>-41.02612146477865,172.1101860962037</t>
+        </is>
+      </c>
+      <c r="K473" t="inlineStr">
+        <is>
+          <t>-41.02544456021737,172.11012875012824</t>
+        </is>
+      </c>
+      <c r="L473" t="inlineStr">
+        <is>
+          <t>-41.02477670752797,172.10996401658159</t>
+        </is>
+      </c>
+      <c r="M473" t="inlineStr">
+        <is>
+          <t>-41.02410677943858,172.10982305148326</t>
+        </is>
+      </c>
+      <c r="N473" t="inlineStr">
+        <is>
+          <t>-41.023433649242016,172.109718801101</t>
+        </is>
+      </c>
+      <c r="O473" t="inlineStr">
+        <is>
+          <t>-41.02278763527258,172.10957304061557</t>
+        </is>
+      </c>
+      <c r="P473" t="inlineStr">
+        <is>
+          <t>-41.022165008433184,172.10932329909954</t>
+        </is>
+      </c>
+      <c r="Q473" t="inlineStr">
+        <is>
+          <t>-41.02149507710286,172.10916445886664</t>
+        </is>
+      </c>
+      <c r="R473" t="inlineStr">
+        <is>
+          <t>-41.02080561125374,172.10907581443192</t>
+        </is>
+      </c>
+      <c r="S473" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:12:24+00:00</t>
+        </is>
+      </c>
+      <c r="B474" t="inlineStr"/>
+      <c r="C474" t="inlineStr"/>
+      <c r="D474" t="inlineStr">
+        <is>
+          <t>-41.030142938423865,172.11100868961634</t>
+        </is>
+      </c>
+      <c r="E474" t="inlineStr">
+        <is>
+          <t>-41.029476397878604,172.11082733265872</t>
+        </is>
+      </c>
+      <c r="F474" t="inlineStr">
+        <is>
+          <t>-41.02879042952981,172.1108751627052</t>
+        </is>
+      </c>
+      <c r="G474" t="inlineStr">
+        <is>
+          <t>-41.02810948951028,172.11086357012226</t>
+        </is>
+      </c>
+      <c r="H474" t="inlineStr">
+        <is>
+          <t>-41.02744505229614,172.11065715030392</t>
+        </is>
+      </c>
+      <c r="I474" t="inlineStr">
+        <is>
+          <t>-41.02678679972173,172.11037801935672</t>
+        </is>
+      </c>
+      <c r="J474" t="inlineStr">
+        <is>
+          <t>-41.02613391978234,172.11004132258986</t>
+        </is>
+      </c>
+      <c r="K474" t="inlineStr">
+        <is>
+          <t>-41.02545495694515,172.11000928653797</t>
+        </is>
+      </c>
+      <c r="L474" t="inlineStr">
+        <is>
+          <t>-41.0247778855648,172.10995048039993</t>
+        </is>
+      </c>
+      <c r="M474" t="inlineStr">
+        <is>
+          <t>-41.024104971018154,172.10984383101018</t>
+        </is>
+      </c>
+      <c r="N474" t="inlineStr">
+        <is>
+          <t>-41.023430118603024,172.10975936943808</t>
+        </is>
+      </c>
+      <c r="O474" t="inlineStr">
+        <is>
+          <t>-41.02278814613679,172.10956969849104</t>
+        </is>
+      </c>
+      <c r="P474" t="inlineStr">
+        <is>
+          <t>-41.02209726439448,172.1096187792621</t>
+        </is>
+      </c>
+      <c r="Q474" t="inlineStr">
+        <is>
+          <t>-41.02146263025395,172.10930109671992</t>
+        </is>
+      </c>
+      <c r="R474" t="inlineStr">
+        <is>
+          <t>-41.02081984937633,172.10901585627147</t>
+        </is>
+      </c>
+      <c r="S474" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-13 22:12:34+00:00</t>
+        </is>
+      </c>
+      <c r="B475" t="inlineStr"/>
+      <c r="C475" t="inlineStr">
+        <is>
+          <t>-41.0307971762887,172.11133514869167</t>
+        </is>
+      </c>
+      <c r="D475" t="inlineStr">
+        <is>
+          <t>-41.03013705662294,172.11107810098335</t>
+        </is>
+      </c>
+      <c r="E475" t="inlineStr">
+        <is>
+          <t>-41.02946331568037,172.1109817161185</t>
+        </is>
+      </c>
+      <c r="F475" t="inlineStr">
+        <is>
+          <t>-41.02878729085928,172.11091220174302</t>
+        </is>
+      </c>
+      <c r="G475" t="inlineStr">
+        <is>
+          <t>-41.02810369963488,172.1109318946164</t>
+        </is>
+      </c>
+      <c r="H475" t="inlineStr">
+        <is>
+          <t>-41.02743568645496,172.11076767412348</t>
+        </is>
+      </c>
+      <c r="I475" t="inlineStr">
+        <is>
+          <t>-41.026770370598676,172.11057155800577</t>
+        </is>
+      </c>
+      <c r="J475" t="inlineStr">
+        <is>
+          <t>-41.02611032120844,172.11031562422608</t>
+        </is>
+      </c>
+      <c r="K475" t="inlineStr">
+        <is>
+          <t>-41.02544734708736,172.11009672774497</t>
+        </is>
+      </c>
+      <c r="L475" t="inlineStr">
+        <is>
+          <t>-41.02477180340404,172.11002036700515</t>
+        </is>
+      </c>
+      <c r="M475" t="inlineStr">
+        <is>
+          <t>-41.02410629905432,172.10982857130895</t>
+        </is>
+      </c>
+      <c r="N475" t="inlineStr">
+        <is>
+          <t>-41.02343627493124,172.10968863085932</t>
+        </is>
+      </c>
+      <c r="O475" t="inlineStr">
+        <is>
+          <t>-41.02276857283938,172.10969774845967</t>
+        </is>
+      </c>
+      <c r="P475" t="inlineStr">
+        <is>
+          <t>-41.02216100421133,172.10934076448171</t>
+        </is>
+      </c>
+      <c r="Q475" t="inlineStr">
+        <is>
+          <t>-41.021509818266736,172.10910238165897</t>
+        </is>
+      </c>
+      <c r="R475" t="inlineStr">
+        <is>
+          <t>-41.0208269190192,172.10898608523854</t>
+        </is>
+      </c>
+      <c r="S475" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:12:51+00:00</t>
+        </is>
+      </c>
+      <c r="B476" t="inlineStr"/>
+      <c r="C476" t="inlineStr"/>
+      <c r="D476" t="inlineStr"/>
+      <c r="E476" t="inlineStr"/>
+      <c r="F476" t="inlineStr"/>
+      <c r="G476" t="inlineStr"/>
+      <c r="H476" t="inlineStr">
+        <is>
+          <t>-41.027453361260875,172.11055909732914</t>
+        </is>
+      </c>
+      <c r="I476" t="inlineStr">
+        <is>
+          <t>-41.02676612947734,172.11062151870098</t>
+        </is>
+      </c>
+      <c r="J476" t="inlineStr">
+        <is>
+          <t>-41.0260969456811,172.11047109325338</t>
+        </is>
+      </c>
+      <c r="K476" t="inlineStr">
+        <is>
+          <t>-41.02544356270085,172.11014021201387</t>
+        </is>
+      </c>
+      <c r="L476" t="inlineStr">
+        <is>
+          <t>-41.024764064384314,172.11010929089844</t>
+        </is>
+      </c>
+      <c r="M476" t="inlineStr">
+        <is>
+          <t>-41.02408630925146,172.11005826013573</t>
+        </is>
+      </c>
+      <c r="N476" t="inlineStr">
+        <is>
+          <t>-41.023411608222425,172.1099720577404</t>
+        </is>
+      </c>
+      <c r="O476" t="inlineStr">
+        <is>
+          <t>-41.0227403858516,172.10988214805795</t>
+        </is>
+      </c>
+      <c r="P476" t="inlineStr">
+        <is>
+          <t>-41.02207801853527,172.10970272349064</t>
+        </is>
+      </c>
+      <c r="Q476" t="inlineStr"/>
+      <c r="R476" t="inlineStr"/>
+      <c r="S476" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0335/nzd0335.xlsx
+++ b/data/nzd0335/nzd0335.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S476"/>
+  <dimension ref="A1:S478"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26858,9 +26858,127 @@
       <c r="P476" t="n">
         <v>348.2057142857143</v>
       </c>
-      <c r="Q476" t="inlineStr"/>
-      <c r="R476" t="inlineStr"/>
+      <c r="Q476" t="n">
+        <v>327.98</v>
+      </c>
+      <c r="R476" t="n">
+        <v>317.3933333333333</v>
+      </c>
       <c r="S476" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-05 22:18:36+00:00</t>
+        </is>
+      </c>
+      <c r="B477" t="n">
+        <v>377.55</v>
+      </c>
+      <c r="C477" t="n">
+        <v>349.0166666666667</v>
+      </c>
+      <c r="D477" t="n">
+        <v>358.7694117647059</v>
+      </c>
+      <c r="E477" t="n">
+        <v>357.695</v>
+      </c>
+      <c r="F477" t="n">
+        <v>362.12</v>
+      </c>
+      <c r="G477" t="n">
+        <v>362.965</v>
+      </c>
+      <c r="H477" t="n">
+        <v>358.225</v>
+      </c>
+      <c r="I477" t="n">
+        <v>358.29</v>
+      </c>
+      <c r="J477" t="n">
+        <v>358.785</v>
+      </c>
+      <c r="K477" t="n">
+        <v>346.6799999999999</v>
+      </c>
+      <c r="L477" t="n">
+        <v>344.6666666666667</v>
+      </c>
+      <c r="M477" t="n">
+        <v>356.67</v>
+      </c>
+      <c r="N477" t="n">
+        <v>356.24</v>
+      </c>
+      <c r="O477" t="n">
+        <v>349.73</v>
+      </c>
+      <c r="P477" t="n">
+        <v>344.52</v>
+      </c>
+      <c r="Q477" t="n">
+        <v>321.4</v>
+      </c>
+      <c r="R477" t="n">
+        <v>313.43</v>
+      </c>
+      <c r="S477" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-14 22:12:35+00:00</t>
+        </is>
+      </c>
+      <c r="B478" t="inlineStr"/>
+      <c r="C478" t="n">
+        <v>388.1866666666667</v>
+      </c>
+      <c r="D478" t="inlineStr"/>
+      <c r="E478" t="n">
+        <v>391.78</v>
+      </c>
+      <c r="F478" t="n">
+        <v>389.29</v>
+      </c>
+      <c r="G478" t="n">
+        <v>386.46</v>
+      </c>
+      <c r="H478" t="n">
+        <v>383.01</v>
+      </c>
+      <c r="I478" t="n">
+        <v>377.55</v>
+      </c>
+      <c r="J478" t="n">
+        <v>372.73</v>
+      </c>
+      <c r="K478" t="n">
+        <v>371.46</v>
+      </c>
+      <c r="L478" t="n">
+        <v>379.3166666666667</v>
+      </c>
+      <c r="M478" t="n">
+        <v>379.8785714285714</v>
+      </c>
+      <c r="N478" t="n">
+        <v>347.71</v>
+      </c>
+      <c r="O478" t="inlineStr"/>
+      <c r="P478" t="inlineStr"/>
+      <c r="Q478" t="inlineStr"/>
+      <c r="R478" t="inlineStr"/>
+      <c r="S478" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -26877,7 +26995,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B483"/>
+  <dimension ref="A1:B485"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31715,6 +31833,26 @@
       </c>
       <c r="B483" t="n">
         <v>0.5</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>2025-06-05 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B484" t="n">
+        <v>-0.21</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>2025-06-14 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B485" t="n">
+        <v>0.24</v>
       </c>
     </row>
   </sheetData>
@@ -31888,28 +32026,28 @@
         <v>0.06419999999999999</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.4473785242108935</v>
+        <v>-0.4469886964938606</v>
       </c>
       <c r="J2" t="n">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="K2" t="n">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L2" t="n">
-        <v>0.03531833591970479</v>
+        <v>0.03548940086986618</v>
       </c>
       <c r="M2" t="n">
-        <v>13.5575567444956</v>
+        <v>13.51033190458394</v>
       </c>
       <c r="N2" t="n">
-        <v>310.1764660579435</v>
+        <v>309.0498273841281</v>
       </c>
       <c r="O2" t="n">
-        <v>17.61182744799481</v>
+        <v>17.57981306453877</v>
       </c>
       <c r="P2" t="n">
-        <v>388.4976419509151</v>
+        <v>388.4937437192649</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -31966,28 +32104,28 @@
         <v>0.1113</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.3321422644107916</v>
+        <v>-0.3280972903318134</v>
       </c>
       <c r="J3" t="n">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="K3" t="n">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01666839022340016</v>
+        <v>0.01634206312822994</v>
       </c>
       <c r="M3" t="n">
-        <v>15.01555997409337</v>
+        <v>15.04624790707251</v>
       </c>
       <c r="N3" t="n">
-        <v>368.0044952143814</v>
+        <v>368.1881666402397</v>
       </c>
       <c r="O3" t="n">
-        <v>19.18344325751718</v>
+        <v>19.18822989856645</v>
       </c>
       <c r="P3" t="n">
-        <v>373.7186852771608</v>
+        <v>373.6773180338292</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -32044,28 +32182,28 @@
         <v>0.1027</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.4007764756724781</v>
+        <v>-0.4023717604976031</v>
       </c>
       <c r="J4" t="n">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="K4" t="n">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="L4" t="n">
-        <v>0.02848497217997692</v>
+        <v>0.02883891804826777</v>
       </c>
       <c r="M4" t="n">
-        <v>14.10289481988096</v>
+        <v>14.0728699035262</v>
       </c>
       <c r="N4" t="n">
-        <v>311.1483954993165</v>
+        <v>310.3209445630224</v>
       </c>
       <c r="O4" t="n">
-        <v>17.63939895516047</v>
+        <v>17.61592871701695</v>
       </c>
       <c r="P4" t="n">
-        <v>372.406443467665</v>
+        <v>372.4225722507386</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -32122,28 +32260,28 @@
         <v>0.0896</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.2064459007633617</v>
+        <v>-0.1942863669179083</v>
       </c>
       <c r="J5" t="n">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="K5" t="n">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="L5" t="n">
-        <v>0.008599891866988396</v>
+        <v>0.007628481264948084</v>
       </c>
       <c r="M5" t="n">
-        <v>13.47858739066775</v>
+        <v>13.50117463711365</v>
       </c>
       <c r="N5" t="n">
-        <v>279.1655744022593</v>
+        <v>280.1303339318244</v>
       </c>
       <c r="O5" t="n">
-        <v>16.70824869345256</v>
+        <v>16.73709454869107</v>
       </c>
       <c r="P5" t="n">
-        <v>366.7849364214144</v>
+        <v>366.6619683446712</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -32200,28 +32338,28 @@
         <v>0.0824</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.03444475109465919</v>
+        <v>-0.02324146971763291</v>
       </c>
       <c r="J6" t="n">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="K6" t="n">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0003036692551059428</v>
+        <v>0.0001384402289018594</v>
       </c>
       <c r="M6" t="n">
-        <v>12.2275757547401</v>
+        <v>12.24058288765701</v>
       </c>
       <c r="N6" t="n">
-        <v>232.525847190856</v>
+        <v>233.1395994699531</v>
       </c>
       <c r="O6" t="n">
-        <v>15.24879822119946</v>
+        <v>15.26890957042948</v>
       </c>
       <c r="P6" t="n">
-        <v>363.3794551516679</v>
+        <v>363.2703110431453</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -32278,28 +32416,28 @@
         <v>0.0901</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.007147730629076502</v>
+        <v>0.004133418964480092</v>
       </c>
       <c r="J7" t="n">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="K7" t="n">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="L7" t="n">
-        <v>1.493701558641369e-05</v>
+        <v>5.000538557231593e-06</v>
       </c>
       <c r="M7" t="n">
-        <v>11.47016922820042</v>
+        <v>11.48128356263194</v>
       </c>
       <c r="N7" t="n">
-        <v>206.506549298473</v>
+        <v>207.0483946195606</v>
       </c>
       <c r="O7" t="n">
-        <v>14.37033574063157</v>
+        <v>14.38917630094095</v>
       </c>
       <c r="P7" t="n">
-        <v>361.4859478232558</v>
+        <v>361.3769258264489</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -32356,28 +32494,28 @@
         <v>0.08649999999999999</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.09236266530638387</v>
+        <v>-0.08383521494899837</v>
       </c>
       <c r="J8" t="n">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="K8" t="n">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="L8" t="n">
-        <v>0.003131487745803518</v>
+        <v>0.002584104912776275</v>
       </c>
       <c r="M8" t="n">
-        <v>10.21479752822855</v>
+        <v>10.22687961088214</v>
       </c>
       <c r="N8" t="n">
-        <v>164.8064594439715</v>
+        <v>165.2580220445486</v>
       </c>
       <c r="O8" t="n">
-        <v>12.83769681227795</v>
+        <v>12.85527214976597</v>
       </c>
       <c r="P8" t="n">
-        <v>362.7452341074332</v>
+        <v>362.6635521312074</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -32434,28 +32572,28 @@
         <v>0.0809</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.02724110422868183</v>
+        <v>-0.02172477870501239</v>
       </c>
       <c r="J9" t="n">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="K9" t="n">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0002668428937049327</v>
+        <v>0.0001705228469612852</v>
       </c>
       <c r="M9" t="n">
-        <v>10.18656825680544</v>
+        <v>10.18699860135398</v>
       </c>
       <c r="N9" t="n">
-        <v>173.6302984421412</v>
+        <v>173.4525847575036</v>
       </c>
       <c r="O9" t="n">
-        <v>13.17688500527121</v>
+        <v>13.17013989134146</v>
       </c>
       <c r="P9" t="n">
-        <v>361.883612678965</v>
+        <v>361.8317679346172</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -32512,28 +32650,28 @@
         <v>0.08790000000000001</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.02894012188425478</v>
+        <v>-0.0257416333002017</v>
       </c>
       <c r="J10" t="n">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="K10" t="n">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0003134371475081998</v>
+        <v>0.0002496338494771821</v>
       </c>
       <c r="M10" t="n">
-        <v>10.16540330054011</v>
+        <v>10.15188638588996</v>
       </c>
       <c r="N10" t="n">
-        <v>164.190564363911</v>
+        <v>163.7006581940807</v>
       </c>
       <c r="O10" t="n">
-        <v>12.81368660315645</v>
+        <v>12.79455580292183</v>
       </c>
       <c r="P10" t="n">
-        <v>362.58750455251</v>
+        <v>362.5570041416242</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -32590,28 +32728,28 @@
         <v>0.1185</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.08029669305202231</v>
+        <v>-0.08160974687829808</v>
       </c>
       <c r="J11" t="n">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="K11" t="n">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="L11" t="n">
-        <v>0.002409043496991448</v>
+        <v>0.002497540060806047</v>
       </c>
       <c r="M11" t="n">
-        <v>10.27445431483133</v>
+        <v>10.28473046684158</v>
       </c>
       <c r="N11" t="n">
-        <v>161.6580638355105</v>
+        <v>161.6308031432904</v>
       </c>
       <c r="O11" t="n">
-        <v>12.71448244465777</v>
+        <v>12.71341036635294</v>
       </c>
       <c r="P11" t="n">
-        <v>362.7534653795634</v>
+        <v>362.766071868498</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -32668,28 +32806,28 @@
         <v>0.106</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.1690546163231139</v>
+        <v>-0.1683268339138733</v>
       </c>
       <c r="J12" t="n">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="K12" t="n">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="L12" t="n">
-        <v>0.01021723383508233</v>
+        <v>0.01012599833023808</v>
       </c>
       <c r="M12" t="n">
-        <v>10.08166317489449</v>
+        <v>10.11701798850019</v>
       </c>
       <c r="N12" t="n">
-        <v>165.4383096158337</v>
+        <v>166.0993866676266</v>
       </c>
       <c r="O12" t="n">
-        <v>12.86228244192428</v>
+        <v>12.88795510031078</v>
       </c>
       <c r="P12" t="n">
-        <v>365.4945470778117</v>
+        <v>365.4873421733599</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -32746,28 +32884,28 @@
         <v>0.07679999999999999</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.09684366917777353</v>
+        <v>-0.09322137721533763</v>
       </c>
       <c r="J13" t="n">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="K13" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="L13" t="n">
-        <v>0.00266448418604448</v>
+        <v>0.002481895326969075</v>
       </c>
       <c r="M13" t="n">
-        <v>11.32416634748641</v>
+        <v>11.32594658440386</v>
       </c>
       <c r="N13" t="n">
-        <v>210.1961367941972</v>
+        <v>209.9151678274308</v>
       </c>
       <c r="O13" t="n">
-        <v>14.49814252910342</v>
+        <v>14.48844946250049</v>
       </c>
       <c r="P13" t="n">
-        <v>366.4633205369357</v>
+        <v>366.4281044237467</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -32824,28 +32962,28 @@
         <v>0.0883</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.1760292563059691</v>
+        <v>-0.1856867724937834</v>
       </c>
       <c r="J14" t="n">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="K14" t="n">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="L14" t="n">
-        <v>0.007942671125382827</v>
+        <v>0.008880630214238683</v>
       </c>
       <c r="M14" t="n">
-        <v>12.00418401798481</v>
+        <v>11.99569488423958</v>
       </c>
       <c r="N14" t="n">
-        <v>229.6782892874309</v>
+        <v>229.204785694188</v>
       </c>
       <c r="O14" t="n">
-        <v>15.1551406884737</v>
+        <v>15.1395107481777</v>
       </c>
       <c r="P14" t="n">
-        <v>367.5563685962357</v>
+        <v>367.6513826746234</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -32902,28 +33040,28 @@
         <v>0.0925</v>
       </c>
       <c r="I15" t="n">
-        <v>-1.855613867991609</v>
+        <v>-1.845354593383607</v>
       </c>
       <c r="J15" t="n">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="K15" t="n">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="L15" t="n">
-        <v>0.04419586574205225</v>
+        <v>0.04391486050252857</v>
       </c>
       <c r="M15" t="n">
-        <v>40.94738032992274</v>
+        <v>40.84371992177672</v>
       </c>
       <c r="N15" t="n">
-        <v>4431.410629714184</v>
+        <v>4420.076867725756</v>
       </c>
       <c r="O15" t="n">
-        <v>66.56884128264653</v>
+        <v>66.48365865177514</v>
       </c>
       <c r="P15" t="n">
-        <v>375.9713727410085</v>
+        <v>375.8699948276786</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -32980,28 +33118,28 @@
         <v>0.0468</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.2504041042292949</v>
+        <v>-0.2482794526828326</v>
       </c>
       <c r="J16" t="n">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="K16" t="n">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="L16" t="n">
-        <v>0.001077719176448388</v>
+        <v>0.001065220456758276</v>
       </c>
       <c r="M16" t="n">
-        <v>38.98806750488084</v>
+        <v>38.86820090435442</v>
       </c>
       <c r="N16" t="n">
-        <v>3258.443091659815</v>
+        <v>3247.910756152052</v>
       </c>
       <c r="O16" t="n">
-        <v>57.08277403612945</v>
+        <v>56.99044442844828</v>
       </c>
       <c r="P16" t="n">
-        <v>347.1585907567129</v>
+        <v>347.1366192260683</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -33058,28 +33196,28 @@
         <v>0.0532</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.9276105532345854</v>
+        <v>-0.9373884856632948</v>
       </c>
       <c r="J17" t="n">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="K17" t="n">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="L17" t="n">
-        <v>0.03233768660549019</v>
+        <v>0.03332206958575168</v>
       </c>
       <c r="M17" t="n">
-        <v>24.57358646085395</v>
+        <v>24.50239638292634</v>
       </c>
       <c r="N17" t="n">
-        <v>1476.455315707681</v>
+        <v>1468.015389310049</v>
       </c>
       <c r="O17" t="n">
-        <v>38.42467066492153</v>
+        <v>38.31468894967111</v>
       </c>
       <c r="P17" t="n">
-        <v>357.9526968975152</v>
+        <v>358.0514026813805</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -33136,28 +33274,28 @@
         <v>0.0703</v>
       </c>
       <c r="I18" t="n">
-        <v>-1.384720720934454</v>
+        <v>-1.387910743738599</v>
       </c>
       <c r="J18" t="n">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="K18" t="n">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="L18" t="n">
-        <v>0.06542993432884292</v>
+        <v>0.06628254609294204</v>
       </c>
       <c r="M18" t="n">
-        <v>27.66647146337433</v>
+        <v>27.5421888708509</v>
       </c>
       <c r="N18" t="n">
-        <v>1630.612364038887</v>
+        <v>1621.614697579623</v>
       </c>
       <c r="O18" t="n">
-        <v>40.38084154693766</v>
+        <v>40.26927734116448</v>
       </c>
       <c r="P18" t="n">
-        <v>354.5660040112487</v>
+        <v>354.5974006589078</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -33195,7 +33333,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S476"/>
+  <dimension ref="A1:S478"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41067,7 +41205,7 @@
       </c>
       <c r="O100" t="inlineStr">
         <is>
-          <t>-41.022744959945655,172.10985222442432</t>
+          <t>-41.02274495994566,172.10985222442432</t>
         </is>
       </c>
       <c r="P100" t="inlineStr"/>
@@ -71301,7 +71439,7 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>-41.03150022084435,172.11108555611372</t>
+          <t>-41.03150022084434,172.11108555611372</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
@@ -72183,9 +72321,187 @@
           <t>-41.02207801853527,172.10970272349064</t>
         </is>
       </c>
-      <c r="Q476" t="inlineStr"/>
-      <c r="R476" t="inlineStr"/>
+      <c r="Q476" t="inlineStr">
+        <is>
+          <t>-41.02137806286415,172.10965721701837</t>
+        </is>
+      </c>
+      <c r="R476" t="inlineStr">
+        <is>
+          <t>-41.02070429060641,172.10950248126642</t>
+        </is>
+      </c>
       <c r="S476" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-05 22:18:36+00:00</t>
+        </is>
+      </c>
+      <c r="B477" t="inlineStr">
+        <is>
+          <t>-41.03150678531869,172.11100808617329</t>
+        </is>
+      </c>
+      <c r="C477" t="inlineStr">
+        <is>
+          <t>-41.03080529586329,172.11123933027469</t>
+        </is>
+      </c>
+      <c r="D477" t="inlineStr">
+        <is>
+          <t>-41.030142151200685,172.1110179796978</t>
+        </is>
+      </c>
+      <c r="E477" t="inlineStr">
+        <is>
+          <t>-41.029468153914145,172.11092462025147</t>
+        </is>
+      </c>
+      <c r="F477" t="inlineStr">
+        <is>
+          <t>-41.0287996584876,172.11076625215358</t>
+        </is>
+      </c>
+      <c r="G477" t="inlineStr">
+        <is>
+          <t>-41.02812757008794,172.11065020376617</t>
+        </is>
+      </c>
+      <c r="H477" t="inlineStr">
+        <is>
+          <t>-41.02744988042087,172.11060017437686</t>
+        </is>
+      </c>
+      <c r="I477" t="inlineStr">
+        <is>
+          <t>-41.02677700984992,172.11049334665302</t>
+        </is>
+      </c>
+      <c r="J477" t="inlineStr">
+        <is>
+          <t>-41.02610468836282,172.1103810973166</t>
+        </is>
+      </c>
+      <c r="K477" t="inlineStr">
+        <is>
+          <t>-41.02541961167741,172.11041541533496</t>
+        </is>
+      </c>
+      <c r="L477" t="inlineStr">
+        <is>
+          <t>-41.02474481423112,172.11033047800223</t>
+        </is>
+      </c>
+      <c r="M477" t="inlineStr">
+        <is>
+          <t>-41.02408442439518,172.11007991742042</t>
+        </is>
+      </c>
+      <c r="N477" t="inlineStr">
+        <is>
+          <t>-41.02341124143869,172.10997627211862</t>
+        </is>
+      </c>
+      <c r="O477" t="inlineStr">
+        <is>
+          <t>-41.022730964381275,172.10994378295823</t>
+        </is>
+      </c>
+      <c r="P477" t="inlineStr">
+        <is>
+          <t>-41.02206839931091,172.109744679325</t>
+        </is>
+      </c>
+      <c r="Q477" t="inlineStr">
+        <is>
+          <t>-41.02136032998185,172.10973189095105</t>
+        </is>
+      </c>
+      <c r="R477" t="inlineStr">
+        <is>
+          <t>-41.020693609579936,172.10954745919207</t>
+        </is>
+      </c>
+      <c r="S477" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-14 22:12:35+00:00</t>
+        </is>
+      </c>
+      <c r="B478" t="inlineStr"/>
+      <c r="C478" t="inlineStr">
+        <is>
+          <t>-41.03084453248384,172.110776288612</t>
+        </is>
+      </c>
+      <c r="D478" t="inlineStr"/>
+      <c r="E478" t="inlineStr">
+        <is>
+          <t>-41.0295022962127,172.11052169815895</t>
+        </is>
+      </c>
+      <c r="F478" t="inlineStr">
+        <is>
+          <t>-41.028826873962736,172.11044507618882</t>
+        </is>
+      </c>
+      <c r="G478" t="inlineStr">
+        <is>
+          <t>-41.028151104296086,172.1103724727132</t>
+        </is>
+      </c>
+      <c r="H478" t="inlineStr">
+        <is>
+          <t>-41.02747470675287,172.1103071974167</t>
+        </is>
+      </c>
+      <c r="I478" t="inlineStr">
+        <is>
+          <t>-41.02679633528672,172.11026568652034</t>
+        </is>
+      </c>
+      <c r="J478" t="inlineStr">
+        <is>
+          <t>-41.02611886699773,172.11021629183668</t>
+        </is>
+      </c>
+      <c r="K478" t="inlineStr">
+        <is>
+          <t>-41.02544509496803,172.1101226056121</t>
+        </is>
+      </c>
+      <c r="L478" t="inlineStr">
+        <is>
+          <t>-41.024780447303804,172.10992104478314</t>
+        </is>
+      </c>
+      <c r="M478" t="inlineStr">
+        <is>
+          <t>-41.02410829110474,172.10980568175603</t>
+        </is>
+      </c>
+      <c r="N478" t="inlineStr">
+        <is>
+          <t>-41.023402469433776,172.1100770627016</t>
+        </is>
+      </c>
+      <c r="O478" t="inlineStr"/>
+      <c r="P478" t="inlineStr"/>
+      <c r="Q478" t="inlineStr"/>
+      <c r="R478" t="inlineStr"/>
+      <c r="S478" t="inlineStr">
         <is>
           <t>L9</t>
         </is>

--- a/data/nzd0335/nzd0335.xlsx
+++ b/data/nzd0335/nzd0335.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S478"/>
+  <dimension ref="A1:S479"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26943,7 +26943,9 @@
       <c r="C478" t="n">
         <v>388.1866666666667</v>
       </c>
-      <c r="D478" t="inlineStr"/>
+      <c r="D478" t="n">
+        <v>400.8835294117647</v>
+      </c>
       <c r="E478" t="n">
         <v>391.78</v>
       </c>
@@ -26974,11 +26976,78 @@
       <c r="N478" t="n">
         <v>347.71</v>
       </c>
-      <c r="O478" t="inlineStr"/>
-      <c r="P478" t="inlineStr"/>
-      <c r="Q478" t="inlineStr"/>
-      <c r="R478" t="inlineStr"/>
+      <c r="O478" t="n">
+        <v>143.68</v>
+      </c>
+      <c r="P478" t="n">
+        <v>209.4171428571429</v>
+      </c>
+      <c r="Q478" t="n">
+        <v>222.61</v>
+      </c>
+      <c r="R478" t="n">
+        <v>224.1</v>
+      </c>
       <c r="S478" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-21 22:18:50+00:00</t>
+        </is>
+      </c>
+      <c r="B479" t="inlineStr"/>
+      <c r="C479" t="inlineStr"/>
+      <c r="D479" t="n">
+        <v>378.2917647058824</v>
+      </c>
+      <c r="E479" t="n">
+        <v>380.875</v>
+      </c>
+      <c r="F479" t="n">
+        <v>375.9033333333333</v>
+      </c>
+      <c r="G479" t="n">
+        <v>378.025</v>
+      </c>
+      <c r="H479" t="n">
+        <v>360.515</v>
+      </c>
+      <c r="I479" t="n">
+        <v>358.2033333333333</v>
+      </c>
+      <c r="J479" t="n">
+        <v>360.295</v>
+      </c>
+      <c r="K479" t="n">
+        <v>362.49</v>
+      </c>
+      <c r="L479" t="n">
+        <v>358.6144444444445</v>
+      </c>
+      <c r="M479" t="n">
+        <v>362.5657142857143</v>
+      </c>
+      <c r="N479" t="n">
+        <v>345.5233333333333</v>
+      </c>
+      <c r="O479" t="n">
+        <v>133.4933333333333</v>
+      </c>
+      <c r="P479" t="n">
+        <v>194.1414285714285</v>
+      </c>
+      <c r="Q479" t="n">
+        <v>204.39</v>
+      </c>
+      <c r="R479" t="n">
+        <v>216.0766666666667</v>
+      </c>
+      <c r="S479" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -26995,7 +27064,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B485"/>
+  <dimension ref="A1:B486"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31853,6 +31922,16 @@
       </c>
       <c r="B485" t="n">
         <v>0.24</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>2025-06-21 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B486" t="n">
+        <v>-0.05</v>
       </c>
     </row>
   </sheetData>
@@ -32029,7 +32108,7 @@
         <v>-0.4469886964938606</v>
       </c>
       <c r="J2" t="n">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="K2" t="n">
         <v>275</v>
@@ -32107,7 +32186,7 @@
         <v>-0.3280972903318134</v>
       </c>
       <c r="J3" t="n">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="K3" t="n">
         <v>299</v>
@@ -32182,28 +32261,28 @@
         <v>0.1027</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.4023717604976031</v>
+        <v>-0.3760171459308975</v>
       </c>
       <c r="J4" t="n">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="K4" t="n">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="L4" t="n">
-        <v>0.02883891804826777</v>
+        <v>0.02513509646188217</v>
       </c>
       <c r="M4" t="n">
-        <v>14.0728699035262</v>
+        <v>14.14990985831062</v>
       </c>
       <c r="N4" t="n">
-        <v>310.3209445630224</v>
+        <v>313.4188682767149</v>
       </c>
       <c r="O4" t="n">
-        <v>17.61592871701695</v>
+        <v>17.70363997252302</v>
       </c>
       <c r="P4" t="n">
-        <v>372.4225722507386</v>
+        <v>372.1556673018728</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -32260,28 +32339,28 @@
         <v>0.0896</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.1942863669179083</v>
+        <v>-0.1855310773903875</v>
       </c>
       <c r="J5" t="n">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="K5" t="n">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="L5" t="n">
-        <v>0.007628481264948084</v>
+        <v>0.006969228899759039</v>
       </c>
       <c r="M5" t="n">
-        <v>13.50117463711365</v>
+        <v>13.51910427383853</v>
       </c>
       <c r="N5" t="n">
-        <v>280.1303339318244</v>
+        <v>280.3567879994953</v>
       </c>
       <c r="O5" t="n">
-        <v>16.73709454869107</v>
+        <v>16.74385821725373</v>
       </c>
       <c r="P5" t="n">
-        <v>366.6619683446712</v>
+        <v>366.5733492966585</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -32338,28 +32417,28 @@
         <v>0.0824</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.02324146971763291</v>
+        <v>-0.01765962736395513</v>
       </c>
       <c r="J6" t="n">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="K6" t="n">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0001384402289018594</v>
+        <v>8.013294252384728e-05</v>
       </c>
       <c r="M6" t="n">
-        <v>12.24058288765701</v>
+        <v>12.24608457220196</v>
       </c>
       <c r="N6" t="n">
-        <v>233.1395994699531</v>
+        <v>232.993793138392</v>
       </c>
       <c r="O6" t="n">
-        <v>15.26890957042948</v>
+        <v>15.26413420860784</v>
       </c>
       <c r="P6" t="n">
-        <v>363.2703110431453</v>
+        <v>363.2158723356774</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -32416,28 +32495,28 @@
         <v>0.0901</v>
       </c>
       <c r="I7" t="n">
-        <v>0.004133418964480092</v>
+        <v>0.01105738878484986</v>
       </c>
       <c r="J7" t="n">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="K7" t="n">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="L7" t="n">
-        <v>5.000538557231593e-06</v>
+        <v>3.582155583359281e-05</v>
       </c>
       <c r="M7" t="n">
-        <v>11.48128356263194</v>
+        <v>11.49473099369284</v>
       </c>
       <c r="N7" t="n">
-        <v>207.0483946195606</v>
+        <v>207.2089715247286</v>
       </c>
       <c r="O7" t="n">
-        <v>14.38917630094095</v>
+        <v>14.39475500051073</v>
       </c>
       <c r="P7" t="n">
-        <v>361.3769258264489</v>
+        <v>361.3099294491943</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -32494,28 +32573,28 @@
         <v>0.08649999999999999</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.08383521494899837</v>
+        <v>-0.08382768991452264</v>
       </c>
       <c r="J8" t="n">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="K8" t="n">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="L8" t="n">
-        <v>0.002584104912776275</v>
+        <v>0.00259477339178793</v>
       </c>
       <c r="M8" t="n">
-        <v>10.22687961088214</v>
+        <v>10.20204196394237</v>
       </c>
       <c r="N8" t="n">
-        <v>165.2580220445486</v>
+        <v>164.855935199759</v>
       </c>
       <c r="O8" t="n">
-        <v>12.85527214976597</v>
+        <v>12.83962363933457</v>
       </c>
       <c r="P8" t="n">
-        <v>362.6635521312074</v>
+        <v>362.6634799806175</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -32572,28 +32651,28 @@
         <v>0.0809</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.02172477870501239</v>
+        <v>-0.02297318573726952</v>
       </c>
       <c r="J9" t="n">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="K9" t="n">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0001705228469612852</v>
+        <v>0.0001914674906949854</v>
       </c>
       <c r="M9" t="n">
-        <v>10.18699860135398</v>
+        <v>10.16873866356205</v>
       </c>
       <c r="N9" t="n">
-        <v>173.4525847575036</v>
+        <v>173.0493677108493</v>
       </c>
       <c r="O9" t="n">
-        <v>13.17013989134146</v>
+        <v>13.15482298287777</v>
       </c>
       <c r="P9" t="n">
-        <v>361.8317679346172</v>
+        <v>361.8435109889942</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -32650,28 +32729,28 @@
         <v>0.08790000000000001</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.0257416333002017</v>
+        <v>-0.02638981620826886</v>
       </c>
       <c r="J10" t="n">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="K10" t="n">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0002496338494771821</v>
+        <v>0.0002634557112669578</v>
       </c>
       <c r="M10" t="n">
-        <v>10.15188638588996</v>
+        <v>10.13062945716813</v>
       </c>
       <c r="N10" t="n">
-        <v>163.7006581940807</v>
+        <v>163.3085217717083</v>
       </c>
       <c r="O10" t="n">
-        <v>12.79455580292183</v>
+        <v>12.77922226787328</v>
       </c>
       <c r="P10" t="n">
-        <v>362.5570041416242</v>
+        <v>362.5631887168179</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -32728,28 +32807,28 @@
         <v>0.1185</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.08160974687829808</v>
+        <v>-0.0808582245013952</v>
       </c>
       <c r="J11" t="n">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="K11" t="n">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="L11" t="n">
-        <v>0.002497540060806047</v>
+        <v>0.002462043471017972</v>
       </c>
       <c r="M11" t="n">
-        <v>10.28473046684158</v>
+        <v>10.26409061367143</v>
       </c>
       <c r="N11" t="n">
-        <v>161.6308031432904</v>
+        <v>161.2437796373729</v>
       </c>
       <c r="O11" t="n">
-        <v>12.71341036635294</v>
+        <v>12.69818017029893</v>
       </c>
       <c r="P11" t="n">
-        <v>362.766071868498</v>
+        <v>362.7588008133574</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -32806,28 +32885,28 @@
         <v>0.106</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.1683268339138733</v>
+        <v>-0.1693637309771373</v>
       </c>
       <c r="J12" t="n">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="K12" t="n">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="L12" t="n">
-        <v>0.01012599833023808</v>
+        <v>0.01029151188411659</v>
       </c>
       <c r="M12" t="n">
-        <v>10.11701798850019</v>
+        <v>10.09848370890829</v>
       </c>
       <c r="N12" t="n">
-        <v>166.0993866676266</v>
+        <v>165.7106306615415</v>
       </c>
       <c r="O12" t="n">
-        <v>12.88795510031078</v>
+        <v>12.87286412037125</v>
       </c>
       <c r="P12" t="n">
-        <v>365.4873421733599</v>
+        <v>365.497479947386</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -32884,28 +32963,28 @@
         <v>0.07679999999999999</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.09322137721533763</v>
+        <v>-0.09382764934596524</v>
       </c>
       <c r="J13" t="n">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="K13" t="n">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="L13" t="n">
-        <v>0.002481895326969075</v>
+        <v>0.002524937369827174</v>
       </c>
       <c r="M13" t="n">
-        <v>11.32594658440386</v>
+        <v>11.30165791840386</v>
       </c>
       <c r="N13" t="n">
-        <v>209.9151678274308</v>
+        <v>209.4058099727871</v>
       </c>
       <c r="O13" t="n">
-        <v>14.48844946250049</v>
+        <v>14.47086071983236</v>
       </c>
       <c r="P13" t="n">
-        <v>366.4281044237467</v>
+        <v>366.4339980526538</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -32962,28 +33041,28 @@
         <v>0.0883</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.1856867724937834</v>
+        <v>-0.1932352183052824</v>
       </c>
       <c r="J14" t="n">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="K14" t="n">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="L14" t="n">
-        <v>0.008880630214238683</v>
+        <v>0.009620132203056242</v>
       </c>
       <c r="M14" t="n">
-        <v>11.99569488423958</v>
+        <v>12.00715941955405</v>
       </c>
       <c r="N14" t="n">
-        <v>229.204785694188</v>
+        <v>229.3830668701188</v>
       </c>
       <c r="O14" t="n">
-        <v>15.1395107481777</v>
+        <v>15.14539754744387</v>
       </c>
       <c r="P14" t="n">
-        <v>367.6513826746234</v>
+        <v>367.7257654258898</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -33040,28 +33119,28 @@
         <v>0.0925</v>
       </c>
       <c r="I15" t="n">
-        <v>-1.845354593383607</v>
+        <v>-2.023098481147808</v>
       </c>
       <c r="J15" t="n">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="K15" t="n">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="L15" t="n">
-        <v>0.04391486050252857</v>
+        <v>0.05058822172559496</v>
       </c>
       <c r="M15" t="n">
-        <v>40.84371992177672</v>
+        <v>42.51753975371786</v>
       </c>
       <c r="N15" t="n">
-        <v>4420.076867725756</v>
+        <v>4596.324658310119</v>
       </c>
       <c r="O15" t="n">
-        <v>66.48365865177514</v>
+        <v>67.79619943853874</v>
       </c>
       <c r="P15" t="n">
-        <v>375.8699948276786</v>
+        <v>377.6301061656338</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -33118,28 +33197,28 @@
         <v>0.0468</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.2482794526828326</v>
+        <v>-0.400674775914079</v>
       </c>
       <c r="J16" t="n">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="K16" t="n">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="L16" t="n">
-        <v>0.001065220456758276</v>
+        <v>0.002696703312305759</v>
       </c>
       <c r="M16" t="n">
-        <v>38.86820090435442</v>
+        <v>39.90640923958335</v>
       </c>
       <c r="N16" t="n">
-        <v>3247.910756152052</v>
+        <v>3349.76789298373</v>
       </c>
       <c r="O16" t="n">
-        <v>56.99044442844828</v>
+        <v>57.87717937999165</v>
       </c>
       <c r="P16" t="n">
-        <v>347.1366192260683</v>
+        <v>348.7157805424676</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -33196,28 +33275,28 @@
         <v>0.0532</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.9373884856632948</v>
+        <v>-1.061862268232266</v>
       </c>
       <c r="J17" t="n">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="K17" t="n">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="L17" t="n">
-        <v>0.03332206958575168</v>
+        <v>0.04046666907886232</v>
       </c>
       <c r="M17" t="n">
-        <v>24.50239638292634</v>
+        <v>25.38415529964055</v>
       </c>
       <c r="N17" t="n">
-        <v>1468.015389310049</v>
+        <v>1546.188596310354</v>
       </c>
       <c r="O17" t="n">
-        <v>38.31468894967111</v>
+        <v>39.3216047016186</v>
       </c>
       <c r="P17" t="n">
-        <v>358.0514026813805</v>
+        <v>359.3109580066629</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -33274,28 +33353,28 @@
         <v>0.0703</v>
       </c>
       <c r="I18" t="n">
-        <v>-1.387910743738599</v>
+        <v>-1.478411063398109</v>
       </c>
       <c r="J18" t="n">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="K18" t="n">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="L18" t="n">
-        <v>0.06628254609294204</v>
+        <v>0.07295399974868866</v>
       </c>
       <c r="M18" t="n">
-        <v>27.5421888708509</v>
+        <v>28.23694389574507</v>
       </c>
       <c r="N18" t="n">
-        <v>1621.614697579623</v>
+        <v>1665.846726884064</v>
       </c>
       <c r="O18" t="n">
-        <v>40.26927734116448</v>
+        <v>40.81478564055021</v>
       </c>
       <c r="P18" t="n">
-        <v>354.5974006589078</v>
+        <v>355.4902249275194</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -33333,7 +33412,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S478"/>
+  <dimension ref="A1:S479"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72446,7 +72525,11 @@
           <t>-41.03084453248384,172.110776288612</t>
         </is>
       </c>
-      <c r="D478" t="inlineStr"/>
+      <c r="D478" t="inlineStr">
+        <is>
+          <t>-41.03018433611236,172.11052013951564</t>
+        </is>
+      </c>
       <c r="E478" t="inlineStr">
         <is>
           <t>-41.0295022962127,172.11052169815895</t>
@@ -72497,11 +72580,116 @@
           <t>-41.023402469433776,172.1100770627016</t>
         </is>
       </c>
-      <c r="O478" t="inlineStr"/>
-      <c r="P478" t="inlineStr"/>
-      <c r="Q478" t="inlineStr"/>
-      <c r="R478" t="inlineStr"/>
+      <c r="O478" t="inlineStr">
+        <is>
+          <t>-41.02236373288367,172.11234601520837</t>
+        </is>
+      </c>
+      <c r="P478" t="inlineStr">
+        <is>
+          <t>-41.02171578817381,172.1112825963274</t>
+        </is>
+      </c>
+      <c r="Q478" t="inlineStr">
+        <is>
+          <t>-41.02109408832819,172.11085301659503</t>
+        </is>
+      </c>
+      <c r="R478" t="inlineStr">
+        <is>
+          <t>-41.02045286406397,172.11056121775746</t>
+        </is>
+      </c>
       <c r="S478" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-21 22:18:50+00:00</t>
+        </is>
+      </c>
+      <c r="B479" t="inlineStr"/>
+      <c r="C479" t="inlineStr"/>
+      <c r="D479" t="inlineStr">
+        <is>
+          <t>-41.03016170663905,172.11078720177443</t>
+        </is>
+      </c>
+      <c r="E479" t="inlineStr">
+        <is>
+          <t>-41.029491373034595,172.11065060726474</t>
+        </is>
+      </c>
+      <c r="F479" t="inlineStr">
+        <is>
+          <t>-41.028813465002685,172.11060331970836</t>
+        </is>
+      </c>
+      <c r="G479" t="inlineStr">
+        <is>
+          <t>-41.02814265529713,172.11047218166976</t>
+        </is>
+      </c>
+      <c r="H479" t="inlineStr">
+        <is>
+          <t>-41.02745217427105,172.11057310489838</t>
+        </is>
+      </c>
+      <c r="I479" t="inlineStr">
+        <is>
+          <t>-41.026776922887784,172.11049437108392</t>
+        </is>
+      </c>
+      <c r="J479" t="inlineStr">
+        <is>
+          <t>-41.026106223672826,172.1103632517641</t>
+        </is>
+      </c>
+      <c r="K479" t="inlineStr">
+        <is>
+          <t>-41.025435870473224,172.11022859850246</t>
+        </is>
+      </c>
+      <c r="L479" t="inlineStr">
+        <is>
+          <t>-41.024759157903844,172.11016566756004</t>
+        </is>
+      </c>
+      <c r="M479" t="inlineStr">
+        <is>
+          <t>-41.024090487359494,172.11001025286916</t>
+        </is>
+      </c>
+      <c r="N479" t="inlineStr">
+        <is>
+          <t>-41.02340022071487,172.11010290037729</t>
+        </is>
+      </c>
+      <c r="O479" t="inlineStr">
+        <is>
+          <t>-41.02234557644552,172.1124647757087</t>
+        </is>
+      </c>
+      <c r="P479" t="inlineStr">
+        <is>
+          <t>-41.02167591808388,172.11145648342765</t>
+        </is>
+      </c>
+      <c r="Q479" t="inlineStr">
+        <is>
+          <t>-41.02104498374535,172.11105978664955</t>
+        </is>
+      </c>
+      <c r="R479" t="inlineStr">
+        <is>
+          <t>-41.02043124063529,172.11065226993742</t>
+        </is>
+      </c>
+      <c r="S479" t="inlineStr">
         <is>
           <t>L9</t>
         </is>

--- a/data/nzd0335/nzd0335.xlsx
+++ b/data/nzd0335/nzd0335.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S479"/>
+  <dimension ref="A1:S483"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27053,6 +27053,232 @@
         </is>
       </c>
     </row>
+    <row r="480">
+      <c r="A480" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-30 22:12:43+00:00</t>
+        </is>
+      </c>
+      <c r="B480" t="inlineStr"/>
+      <c r="C480" t="inlineStr"/>
+      <c r="D480" t="n">
+        <v>369.5841176470589</v>
+      </c>
+      <c r="E480" t="n">
+        <v>381.24</v>
+      </c>
+      <c r="F480" t="n">
+        <v>384.6233333333333</v>
+      </c>
+      <c r="G480" t="n">
+        <v>376.02</v>
+      </c>
+      <c r="H480" t="n">
+        <v>372.33</v>
+      </c>
+      <c r="I480" t="n">
+        <v>364.8933333333333</v>
+      </c>
+      <c r="J480" t="n">
+        <v>367.64</v>
+      </c>
+      <c r="K480" t="n">
+        <v>374.37</v>
+      </c>
+      <c r="L480" t="n">
+        <v>362.4677777777778</v>
+      </c>
+      <c r="M480" t="n">
+        <v>355.9785714285715</v>
+      </c>
+      <c r="N480" t="n">
+        <v>334.5633333333333</v>
+      </c>
+      <c r="O480" t="n">
+        <v>123.5733333333333</v>
+      </c>
+      <c r="P480" t="n">
+        <v>174.4471428571429</v>
+      </c>
+      <c r="Q480" t="n">
+        <v>193.84</v>
+      </c>
+      <c r="R480" t="n">
+        <v>206.9766666666666</v>
+      </c>
+      <c r="S480" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-07 22:18:55+00:00</t>
+        </is>
+      </c>
+      <c r="B481" t="inlineStr"/>
+      <c r="C481" t="n">
+        <v>376.5422222222222</v>
+      </c>
+      <c r="D481" t="n">
+        <v>388.4382352941177</v>
+      </c>
+      <c r="E481" t="n">
+        <v>383.53</v>
+      </c>
+      <c r="F481" t="n">
+        <v>377.8466666666666</v>
+      </c>
+      <c r="G481" t="n">
+        <v>381.13</v>
+      </c>
+      <c r="H481" t="n">
+        <v>382.29</v>
+      </c>
+      <c r="I481" t="n">
+        <v>374.7366666666666</v>
+      </c>
+      <c r="J481" t="n">
+        <v>373.09</v>
+      </c>
+      <c r="K481" t="n">
+        <v>368.3200000000001</v>
+      </c>
+      <c r="L481" t="n">
+        <v>364.5422222222222</v>
+      </c>
+      <c r="M481" t="n">
+        <v>363.16</v>
+      </c>
+      <c r="N481" t="n">
+        <v>351.4166666666666</v>
+      </c>
+      <c r="O481" t="n">
+        <v>146.0466666666667</v>
+      </c>
+      <c r="P481" t="n">
+        <v>211.92</v>
+      </c>
+      <c r="Q481" t="n">
+        <v>225.66</v>
+      </c>
+      <c r="R481" t="n">
+        <v>222.5533333333333</v>
+      </c>
+      <c r="S481" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-16 22:12:48+00:00</t>
+        </is>
+      </c>
+      <c r="B482" t="inlineStr"/>
+      <c r="C482" t="inlineStr"/>
+      <c r="D482" t="inlineStr"/>
+      <c r="E482" t="inlineStr"/>
+      <c r="F482" t="n">
+        <v>378.8333333333333</v>
+      </c>
+      <c r="G482" t="n">
+        <v>374.33</v>
+      </c>
+      <c r="H482" t="n">
+        <v>365.01</v>
+      </c>
+      <c r="I482" t="n">
+        <v>361.5733333333333</v>
+      </c>
+      <c r="J482" t="n">
+        <v>354.79</v>
+      </c>
+      <c r="K482" t="n">
+        <v>371.78</v>
+      </c>
+      <c r="L482" t="n">
+        <v>366.9711111111111</v>
+      </c>
+      <c r="M482" t="n">
+        <v>355.51</v>
+      </c>
+      <c r="N482" t="n">
+        <v>351.0133333333333</v>
+      </c>
+      <c r="O482" t="inlineStr"/>
+      <c r="P482" t="inlineStr"/>
+      <c r="Q482" t="inlineStr"/>
+      <c r="R482" t="inlineStr"/>
+      <c r="S482" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:19:03+00:00</t>
+        </is>
+      </c>
+      <c r="B483" t="inlineStr"/>
+      <c r="C483" t="inlineStr"/>
+      <c r="D483" t="n">
+        <v>392.6123529411765</v>
+      </c>
+      <c r="E483" t="n">
+        <v>393.255</v>
+      </c>
+      <c r="F483" t="n">
+        <v>387.23</v>
+      </c>
+      <c r="G483" t="n">
+        <v>398.645</v>
+      </c>
+      <c r="H483" t="n">
+        <v>397.065</v>
+      </c>
+      <c r="I483" t="n">
+        <v>386.53</v>
+      </c>
+      <c r="J483" t="n">
+        <v>382.685</v>
+      </c>
+      <c r="K483" t="n">
+        <v>375.02</v>
+      </c>
+      <c r="L483" t="n">
+        <v>380.1</v>
+      </c>
+      <c r="M483" t="n">
+        <v>384.8657142857143</v>
+      </c>
+      <c r="N483" t="n">
+        <v>378.86</v>
+      </c>
+      <c r="O483" t="n">
+        <v>165.59</v>
+      </c>
+      <c r="P483" t="n">
+        <v>238.7514285714286</v>
+      </c>
+      <c r="Q483" t="n">
+        <v>246.46</v>
+      </c>
+      <c r="R483" t="n">
+        <v>239.56</v>
+      </c>
+      <c r="S483" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -27064,7 +27290,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B486"/>
+  <dimension ref="A1:B490"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31932,6 +32158,46 @@
       </c>
       <c r="B486" t="n">
         <v>-0.05</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>2025-06-30 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B487" t="n">
+        <v>-0.74</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>2025-07-07 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B488" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>2025-07-16 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B489" t="n">
+        <v>-0.98</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B490" t="n">
+        <v>1.35</v>
       </c>
     </row>
   </sheetData>
@@ -32108,7 +32374,7 @@
         <v>-0.4469886964938606</v>
       </c>
       <c r="J2" t="n">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="K2" t="n">
         <v>275</v>
@@ -32183,28 +32449,28 @@
         <v>0.1113</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.3280972903318134</v>
+        <v>-0.3215082175712871</v>
       </c>
       <c r="J3" t="n">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="K3" t="n">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01634206312822994</v>
+        <v>0.01577412151513991</v>
       </c>
       <c r="M3" t="n">
-        <v>15.04624790707251</v>
+        <v>15.03401101313288</v>
       </c>
       <c r="N3" t="n">
-        <v>368.1881666402397</v>
+        <v>367.3870596654218</v>
       </c>
       <c r="O3" t="n">
-        <v>19.18822989856645</v>
+        <v>19.16734357352165</v>
       </c>
       <c r="P3" t="n">
-        <v>373.6773180338292</v>
+        <v>373.609912004979</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -32261,28 +32527,28 @@
         <v>0.1027</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.3760171459308975</v>
+        <v>-0.3461602133314519</v>
       </c>
       <c r="J4" t="n">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="K4" t="n">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="L4" t="n">
-        <v>0.02513509646188217</v>
+        <v>0.02139003515487414</v>
       </c>
       <c r="M4" t="n">
-        <v>14.14990985831062</v>
+        <v>14.20816442993936</v>
       </c>
       <c r="N4" t="n">
-        <v>313.4188682767149</v>
+        <v>315.2411246903467</v>
       </c>
       <c r="O4" t="n">
-        <v>17.70363997252302</v>
+        <v>17.75503096844234</v>
       </c>
       <c r="P4" t="n">
-        <v>372.1556673018728</v>
+        <v>371.8519945529181</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -32339,28 +32605,28 @@
         <v>0.0896</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.1855310773903875</v>
+        <v>-0.152943827498346</v>
       </c>
       <c r="J5" t="n">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="K5" t="n">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="L5" t="n">
-        <v>0.006969228899759039</v>
+        <v>0.004732581966852778</v>
       </c>
       <c r="M5" t="n">
-        <v>13.51910427383853</v>
+        <v>13.61237078359267</v>
       </c>
       <c r="N5" t="n">
-        <v>280.3567879994953</v>
+        <v>282.8460941628471</v>
       </c>
       <c r="O5" t="n">
-        <v>16.74385821725373</v>
+        <v>16.81802884296632</v>
       </c>
       <c r="P5" t="n">
-        <v>366.5733492966585</v>
+        <v>366.2424423956984</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -32417,28 +32683,28 @@
         <v>0.0824</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.01765962736395513</v>
+        <v>0.01433691892431064</v>
       </c>
       <c r="J6" t="n">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="K6" t="n">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="L6" t="n">
-        <v>8.013294252384728e-05</v>
+        <v>5.288001114422958e-05</v>
       </c>
       <c r="M6" t="n">
-        <v>12.24608457220196</v>
+        <v>12.33196136498526</v>
       </c>
       <c r="N6" t="n">
-        <v>232.993793138392</v>
+        <v>234.4353683222564</v>
       </c>
       <c r="O6" t="n">
-        <v>15.26413420860784</v>
+        <v>15.3112823866016</v>
       </c>
       <c r="P6" t="n">
-        <v>363.2158723356774</v>
+        <v>362.9027760103994</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -32495,28 +32761,28 @@
         <v>0.0901</v>
       </c>
       <c r="I7" t="n">
-        <v>0.01105738878484986</v>
+        <v>0.04539185755055063</v>
       </c>
       <c r="J7" t="n">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="K7" t="n">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="L7" t="n">
-        <v>3.582155583359281e-05</v>
+        <v>0.0005987816611290331</v>
       </c>
       <c r="M7" t="n">
-        <v>11.49473099369284</v>
+        <v>11.59292878953866</v>
       </c>
       <c r="N7" t="n">
-        <v>207.2089715247286</v>
+        <v>210.2776203729953</v>
       </c>
       <c r="O7" t="n">
-        <v>14.39475500051073</v>
+        <v>14.50095239537718</v>
       </c>
       <c r="P7" t="n">
-        <v>361.3099294491943</v>
+        <v>360.976448099764</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -32573,28 +32839,28 @@
         <v>0.08649999999999999</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.08382768991452264</v>
+        <v>-0.0535527454995044</v>
       </c>
       <c r="J8" t="n">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="K8" t="n">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="L8" t="n">
-        <v>0.00259477339178793</v>
+        <v>0.001048866979961538</v>
       </c>
       <c r="M8" t="n">
-        <v>10.20204196394237</v>
+        <v>10.28737061322002</v>
       </c>
       <c r="N8" t="n">
-        <v>164.855935199759</v>
+        <v>167.9332455134956</v>
       </c>
       <c r="O8" t="n">
-        <v>12.83962363933457</v>
+        <v>12.95890603073792</v>
       </c>
       <c r="P8" t="n">
-        <v>362.6634799806175</v>
+        <v>362.3721111095805</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -32651,28 +32917,28 @@
         <v>0.0809</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.02297318573726952</v>
+        <v>-0.005921193976486001</v>
       </c>
       <c r="J9" t="n">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="K9" t="n">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0001914674906949854</v>
+        <v>1.278815838823277e-05</v>
       </c>
       <c r="M9" t="n">
-        <v>10.16873866356205</v>
+        <v>10.18152071912532</v>
       </c>
       <c r="N9" t="n">
-        <v>173.0493677108493</v>
+        <v>173.366405350335</v>
       </c>
       <c r="O9" t="n">
-        <v>13.15482298287777</v>
+        <v>13.16686771219089</v>
       </c>
       <c r="P9" t="n">
-        <v>361.8435109889942</v>
+        <v>361.6824383251005</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -32729,28 +32995,28 @@
         <v>0.08790000000000001</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.02638981620826886</v>
+        <v>-0.01418044270035204</v>
       </c>
       <c r="J10" t="n">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="K10" t="n">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0002634557112669578</v>
+        <v>7.663369743349246e-05</v>
       </c>
       <c r="M10" t="n">
-        <v>10.13062945716813</v>
+        <v>10.14905795538237</v>
       </c>
       <c r="N10" t="n">
-        <v>163.3085217717083</v>
+        <v>163.2666891986923</v>
       </c>
       <c r="O10" t="n">
-        <v>12.77922226787328</v>
+        <v>12.7775854213029</v>
       </c>
       <c r="P10" t="n">
-        <v>362.5631887168179</v>
+        <v>362.4462396809754</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -32807,28 +33073,28 @@
         <v>0.1185</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.0808582245013952</v>
+        <v>-0.06205285737888069</v>
       </c>
       <c r="J11" t="n">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="K11" t="n">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="L11" t="n">
-        <v>0.002462043471017972</v>
+        <v>0.001463317741552617</v>
       </c>
       <c r="M11" t="n">
-        <v>10.26409061367143</v>
+        <v>10.27703365866986</v>
       </c>
       <c r="N11" t="n">
-        <v>161.2437796373729</v>
+        <v>161.0424698719096</v>
       </c>
       <c r="O11" t="n">
-        <v>12.69818017029893</v>
+        <v>12.69025097749882</v>
       </c>
       <c r="P11" t="n">
-        <v>362.7588008133574</v>
+        <v>362.5762285320157</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -32885,28 +33151,28 @@
         <v>0.106</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.1693637309771373</v>
+        <v>-0.1574071537058504</v>
       </c>
       <c r="J12" t="n">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="K12" t="n">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="L12" t="n">
-        <v>0.01029151188411659</v>
+        <v>0.008996839982514659</v>
       </c>
       <c r="M12" t="n">
-        <v>10.09848370890829</v>
+        <v>10.07236634566321</v>
       </c>
       <c r="N12" t="n">
-        <v>165.7106306615415</v>
+        <v>165.0846170614048</v>
       </c>
       <c r="O12" t="n">
-        <v>12.87286412037125</v>
+        <v>12.84852587114198</v>
       </c>
       <c r="P12" t="n">
-        <v>365.497479947386</v>
+        <v>365.3800513473869</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -32963,28 +33229,28 @@
         <v>0.07679999999999999</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.09382764934596524</v>
+        <v>-0.09236567158913622</v>
       </c>
       <c r="J13" t="n">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="K13" t="n">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="L13" t="n">
-        <v>0.002524937369827174</v>
+        <v>0.002472335708488371</v>
       </c>
       <c r="M13" t="n">
-        <v>11.30165791840386</v>
+        <v>11.28504904959337</v>
       </c>
       <c r="N13" t="n">
-        <v>209.4058099727871</v>
+        <v>208.7624302390603</v>
       </c>
       <c r="O13" t="n">
-        <v>14.47086071983236</v>
+        <v>14.44861343655717</v>
       </c>
       <c r="P13" t="n">
-        <v>366.4339980526538</v>
+        <v>366.4195453214803</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -33041,28 +33307,28 @@
         <v>0.0883</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.1932352183052824</v>
+        <v>-0.2081011724942726</v>
       </c>
       <c r="J14" t="n">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="K14" t="n">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="L14" t="n">
-        <v>0.009620132203056242</v>
+        <v>0.01117032398072038</v>
       </c>
       <c r="M14" t="n">
-        <v>12.00715941955405</v>
+        <v>12.05205758455669</v>
       </c>
       <c r="N14" t="n">
-        <v>229.3830668701188</v>
+        <v>230.38775036637</v>
       </c>
       <c r="O14" t="n">
-        <v>15.14539754744387</v>
+        <v>15.17852925570755</v>
       </c>
       <c r="P14" t="n">
-        <v>367.7257654258898</v>
+        <v>367.8723894348394</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -33119,28 +33385,28 @@
         <v>0.0925</v>
       </c>
       <c r="I15" t="n">
-        <v>-2.023098481147808</v>
+        <v>-2.272324512820445</v>
       </c>
       <c r="J15" t="n">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="K15" t="n">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="L15" t="n">
-        <v>0.05058822172559496</v>
+        <v>0.06044627246951628</v>
       </c>
       <c r="M15" t="n">
-        <v>42.51753975371786</v>
+        <v>44.84667066684845</v>
       </c>
       <c r="N15" t="n">
-        <v>4596.324658310119</v>
+        <v>4828.245054973074</v>
       </c>
       <c r="O15" t="n">
-        <v>67.79619943853874</v>
+        <v>69.48557443795852</v>
       </c>
       <c r="P15" t="n">
-        <v>377.6301061656338</v>
+        <v>380.1070225856226</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -33197,28 +33463,28 @@
         <v>0.0468</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.400674775914079</v>
+        <v>-0.6103660418252339</v>
       </c>
       <c r="J16" t="n">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="K16" t="n">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="L16" t="n">
-        <v>0.002696703312305759</v>
+        <v>0.006036351289277708</v>
       </c>
       <c r="M16" t="n">
-        <v>39.90640923958335</v>
+        <v>41.31581465505711</v>
       </c>
       <c r="N16" t="n">
-        <v>3349.76789298373</v>
+        <v>3482.182079228543</v>
       </c>
       <c r="O16" t="n">
-        <v>57.87717937999165</v>
+        <v>59.01001677027844</v>
       </c>
       <c r="P16" t="n">
-        <v>348.7157805424676</v>
+        <v>350.8957994026451</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -33275,28 +33541,28 @@
         <v>0.0532</v>
       </c>
       <c r="I17" t="n">
-        <v>-1.061862268232266</v>
+        <v>-1.229125749866204</v>
       </c>
       <c r="J17" t="n">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="K17" t="n">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="L17" t="n">
-        <v>0.04046666907886232</v>
+        <v>0.05079071660054191</v>
       </c>
       <c r="M17" t="n">
-        <v>25.38415529964055</v>
+        <v>26.56710412676152</v>
       </c>
       <c r="N17" t="n">
-        <v>1546.188596310354</v>
+        <v>1642.835052622307</v>
       </c>
       <c r="O17" t="n">
-        <v>39.3216047016186</v>
+        <v>40.53190166550673</v>
       </c>
       <c r="P17" t="n">
-        <v>359.3109580066629</v>
+        <v>361.0090521802221</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -33353,28 +33619,28 @@
         <v>0.0703</v>
       </c>
       <c r="I18" t="n">
-        <v>-1.478411063398109</v>
+        <v>-1.605926069804524</v>
       </c>
       <c r="J18" t="n">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="K18" t="n">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="L18" t="n">
-        <v>0.07295399974868866</v>
+        <v>0.082693168609554</v>
       </c>
       <c r="M18" t="n">
-        <v>28.23694389574507</v>
+        <v>29.22233912360747</v>
       </c>
       <c r="N18" t="n">
-        <v>1665.846726884064</v>
+        <v>1725.094979071619</v>
       </c>
       <c r="O18" t="n">
-        <v>40.81478564055021</v>
+        <v>41.53426271250784</v>
       </c>
       <c r="P18" t="n">
-        <v>355.4902249275194</v>
+        <v>356.7526452747407</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -33412,7 +33678,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S479"/>
+  <dimension ref="A1:S483"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72695,6 +72961,342 @@
         </is>
       </c>
     </row>
+    <row r="480">
+      <c r="A480" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-30 22:12:43+00:00</t>
+        </is>
+      </c>
+      <c r="B480" t="inlineStr"/>
+      <c r="C480" t="inlineStr"/>
+      <c r="D480" t="inlineStr">
+        <is>
+          <t>-41.03015298429202,172.11089013675473</t>
+        </is>
+      </c>
+      <c r="E480" t="inlineStr">
+        <is>
+          <t>-41.029491738645376,172.11064629256353</t>
+        </is>
+      </c>
+      <c r="F480" t="inlineStr">
+        <is>
+          <t>-41.02882219954922,172.1105002407692</t>
+        </is>
+      </c>
+      <c r="G480" t="inlineStr">
+        <is>
+          <t>-41.02814064695685,172.11049588249114</t>
+        </is>
+      </c>
+      <c r="H480" t="inlineStr">
+        <is>
+          <t>-41.02746400903428,172.1104334429105</t>
+        </is>
+      </c>
+      <c r="I480" t="inlineStr">
+        <is>
+          <t>-41.02678363566924,172.11041529289022</t>
+        </is>
+      </c>
+      <c r="J480" t="inlineStr">
+        <is>
+          <t>-41.026113691747135,172.11027644673095</t>
+        </is>
+      </c>
+      <c r="K480" t="inlineStr">
+        <is>
+          <t>-41.02544808750888,172.1100882199527</t>
+        </is>
+      </c>
+      <c r="L480" t="inlineStr">
+        <is>
+          <t>-41.024763120568835,172.11012013559454</t>
+        </is>
+      </c>
+      <c r="M480" t="inlineStr">
+        <is>
+          <t>-41.024083713349356,172.11008808743242</t>
+        </is>
+      </c>
+      <c r="N480" t="inlineStr">
+        <is>
+          <t>-41.0233889496094,172.1102324038244</t>
+        </is>
+      </c>
+      <c r="O480" t="inlineStr">
+        <is>
+          <t>-41.02232789518847,172.11258042723472</t>
+        </is>
+      </c>
+      <c r="P480" t="inlineStr">
+        <is>
+          <t>-41.02162451499417,172.1116806678774</t>
+        </is>
+      </c>
+      <c r="Q480" t="inlineStr">
+        <is>
+          <t>-41.0210165503497,172.11117951340944</t>
+        </is>
+      </c>
+      <c r="R480" t="inlineStr">
+        <is>
+          <t>-41.02040671542887,172.11075554051536</t>
+        </is>
+      </c>
+      <c r="S480" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-07 22:18:55+00:00</t>
+        </is>
+      </c>
+      <c r="B481" t="inlineStr"/>
+      <c r="C481" t="inlineStr">
+        <is>
+          <t>-41.03083286842942,172.11091394153596</t>
+        </is>
+      </c>
+      <c r="D481" t="inlineStr">
+        <is>
+          <t>-41.03017187012223,172.1106672581176</t>
+        </is>
+      </c>
+      <c r="E481" t="inlineStr">
+        <is>
+          <t>-41.02949403247367,172.11061922224545</t>
+        </is>
+      </c>
+      <c r="F481" t="inlineStr">
+        <is>
+          <t>-41.02881541158584,172.11058034760757</t>
+        </is>
+      </c>
+      <c r="G481" t="inlineStr">
+        <is>
+          <t>-41.02814576546034,172.11043547790138</t>
+        </is>
+      </c>
+      <c r="H481" t="inlineStr">
+        <is>
+          <t>-41.02747398556273,172.1103157083501</t>
+        </is>
+      </c>
+      <c r="I481" t="inlineStr">
+        <is>
+          <t>-41.02679351242308,172.11029894114083</t>
+        </is>
+      </c>
+      <c r="J481" t="inlineStr">
+        <is>
+          <t>-41.02611923302605,172.1102120372662</t>
+        </is>
+      </c>
+      <c r="K481" t="inlineStr">
+        <is>
+          <t>-41.025441865891786,172.1101597090351</t>
+        </is>
+      </c>
+      <c r="L481" t="inlineStr">
+        <is>
+          <t>-41.02476525386459,172.1100956234299</t>
+        </is>
+      </c>
+      <c r="M481" t="inlineStr">
+        <is>
+          <t>-41.02409109850159,172.11000323070874</t>
+        </is>
+      </c>
+      <c r="N481" t="inlineStr">
+        <is>
+          <t>-41.023406281273274,172.11003326468662</t>
+        </is>
+      </c>
+      <c r="O481" t="inlineStr">
+        <is>
+          <t>-41.02236795114847,172.11231842359095</t>
+        </is>
+      </c>
+      <c r="P481" t="inlineStr">
+        <is>
+          <t>-41.02172232068364,172.1112541056878</t>
+        </is>
+      </c>
+      <c r="Q481" t="inlineStr">
+        <is>
+          <t>-41.02110230832329,172.11081840357625</t>
+        </is>
+      </c>
+      <c r="R481" t="inlineStr">
+        <is>
+          <t>-41.020448695697816,172.11057876998947</t>
+        </is>
+      </c>
+      <c r="S481" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-16 22:12:48+00:00</t>
+        </is>
+      </c>
+      <c r="B482" t="inlineStr"/>
+      <c r="C482" t="inlineStr"/>
+      <c r="D482" t="inlineStr"/>
+      <c r="E482" t="inlineStr"/>
+      <c r="F482" t="inlineStr">
+        <is>
+          <t>-41.028816399900755,172.110568684242</t>
+        </is>
+      </c>
+      <c r="G482" t="inlineStr">
+        <is>
+          <t>-41.028138954137546,172.11051585974099</t>
+        </is>
+      </c>
+      <c r="H482" t="inlineStr">
+        <is>
+          <t>-41.02745667680996,172.11051997069865</t>
+        </is>
+      </c>
+      <c r="I482" t="inlineStr">
+        <is>
+          <t>-41.02678030437044,172.11045453648</t>
+        </is>
+      </c>
+      <c r="J482" t="inlineStr">
+        <is>
+          <t>-41.02610062638692,172.11042831120844</t>
+        </is>
+      </c>
+      <c r="K482" t="inlineStr">
+        <is>
+          <t>-41.02544542404519,172.11011882437134</t>
+        </is>
+      </c>
+      <c r="L482" t="inlineStr">
+        <is>
+          <t>-41.02476775165359,172.11006692305745</t>
+        </is>
+      </c>
+      <c r="M482" t="inlineStr">
+        <is>
+          <t>-41.02408323148324,172.1100936241347</t>
+        </is>
+      </c>
+      <c r="N482" t="inlineStr">
+        <is>
+          <t>-41.023405866496574,172.11003803047805</t>
+        </is>
+      </c>
+      <c r="O482" t="inlineStr"/>
+      <c r="P482" t="inlineStr"/>
+      <c r="Q482" t="inlineStr"/>
+      <c r="R482" t="inlineStr"/>
+      <c r="S482" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:19:03+00:00</t>
+        </is>
+      </c>
+      <c r="B483" t="inlineStr"/>
+      <c r="C483" t="inlineStr"/>
+      <c r="D483" t="inlineStr">
+        <is>
+          <t>-41.030176051202254,172.11061791494623</t>
+        </is>
+      </c>
+      <c r="E483" t="inlineStr">
+        <is>
+          <t>-41.029503773660345,172.110504262032</t>
+        </is>
+      </c>
+      <c r="F483" t="inlineStr">
+        <is>
+          <t>-41.028824810546304,172.11046942741163</t>
+        </is>
+      </c>
+      <c r="G483" t="inlineStr">
+        <is>
+          <t>-41.02816330936584,172.11022843548824</t>
+        </is>
+      </c>
+      <c r="H483" t="inlineStr">
+        <is>
+          <t>-41.02748878485931,172.11014105686982</t>
+        </is>
+      </c>
+      <c r="I483" t="inlineStr">
+        <is>
+          <t>-41.0268053456425,172.1101595396452</t>
+        </is>
+      </c>
+      <c r="J483" t="inlineStr">
+        <is>
+          <t>-41.026128988639435,172.11009864112881</t>
+        </is>
+      </c>
+      <c r="K483" t="inlineStr">
+        <is>
+          <t>-41.025448755944424,172.11008053930675</t>
+        </is>
+      </c>
+      <c r="L483" t="inlineStr">
+        <is>
+          <t>-41.024781252844605,172.10991178871228</t>
+        </is>
+      </c>
+      <c r="M483" t="inlineStr">
+        <is>
+          <t>-41.02411341958529,172.1097467529674</t>
+        </is>
+      </c>
+      <c r="N483" t="inlineStr">
+        <is>
+          <t>-41.02343450276328,172.10970899380337</t>
+        </is>
+      </c>
+      <c r="O483" t="inlineStr">
+        <is>
+          <t>-41.022402784255796,172.112090578879</t>
+        </is>
+      </c>
+      <c r="P483" t="inlineStr">
+        <is>
+          <t>-41.021792350830495,172.11094867657818</t>
+        </is>
+      </c>
+      <c r="Q483" t="inlineStr">
+        <is>
+          <t>-41.02115836571502,172.11058235391152</t>
+        </is>
+      </c>
+      <c r="R483" t="inlineStr">
+        <is>
+          <t>-41.02049452960998,172.1103857709743</t>
+        </is>
+      </c>
+      <c r="S483" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0335/nzd0335.xlsx
+++ b/data/nzd0335/nzd0335.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S483"/>
+  <dimension ref="A1:S489"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27279,6 +27279,352 @@
         </is>
       </c>
     </row>
+    <row r="484">
+      <c r="A484" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-24 22:13:17+00:00</t>
+        </is>
+      </c>
+      <c r="B484" t="inlineStr"/>
+      <c r="C484" t="inlineStr"/>
+      <c r="D484" t="n">
+        <v>378.3864705882353</v>
+      </c>
+      <c r="E484" t="n">
+        <v>394.76</v>
+      </c>
+      <c r="F484" t="n">
+        <v>394.6966666666667</v>
+      </c>
+      <c r="G484" t="n">
+        <v>402.24</v>
+      </c>
+      <c r="H484" t="n">
+        <v>398.76</v>
+      </c>
+      <c r="I484" t="n">
+        <v>389.3566666666667</v>
+      </c>
+      <c r="J484" t="n">
+        <v>384.52</v>
+      </c>
+      <c r="K484" t="n">
+        <v>376.96</v>
+      </c>
+      <c r="L484" t="n">
+        <v>389.2222222222222</v>
+      </c>
+      <c r="M484" t="n">
+        <v>390.3171428571428</v>
+      </c>
+      <c r="N484" t="n">
+        <v>381.2866666666666</v>
+      </c>
+      <c r="O484" t="n">
+        <v>173.9966666666667</v>
+      </c>
+      <c r="P484" t="n">
+        <v>256.2042857142857</v>
+      </c>
+      <c r="Q484" t="n">
+        <v>257.96</v>
+      </c>
+      <c r="R484" t="n">
+        <v>247.7933333333333</v>
+      </c>
+      <c r="S484" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-31 22:19:05+00:00</t>
+        </is>
+      </c>
+      <c r="B485" t="n">
+        <v>389.4</v>
+      </c>
+      <c r="C485" t="n">
+        <v>383.21</v>
+      </c>
+      <c r="D485" t="n">
+        <v>373.4805882352941</v>
+      </c>
+      <c r="E485" t="n">
+        <v>367.305</v>
+      </c>
+      <c r="F485" t="n">
+        <v>363.31</v>
+      </c>
+      <c r="G485" t="n">
+        <v>372.925</v>
+      </c>
+      <c r="H485" t="n">
+        <v>369.355</v>
+      </c>
+      <c r="I485" t="n">
+        <v>360.15</v>
+      </c>
+      <c r="J485" t="n">
+        <v>353.865</v>
+      </c>
+      <c r="K485" t="n">
+        <v>353.63</v>
+      </c>
+      <c r="L485" t="n">
+        <v>364.79</v>
+      </c>
+      <c r="M485" t="n">
+        <v>356.0585714285714</v>
+      </c>
+      <c r="N485" t="n">
+        <v>351.64</v>
+      </c>
+      <c r="O485" t="n">
+        <v>327.53</v>
+      </c>
+      <c r="P485" t="inlineStr"/>
+      <c r="Q485" t="inlineStr"/>
+      <c r="R485" t="inlineStr"/>
+      <c r="S485" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:13:18+00:00</t>
+        </is>
+      </c>
+      <c r="B486" t="inlineStr"/>
+      <c r="C486" t="n">
+        <v>346.3822222222223</v>
+      </c>
+      <c r="D486" t="n">
+        <v>366.9458823529412</v>
+      </c>
+      <c r="E486" t="n">
+        <v>367.265</v>
+      </c>
+      <c r="F486" t="n">
+        <v>376.7766666666666</v>
+      </c>
+      <c r="G486" t="n">
+        <v>373.435</v>
+      </c>
+      <c r="H486" t="n">
+        <v>369.435</v>
+      </c>
+      <c r="I486" t="n">
+        <v>364.3666666666666</v>
+      </c>
+      <c r="J486" t="n">
+        <v>357.395</v>
+      </c>
+      <c r="K486" t="n">
+        <v>356.4</v>
+      </c>
+      <c r="L486" t="n">
+        <v>363.8822222222223</v>
+      </c>
+      <c r="M486" t="n">
+        <v>355.8142857142857</v>
+      </c>
+      <c r="N486" t="n">
+        <v>351.4866666666666</v>
+      </c>
+      <c r="O486" t="n">
+        <v>326.9866666666666</v>
+      </c>
+      <c r="P486" t="inlineStr"/>
+      <c r="Q486" t="inlineStr"/>
+      <c r="R486" t="inlineStr"/>
+      <c r="S486" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-08 22:19:12+00:00</t>
+        </is>
+      </c>
+      <c r="B487" t="inlineStr"/>
+      <c r="C487" t="inlineStr"/>
+      <c r="D487" t="n">
+        <v>349.8276470588235</v>
+      </c>
+      <c r="E487" t="n">
+        <v>357.465</v>
+      </c>
+      <c r="F487" t="n">
+        <v>377.7466666666666</v>
+      </c>
+      <c r="G487" t="n">
+        <v>377.745</v>
+      </c>
+      <c r="H487" t="n">
+        <v>370.965</v>
+      </c>
+      <c r="I487" t="n">
+        <v>365.1466666666666</v>
+      </c>
+      <c r="J487" t="n">
+        <v>353.015</v>
+      </c>
+      <c r="K487" t="n">
+        <v>349.89</v>
+      </c>
+      <c r="L487" t="n">
+        <v>346.8522222222222</v>
+      </c>
+      <c r="M487" t="n">
+        <v>352.4814285714286</v>
+      </c>
+      <c r="N487" t="n">
+        <v>348.1566666666666</v>
+      </c>
+      <c r="O487" t="n">
+        <v>335.2566666666667</v>
+      </c>
+      <c r="P487" t="n">
+        <v>239.5428571428572</v>
+      </c>
+      <c r="Q487" t="n">
+        <v>251.68</v>
+      </c>
+      <c r="R487" t="n">
+        <v>247.9133333333334</v>
+      </c>
+      <c r="S487" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:13:01+00:00</t>
+        </is>
+      </c>
+      <c r="B488" t="inlineStr"/>
+      <c r="C488" t="inlineStr"/>
+      <c r="D488" t="n">
+        <v>332.9882352941176</v>
+      </c>
+      <c r="E488" t="n">
+        <v>364.515</v>
+      </c>
+      <c r="F488" t="n">
+        <v>374.87</v>
+      </c>
+      <c r="G488" t="n">
+        <v>380.045</v>
+      </c>
+      <c r="H488" t="n">
+        <v>372.215</v>
+      </c>
+      <c r="I488" t="n">
+        <v>364.11</v>
+      </c>
+      <c r="J488" t="n">
+        <v>358.815</v>
+      </c>
+      <c r="K488" t="n">
+        <v>356.85</v>
+      </c>
+      <c r="L488" t="n">
+        <v>361.9266666666667</v>
+      </c>
+      <c r="M488" t="n">
+        <v>363.0528571428572</v>
+      </c>
+      <c r="N488" t="n">
+        <v>356.46</v>
+      </c>
+      <c r="O488" t="n">
+        <v>351.68</v>
+      </c>
+      <c r="P488" t="n">
+        <v>242.2157142857143</v>
+      </c>
+      <c r="Q488" t="n">
+        <v>255.1</v>
+      </c>
+      <c r="R488" t="n">
+        <v>245.92</v>
+      </c>
+      <c r="S488" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-24 22:19:18+00:00</t>
+        </is>
+      </c>
+      <c r="B489" t="n">
+        <v>392.6766666666667</v>
+      </c>
+      <c r="C489" t="n">
+        <v>361.9144444444445</v>
+      </c>
+      <c r="D489" t="n">
+        <v>367.0752941176471</v>
+      </c>
+      <c r="E489" t="n">
+        <v>361.305</v>
+      </c>
+      <c r="F489" t="n">
+        <v>367.0133333333333</v>
+      </c>
+      <c r="G489" t="n">
+        <v>374.275</v>
+      </c>
+      <c r="H489" t="n">
+        <v>371.825</v>
+      </c>
+      <c r="I489" t="n">
+        <v>366.8733333333333</v>
+      </c>
+      <c r="J489" t="n">
+        <v>367.975</v>
+      </c>
+      <c r="K489" t="n">
+        <v>364.27</v>
+      </c>
+      <c r="L489" t="n">
+        <v>366.2844444444444</v>
+      </c>
+      <c r="M489" t="n">
+        <v>376.9457142857143</v>
+      </c>
+      <c r="N489" t="n">
+        <v>380.7533333333333</v>
+      </c>
+      <c r="O489" t="n">
+        <v>377.8233333333333</v>
+      </c>
+      <c r="P489" t="inlineStr"/>
+      <c r="Q489" t="inlineStr"/>
+      <c r="R489" t="inlineStr"/>
+      <c r="S489" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -27290,7 +27636,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B490"/>
+  <dimension ref="A1:B496"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32198,6 +32544,66 @@
       </c>
       <c r="B490" t="n">
         <v>1.35</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>2025-07-24 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B491" t="n">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>2025-07-31 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B492" t="n">
+        <v>-0.8100000000000001</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B493" t="n">
+        <v>-0.79</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t>2025-08-08 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B494" t="n">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B495" t="n">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>2025-08-24 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B496" t="n">
+        <v>1.21</v>
       </c>
     </row>
   </sheetData>
@@ -32371,28 +32777,28 @@
         <v>0.06419999999999999</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.4469886964938606</v>
+        <v>-0.4284934960753194</v>
       </c>
       <c r="J2" t="n">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="K2" t="n">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="L2" t="n">
-        <v>0.03548940086986618</v>
+        <v>0.03299459407870498</v>
       </c>
       <c r="M2" t="n">
-        <v>13.51033190458394</v>
+        <v>13.50866079194007</v>
       </c>
       <c r="N2" t="n">
-        <v>309.0498273841281</v>
+        <v>308.2559555887301</v>
       </c>
       <c r="O2" t="n">
-        <v>17.57981306453877</v>
+        <v>17.55721947202148</v>
       </c>
       <c r="P2" t="n">
-        <v>388.4937437192649</v>
+        <v>388.3069231503621</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -32449,28 +32855,28 @@
         <v>0.1113</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.3215082175712871</v>
+        <v>-0.3239484663183079</v>
       </c>
       <c r="J3" t="n">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="K3" t="n">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01577412151513991</v>
+        <v>0.0161848646081354</v>
       </c>
       <c r="M3" t="n">
-        <v>15.03401101313288</v>
+        <v>15.01746453521246</v>
       </c>
       <c r="N3" t="n">
-        <v>367.3870596654218</v>
+        <v>366.0250506906312</v>
       </c>
       <c r="O3" t="n">
-        <v>19.16734357352165</v>
+        <v>19.13178116879428</v>
       </c>
       <c r="P3" t="n">
-        <v>373.609912004979</v>
+        <v>373.635057499645</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -32527,28 +32933,28 @@
         <v>0.1027</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.3461602133314519</v>
+        <v>-0.3500430534761846</v>
       </c>
       <c r="J4" t="n">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="K4" t="n">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="L4" t="n">
-        <v>0.02139003515487414</v>
+        <v>0.02219098662195229</v>
       </c>
       <c r="M4" t="n">
-        <v>14.20816442993936</v>
+        <v>14.18692978589148</v>
       </c>
       <c r="N4" t="n">
-        <v>315.2411246903467</v>
+        <v>314.0591528089527</v>
       </c>
       <c r="O4" t="n">
-        <v>17.75503096844234</v>
+        <v>17.72171416113443</v>
       </c>
       <c r="P4" t="n">
-        <v>371.8519945529181</v>
+        <v>371.8918695130042</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -32605,28 +33011,28 @@
         <v>0.0896</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.152943827498346</v>
+        <v>-0.1361309185544367</v>
       </c>
       <c r="J5" t="n">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="K5" t="n">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="L5" t="n">
-        <v>0.004732581966852778</v>
+        <v>0.003814355028520344</v>
       </c>
       <c r="M5" t="n">
-        <v>13.61237078359267</v>
+        <v>13.5388010226337</v>
       </c>
       <c r="N5" t="n">
-        <v>282.8460941628471</v>
+        <v>281.3920576214047</v>
       </c>
       <c r="O5" t="n">
-        <v>16.81802884296632</v>
+        <v>16.77474463654826</v>
       </c>
       <c r="P5" t="n">
-        <v>366.2424423956984</v>
+        <v>366.0714084307654</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -32683,28 +33089,28 @@
         <v>0.0824</v>
       </c>
       <c r="I6" t="n">
-        <v>0.01433691892431064</v>
+        <v>0.04417091438647475</v>
       </c>
       <c r="J6" t="n">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="K6" t="n">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="L6" t="n">
-        <v>5.288001114422958e-05</v>
+        <v>0.000506526989989986</v>
       </c>
       <c r="M6" t="n">
-        <v>12.33196136498526</v>
+        <v>12.34787513450271</v>
       </c>
       <c r="N6" t="n">
-        <v>234.4353683222564</v>
+        <v>234.6393568496295</v>
       </c>
       <c r="O6" t="n">
-        <v>15.3112823866016</v>
+        <v>15.31794231774064</v>
       </c>
       <c r="P6" t="n">
-        <v>362.9027760103994</v>
+        <v>362.6098886214605</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -32761,28 +33167,28 @@
         <v>0.0901</v>
       </c>
       <c r="I7" t="n">
-        <v>0.04539185755055063</v>
+        <v>0.08808190708602975</v>
       </c>
       <c r="J7" t="n">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="K7" t="n">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0005987816611290331</v>
+        <v>0.002242221456141946</v>
       </c>
       <c r="M7" t="n">
-        <v>11.59292878953866</v>
+        <v>11.68565693551675</v>
       </c>
       <c r="N7" t="n">
-        <v>210.2776203729953</v>
+        <v>213.2407878677175</v>
       </c>
       <c r="O7" t="n">
-        <v>14.50095239537718</v>
+        <v>14.60276644570191</v>
       </c>
       <c r="P7" t="n">
-        <v>360.976448099764</v>
+        <v>360.5604804315797</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -32839,28 +33245,28 @@
         <v>0.08649999999999999</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.0535527454995044</v>
+        <v>-0.01961850235819027</v>
       </c>
       <c r="J8" t="n">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="K8" t="n">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="L8" t="n">
-        <v>0.001048866979961538</v>
+        <v>0.0001406602800385626</v>
       </c>
       <c r="M8" t="n">
-        <v>10.28737061322002</v>
+        <v>10.35290350287847</v>
       </c>
       <c r="N8" t="n">
-        <v>167.9332455134956</v>
+        <v>169.9679647599196</v>
       </c>
       <c r="O8" t="n">
-        <v>12.95890603073792</v>
+        <v>13.03717625714708</v>
       </c>
       <c r="P8" t="n">
-        <v>362.3721111095805</v>
+        <v>362.0445289120869</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -32917,28 +33323,28 @@
         <v>0.0809</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.005921193976486001</v>
+        <v>0.009808325167635815</v>
       </c>
       <c r="J9" t="n">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="K9" t="n">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="L9" t="n">
-        <v>1.278815838823277e-05</v>
+        <v>3.554671159955447e-05</v>
       </c>
       <c r="M9" t="n">
-        <v>10.18152071912532</v>
+        <v>10.14709680031817</v>
       </c>
       <c r="N9" t="n">
-        <v>173.366405350335</v>
+        <v>172.8433304127219</v>
       </c>
       <c r="O9" t="n">
-        <v>13.16686771219089</v>
+        <v>13.14698940490643</v>
       </c>
       <c r="P9" t="n">
-        <v>361.6824383251005</v>
+        <v>361.5334908791</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -32995,28 +33401,28 @@
         <v>0.08790000000000001</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.01418044270035204</v>
+        <v>-0.01299445058029534</v>
       </c>
       <c r="J10" t="n">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="K10" t="n">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="L10" t="n">
-        <v>7.663369743349246e-05</v>
+        <v>6.5232719107855e-05</v>
       </c>
       <c r="M10" t="n">
-        <v>10.14905795538237</v>
+        <v>10.13262468706194</v>
       </c>
       <c r="N10" t="n">
-        <v>163.2666891986923</v>
+        <v>162.6512874949109</v>
       </c>
       <c r="O10" t="n">
-        <v>12.7775854213029</v>
+        <v>12.75348138724917</v>
       </c>
       <c r="P10" t="n">
-        <v>362.4462396809754</v>
+        <v>362.4349264681967</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -33073,28 +33479,28 @@
         <v>0.1185</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.06205285737888069</v>
+        <v>-0.06509424377892917</v>
       </c>
       <c r="J11" t="n">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="K11" t="n">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="L11" t="n">
-        <v>0.001463317741552617</v>
+        <v>0.001637547173945708</v>
       </c>
       <c r="M11" t="n">
-        <v>10.27703365866986</v>
+        <v>10.24038172436415</v>
       </c>
       <c r="N11" t="n">
-        <v>161.0424698719096</v>
+        <v>159.8833024014523</v>
       </c>
       <c r="O11" t="n">
-        <v>12.69025097749882</v>
+        <v>12.64449692164351</v>
       </c>
       <c r="P11" t="n">
-        <v>362.5762285320157</v>
+        <v>362.605953778261</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -33151,28 +33557,28 @@
         <v>0.106</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.1574071537058504</v>
+        <v>-0.147609698536652</v>
       </c>
       <c r="J12" t="n">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="K12" t="n">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="L12" t="n">
-        <v>0.008996839982514659</v>
+        <v>0.007992970121793008</v>
       </c>
       <c r="M12" t="n">
-        <v>10.07236634566321</v>
+        <v>10.05706709315621</v>
       </c>
       <c r="N12" t="n">
-        <v>165.0846170614048</v>
+        <v>165.1751265006637</v>
       </c>
       <c r="O12" t="n">
-        <v>12.84852587114198</v>
+        <v>12.85204756062876</v>
       </c>
       <c r="P12" t="n">
-        <v>365.3800513473869</v>
+        <v>365.2837565253159</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -33229,28 +33635,28 @@
         <v>0.07679999999999999</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.09236567158913622</v>
+        <v>-0.08820020765681882</v>
       </c>
       <c r="J13" t="n">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="K13" t="n">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="L13" t="n">
-        <v>0.002472335708488371</v>
+        <v>0.002281371724133674</v>
       </c>
       <c r="M13" t="n">
-        <v>11.28504904959337</v>
+        <v>11.28674519470955</v>
       </c>
       <c r="N13" t="n">
-        <v>208.7624302390603</v>
+        <v>208.4516236380755</v>
       </c>
       <c r="O13" t="n">
-        <v>14.44861343655717</v>
+        <v>14.43785384460154</v>
       </c>
       <c r="P13" t="n">
-        <v>366.4195453214803</v>
+        <v>366.3787808867668</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -33307,28 +33713,28 @@
         <v>0.0883</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.2081011724942726</v>
+        <v>-0.2101531235329309</v>
       </c>
       <c r="J14" t="n">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="K14" t="n">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="L14" t="n">
-        <v>0.01117032398072038</v>
+        <v>0.0115292198086131</v>
       </c>
       <c r="M14" t="n">
-        <v>12.05205758455669</v>
+        <v>12.06880021490733</v>
       </c>
       <c r="N14" t="n">
-        <v>230.38775036637</v>
+        <v>229.846004749612</v>
       </c>
       <c r="O14" t="n">
-        <v>15.17852925570755</v>
+        <v>15.16067296493173</v>
       </c>
       <c r="P14" t="n">
-        <v>367.8723894348394</v>
+        <v>367.8926525442781</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -33385,28 +33791,28 @@
         <v>0.0925</v>
       </c>
       <c r="I15" t="n">
-        <v>-2.272324512820445</v>
+        <v>-2.286758062698004</v>
       </c>
       <c r="J15" t="n">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="K15" t="n">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="L15" t="n">
-        <v>0.06044627246951628</v>
+        <v>0.06184666481488577</v>
       </c>
       <c r="M15" t="n">
-        <v>44.84667066684845</v>
+        <v>44.89531774840021</v>
       </c>
       <c r="N15" t="n">
-        <v>4828.245054973074</v>
+        <v>4820.289354998637</v>
       </c>
       <c r="O15" t="n">
-        <v>69.48557443795852</v>
+        <v>69.42830370244283</v>
       </c>
       <c r="P15" t="n">
-        <v>380.1070225856226</v>
+        <v>380.2488252218945</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -33463,28 +33869,28 @@
         <v>0.0468</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.6103660418252339</v>
+        <v>-0.7515976242390059</v>
       </c>
       <c r="J16" t="n">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="K16" t="n">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="L16" t="n">
-        <v>0.006036351289277708</v>
+        <v>0.00907199901271194</v>
       </c>
       <c r="M16" t="n">
-        <v>41.31581465505711</v>
+        <v>42.16138085375539</v>
       </c>
       <c r="N16" t="n">
-        <v>3482.182079228543</v>
+        <v>3523.076663103615</v>
       </c>
       <c r="O16" t="n">
-        <v>59.01001677027844</v>
+        <v>59.35551080652592</v>
       </c>
       <c r="P16" t="n">
-        <v>350.8957994026451</v>
+        <v>352.370480384539</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -33541,28 +33947,28 @@
         <v>0.0532</v>
       </c>
       <c r="I17" t="n">
-        <v>-1.229125749866204</v>
+        <v>-1.340248374400886</v>
       </c>
       <c r="J17" t="n">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="K17" t="n">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="L17" t="n">
-        <v>0.05079071660054191</v>
+        <v>0.05901893329688224</v>
       </c>
       <c r="M17" t="n">
-        <v>26.56710412676152</v>
+        <v>27.29090688676772</v>
       </c>
       <c r="N17" t="n">
-        <v>1642.835052622307</v>
+        <v>1676.298445186868</v>
       </c>
       <c r="O17" t="n">
-        <v>40.53190166550673</v>
+        <v>40.94262381903324</v>
       </c>
       <c r="P17" t="n">
-        <v>361.0090521802221</v>
+        <v>362.1420032215205</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -33619,28 +34025,28 @@
         <v>0.0703</v>
       </c>
       <c r="I18" t="n">
-        <v>-1.605926069804524</v>
+        <v>-1.696469634280165</v>
       </c>
       <c r="J18" t="n">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="K18" t="n">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="L18" t="n">
-        <v>0.082693168609554</v>
+        <v>0.09075084648160958</v>
       </c>
       <c r="M18" t="n">
-        <v>29.22233912360747</v>
+        <v>29.84772616988876</v>
       </c>
       <c r="N18" t="n">
-        <v>1725.094979071619</v>
+        <v>1747.824540573821</v>
       </c>
       <c r="O18" t="n">
-        <v>41.53426271250784</v>
+        <v>41.80699152742064</v>
       </c>
       <c r="P18" t="n">
-        <v>356.7526452747407</v>
+        <v>357.652931442914</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -33678,7 +34084,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S483"/>
+  <dimension ref="A1:S489"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73297,6 +73703,524 @@
         </is>
       </c>
     </row>
+    <row r="484">
+      <c r="A484" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-24 22:13:17+00:00</t>
+        </is>
+      </c>
+      <c r="B484" t="inlineStr"/>
+      <c r="C484" t="inlineStr"/>
+      <c r="D484" t="inlineStr">
+        <is>
+          <t>-41.0301618015043,172.11078608223556</t>
+        </is>
+      </c>
+      <c r="E484" t="inlineStr">
+        <is>
+          <t>-41.02950528115504,172.11048647127117</t>
+        </is>
+      </c>
+      <c r="F484" t="inlineStr">
+        <is>
+          <t>-41.02883228957154,172.1103811640729</t>
+        </is>
+      </c>
+      <c r="G484" t="inlineStr">
+        <is>
+          <t>-41.028166910252615,172.11018593947344</t>
+        </is>
+      </c>
+      <c r="H484" t="inlineStr">
+        <is>
+          <t>-41.027490482629666,172.11012102070546</t>
+        </is>
+      </c>
+      <c r="I484" t="inlineStr">
+        <is>
+          <t>-41.02680818184407,172.11012612740865</t>
+        </is>
+      </c>
+      <c r="J484" t="inlineStr">
+        <is>
+          <t>-41.026130854343265,172.110076954631</t>
+        </is>
+      </c>
+      <c r="K484" t="inlineStr">
+        <is>
+          <t>-41.02545075096441,172.11005761553176</t>
+        </is>
+      </c>
+      <c r="L484" t="inlineStr">
+        <is>
+          <t>-41.02479063362665,172.1098039981411</t>
+        </is>
+      </c>
+      <c r="M484" t="inlineStr">
+        <is>
+          <t>-41.024119025474995,172.10968233810297</t>
+        </is>
+      </c>
+      <c r="N484" t="inlineStr">
+        <is>
+          <t>-41.02343699819409,172.10968032025713</t>
+        </is>
+      </c>
+      <c r="O484" t="inlineStr">
+        <is>
+          <t>-41.02241776775904,172.1119925702174</t>
+        </is>
+      </c>
+      <c r="P484" t="inlineStr">
+        <is>
+          <t>-41.021837902426064,172.11075000583892</t>
+        </is>
+      </c>
+      <c r="Q484" t="inlineStr">
+        <is>
+          <t>-41.02118935877494,172.11045184551492</t>
+        </is>
+      </c>
+      <c r="R484" t="inlineStr">
+        <is>
+          <t>-41.02051671878382,172.11029233544932</t>
+        </is>
+      </c>
+      <c r="S484" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-31 22:19:05+00:00</t>
+        </is>
+      </c>
+      <c r="B485" t="inlineStr">
+        <is>
+          <t>-41.031518655331695,172.11086800188517</t>
+        </is>
+      </c>
+      <c r="C485" t="inlineStr">
+        <is>
+          <t>-41.03083954745634,172.11083511948078</t>
+        </is>
+      </c>
+      <c r="D485" t="inlineStr">
+        <is>
+          <t>-41.03015688735191,172.11084407573583</t>
+        </is>
+      </c>
+      <c r="E485" t="inlineStr">
+        <is>
+          <t>-41.029477780212076,172.11081101954858</t>
+        </is>
+      </c>
+      <c r="F485" t="inlineStr">
+        <is>
+          <t>-41.02880085049813,172.1107521851953</t>
+        </is>
+      </c>
+      <c r="G485" t="inlineStr">
+        <is>
+          <t>-41.028137546791044,172.11053246804562</t>
+        </is>
+      </c>
+      <c r="H485" t="inlineStr">
+        <is>
+          <t>-41.027461029073926,172.11046860960252</t>
+        </is>
+      </c>
+      <c r="I485" t="inlineStr">
+        <is>
+          <t>-41.026778876189056,172.11047136078895</t>
+        </is>
+      </c>
+      <c r="J485" t="inlineStr">
+        <is>
+          <t>-41.02609968587659,172.110439243085</t>
+        </is>
+      </c>
+      <c r="K485" t="inlineStr">
+        <is>
+          <t>-41.025426759003324,172.1103332915641</t>
+        </is>
+      </c>
+      <c r="L485" t="inlineStr">
+        <is>
+          <t>-41.02476550867138,172.1100926956244</t>
+        </is>
+      </c>
+      <c r="M485" t="inlineStr">
+        <is>
+          <t>-41.02408379561914,172.1100871421418</t>
+        </is>
+      </c>
+      <c r="N485" t="inlineStr">
+        <is>
+          <t>-41.02340651094291,172.11003062577728</t>
+        </is>
+      </c>
+      <c r="O485" t="inlineStr">
+        <is>
+          <t>-41.02269140097245,172.11020260271954</t>
+        </is>
+      </c>
+      <c r="P485" t="inlineStr"/>
+      <c r="Q485" t="inlineStr"/>
+      <c r="R485" t="inlineStr"/>
+      <c r="S485" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:13:18+00:00</t>
+        </is>
+      </c>
+      <c r="B486" t="inlineStr"/>
+      <c r="C486" t="inlineStr">
+        <is>
+          <t>-41.030802656871174,172.1112704729045</t>
+        </is>
+      </c>
+      <c r="D486" t="inlineStr">
+        <is>
+          <t>-41.03015034158474,172.11092132390004</t>
+        </is>
+      </c>
+      <c r="E486" t="inlineStr">
+        <is>
+          <t>-41.02947774014447,172.11081149239237</t>
+        </is>
+      </c>
+      <c r="F486" t="inlineStr">
+        <is>
+          <t>-41.02881433979705,172.11059299605432</t>
+        </is>
+      </c>
+      <c r="G486" t="inlineStr">
+        <is>
+          <t>-41.028138057643076,172.11052643940843</t>
+        </is>
+      </c>
+      <c r="H486" t="inlineStr">
+        <is>
+          <t>-41.027461109207444,172.1104676639436</t>
+        </is>
+      </c>
+      <c r="I486" t="inlineStr">
+        <is>
+          <t>-41.02678310721108,172.11042151827922</t>
+        </is>
+      </c>
+      <c r="J486" t="inlineStr">
+        <is>
+          <t>-41.026103275061764,172.11039752467886</t>
+        </is>
+      </c>
+      <c r="K486" t="inlineStr">
+        <is>
+          <t>-41.02542960763339,172.11030056021477</t>
+        </is>
+      </c>
+      <c r="L486" t="inlineStr">
+        <is>
+          <t>-41.02476457514117,172.1101034221584</t>
+        </is>
+      </c>
+      <c r="M486" t="inlineStr">
+        <is>
+          <t>-41.02408354440243,172.11009002865427</t>
+        </is>
+      </c>
+      <c r="N486" t="inlineStr">
+        <is>
+          <t>-41.02340635325928,172.1100324375658</t>
+        </is>
+      </c>
+      <c r="O486" t="inlineStr">
+        <is>
+          <t>-41.02269043267149,172.1102089371934</t>
+        </is>
+      </c>
+      <c r="P486" t="inlineStr"/>
+      <c r="Q486" t="inlineStr"/>
+      <c r="R486" t="inlineStr"/>
+      <c r="S486" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-08 22:19:12+00:00</t>
+        </is>
+      </c>
+      <c r="B487" t="inlineStr"/>
+      <c r="C487" t="inlineStr"/>
+      <c r="D487" t="inlineStr">
+        <is>
+          <t>-41.03013319412716,172.11112368217428</t>
+        </is>
+      </c>
+      <c r="E487" t="inlineStr">
+        <is>
+          <t>-41.029467923522716,172.11092733910246</t>
+        </is>
+      </c>
+      <c r="F487" t="inlineStr">
+        <is>
+          <t>-41.028815311418725,172.11058152970543</t>
+        </is>
+      </c>
+      <c r="G487" t="inlineStr">
+        <is>
+          <t>-41.02814237483094,172.11047549151024</t>
+        </is>
+      </c>
+      <c r="H487" t="inlineStr">
+        <is>
+          <t>-41.02746264175968,172.11044957821662</t>
+        </is>
+      </c>
+      <c r="I487" t="inlineStr">
+        <is>
+          <t>-41.02678388986417,172.1104122983993</t>
+        </is>
+      </c>
+      <c r="J487" t="inlineStr">
+        <is>
+          <t>-41.02609882162293,172.11044928859292</t>
+        </is>
+      </c>
+      <c r="K487" t="inlineStr">
+        <is>
+          <t>-41.02542291282373,172.11037748478964</t>
+        </is>
+      </c>
+      <c r="L487" t="inlineStr">
+        <is>
+          <t>-41.024747061837296,172.1103046529338</t>
+        </is>
+      </c>
+      <c r="M487" t="inlineStr">
+        <is>
+          <t>-41.0240801169764,172.11012941013524</t>
+        </is>
+      </c>
+      <c r="N487" t="inlineStr">
+        <is>
+          <t>-41.02340292877503,172.11007178488353</t>
+        </is>
+      </c>
+      <c r="O487" t="inlineStr">
+        <is>
+          <t>-41.02270517100601,172.11011252104083</t>
+        </is>
+      </c>
+      <c r="P487" t="inlineStr">
+        <is>
+          <t>-41.02179441645015,172.11093966753188</t>
+        </is>
+      </c>
+      <c r="Q487" t="inlineStr">
+        <is>
+          <t>-41.02117243388768,172.11052311446292</t>
+        </is>
+      </c>
+      <c r="R487" t="inlineStr">
+        <is>
+          <t>-41.02051704218822,172.11029097363553</t>
+        </is>
+      </c>
+      <c r="S487" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:13:01+00:00</t>
+        </is>
+      </c>
+      <c r="B488" t="inlineStr"/>
+      <c r="C488" t="inlineStr"/>
+      <c r="D488" t="inlineStr">
+        <is>
+          <t>-41.03011632562133,172.11132274432032</t>
+        </is>
+      </c>
+      <c r="E488" t="inlineStr">
+        <is>
+          <t>-41.029474985492,172.11084400040102</t>
+        </is>
+      </c>
+      <c r="F488" t="inlineStr">
+        <is>
+          <t>-41.02881242993942,172.1106155347186</t>
+        </is>
+      </c>
+      <c r="G488" t="inlineStr">
+        <is>
+          <t>-41.02814467865746,172.11044830353418</t>
+        </is>
+      </c>
+      <c r="H488" t="inlineStr">
+        <is>
+          <t>-41.027463893842736,172.11043480229526</t>
+        </is>
+      </c>
+      <c r="I488" t="inlineStr">
+        <is>
+          <t>-41.02678284967122,172.11042455217128</t>
+        </is>
+      </c>
+      <c r="J488" t="inlineStr">
+        <is>
+          <t>-41.026104718865696,172.11038074276925</t>
+        </is>
+      </c>
+      <c r="K488" t="inlineStr">
+        <is>
+          <t>-41.02543007040636,172.11029524284731</t>
+        </is>
+      </c>
+      <c r="L488" t="inlineStr">
+        <is>
+          <t>-41.02476256410573,172.1101265295012</t>
+        </is>
+      </c>
+      <c r="M488" t="inlineStr">
+        <is>
+          <t>-41.02409098831976,172.11000449672326</t>
+        </is>
+      </c>
+      <c r="N488" t="inlineStr">
+        <is>
+          <t>-41.02341146767914,172.10997367259563</t>
+        </is>
+      </c>
+      <c r="O488" t="inlineStr">
+        <is>
+          <t>-41.02273443951763,172.10992104877567</t>
+        </is>
+      </c>
+      <c r="P488" t="inlineStr">
+        <is>
+          <t>-41.02180139257194,172.11090924166928</t>
+        </is>
+      </c>
+      <c r="Q488" t="inlineStr">
+        <is>
+          <t>-41.02118165094963,172.11048430239694</t>
+        </is>
+      </c>
+      <c r="R488" t="inlineStr">
+        <is>
+          <t>-41.02051167007973,172.11031359487376</t>
+        </is>
+      </c>
+      <c r="S488" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-24 22:19:18+00:00</t>
+        </is>
+      </c>
+      <c r="B489" t="inlineStr">
+        <is>
+          <t>-41.031521937502035,172.11082926689642</t>
+        </is>
+      </c>
+      <c r="C489" t="inlineStr">
+        <is>
+          <t>-41.030818215783775,172.11108686138957</t>
+        </is>
+      </c>
+      <c r="D489" t="inlineStr">
+        <is>
+          <t>-41.03015047121606,172.11091979409585</t>
+        </is>
+      </c>
+      <c r="E489" t="inlineStr">
+        <is>
+          <t>-41.029471770049646,172.1108819461097</t>
+        </is>
+      </c>
+      <c r="F489" t="inlineStr">
+        <is>
+          <t>-41.02880456007733,172.11070840818763</t>
+        </is>
+      </c>
+      <c r="G489" t="inlineStr">
+        <is>
+          <t>-41.02813889904574,172.11051650988816</t>
+        </is>
+      </c>
+      <c r="H489" t="inlineStr">
+        <is>
+          <t>-41.02746350319303,172.1104394123828</t>
+        </is>
+      </c>
+      <c r="I489" t="inlineStr">
+        <is>
+          <t>-41.026785622401285,172.1103918885789</t>
+        </is>
+      </c>
+      <c r="J489" t="inlineStr">
+        <is>
+          <t>-41.026114032358905,172.11027248761735</t>
+        </is>
+      </c>
+      <c r="K489" t="inlineStr">
+        <is>
+          <t>-41.02543770098276,172.11020756535584</t>
+        </is>
+      </c>
+      <c r="L489" t="inlineStr">
+        <is>
+          <t>-41.02476704550902,172.11007503688666</t>
+        </is>
+      </c>
+      <c r="M489" t="inlineStr">
+        <is>
+          <t>-41.024105275115105,172.10984033680873</t>
+        </is>
+      </c>
+      <c r="N489" t="inlineStr">
+        <is>
+          <t>-41.02343644974838,172.1096866221356</t>
+        </is>
+      </c>
+      <c r="O489" t="inlineStr">
+        <is>
+          <t>-41.0227810296707,172.10961625505868</t>
+        </is>
+      </c>
+      <c r="P489" t="inlineStr"/>
+      <c r="Q489" t="inlineStr"/>
+      <c r="R489" t="inlineStr"/>
+      <c r="S489" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0335/nzd0335.xlsx
+++ b/data/nzd0335/nzd0335.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S489"/>
+  <dimension ref="A1:S491"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27617,9 +27617,139 @@
         <v>377.8233333333333</v>
       </c>
       <c r="P489" t="inlineStr"/>
-      <c r="Q489" t="inlineStr"/>
-      <c r="R489" t="inlineStr"/>
+      <c r="Q489" t="n">
+        <v>372.03</v>
+      </c>
+      <c r="R489" t="n">
+        <v>352.5266666666667</v>
+      </c>
       <c r="S489" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-25 22:13:27+00:00</t>
+        </is>
+      </c>
+      <c r="B490" t="n">
+        <v>378.6233333333333</v>
+      </c>
+      <c r="C490" t="n">
+        <v>358.7422222222222</v>
+      </c>
+      <c r="D490" t="n">
+        <v>362.5558823529412</v>
+      </c>
+      <c r="E490" t="n">
+        <v>359.61</v>
+      </c>
+      <c r="F490" t="n">
+        <v>366.6766666666667</v>
+      </c>
+      <c r="G490" t="n">
+        <v>368.29</v>
+      </c>
+      <c r="H490" t="n">
+        <v>366.44</v>
+      </c>
+      <c r="I490" t="n">
+        <v>372.0566666666667</v>
+      </c>
+      <c r="J490" t="n">
+        <v>368.54</v>
+      </c>
+      <c r="K490" t="n">
+        <v>357.46</v>
+      </c>
+      <c r="L490" t="n">
+        <v>362.6022222222222</v>
+      </c>
+      <c r="M490" t="n">
+        <v>367.3214285714286</v>
+      </c>
+      <c r="N490" t="n">
+        <v>373.7166666666667</v>
+      </c>
+      <c r="O490" t="n">
+        <v>372.1866666666667</v>
+      </c>
+      <c r="P490" t="n">
+        <v>346.4828571428571</v>
+      </c>
+      <c r="Q490" t="n">
+        <v>341.42</v>
+      </c>
+      <c r="R490" t="n">
+        <v>331.7733333333333</v>
+      </c>
+      <c r="S490" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:13:37+00:00</t>
+        </is>
+      </c>
+      <c r="B491" t="n">
+        <v>361.39</v>
+      </c>
+      <c r="C491" t="n">
+        <v>366.3833333333333</v>
+      </c>
+      <c r="D491" t="n">
+        <v>368.9135294117647</v>
+      </c>
+      <c r="E491" t="n">
+        <v>362.195</v>
+      </c>
+      <c r="F491" t="n">
+        <v>357.58</v>
+      </c>
+      <c r="G491" t="n">
+        <v>340.905</v>
+      </c>
+      <c r="H491" t="n">
+        <v>352.285</v>
+      </c>
+      <c r="I491" t="n">
+        <v>361.9</v>
+      </c>
+      <c r="J491" t="n">
+        <v>366.735</v>
+      </c>
+      <c r="K491" t="n">
+        <v>363.45</v>
+      </c>
+      <c r="L491" t="n">
+        <v>359.7433333333333</v>
+      </c>
+      <c r="M491" t="n">
+        <v>360.8342857142857</v>
+      </c>
+      <c r="N491" t="n">
+        <v>359.8</v>
+      </c>
+      <c r="O491" t="n">
+        <v>357.12</v>
+      </c>
+      <c r="P491" t="n">
+        <v>359.0685714285714</v>
+      </c>
+      <c r="Q491" t="n">
+        <v>334.87</v>
+      </c>
+      <c r="R491" t="n">
+        <v>332.39</v>
+      </c>
+      <c r="S491" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -27636,7 +27766,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B496"/>
+  <dimension ref="A1:B498"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32604,6 +32734,26 @@
       </c>
       <c r="B496" t="n">
         <v>1.21</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>2025-08-25 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B497" t="n">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B498" t="n">
+        <v>0.75</v>
       </c>
     </row>
   </sheetData>
@@ -32777,28 +32927,28 @@
         <v>0.06419999999999999</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.4284934960753194</v>
+        <v>-0.4377139686345475</v>
       </c>
       <c r="J2" t="n">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="K2" t="n">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="L2" t="n">
-        <v>0.03299459407870498</v>
+        <v>0.03473470239005838</v>
       </c>
       <c r="M2" t="n">
-        <v>13.50866079194007</v>
+        <v>13.47664315978463</v>
       </c>
       <c r="N2" t="n">
-        <v>308.2559555887301</v>
+        <v>306.9341885895335</v>
       </c>
       <c r="O2" t="n">
-        <v>17.55721947202148</v>
+        <v>17.51953733948284</v>
       </c>
       <c r="P2" t="n">
-        <v>388.3069231503621</v>
+        <v>388.4005709709093</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -32855,28 +33005,28 @@
         <v>0.1113</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.3239484663183079</v>
+        <v>-0.326901812080729</v>
       </c>
       <c r="J3" t="n">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="K3" t="n">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0161848646081354</v>
+        <v>0.01665453369234327</v>
       </c>
       <c r="M3" t="n">
-        <v>15.01746453521246</v>
+        <v>14.94394146140013</v>
       </c>
       <c r="N3" t="n">
-        <v>366.0250506906312</v>
+        <v>363.7657418704617</v>
       </c>
       <c r="O3" t="n">
-        <v>19.13178116879428</v>
+        <v>19.07264380914355</v>
       </c>
       <c r="P3" t="n">
-        <v>373.635057499645</v>
+        <v>373.665471685063</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -32933,28 +33083,28 @@
         <v>0.1027</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.3500430534761846</v>
+        <v>-0.3473597318986145</v>
       </c>
       <c r="J4" t="n">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="K4" t="n">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="L4" t="n">
-        <v>0.02219098662195229</v>
+        <v>0.02204632182528166</v>
       </c>
       <c r="M4" t="n">
-        <v>14.18692978589148</v>
+        <v>14.12849513052962</v>
       </c>
       <c r="N4" t="n">
-        <v>314.0591528089527</v>
+        <v>312.4888134664186</v>
       </c>
       <c r="O4" t="n">
-        <v>17.72171416113443</v>
+        <v>17.67735312388194</v>
       </c>
       <c r="P4" t="n">
-        <v>371.8918695130042</v>
+        <v>371.8642886473294</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -33011,28 +33161,28 @@
         <v>0.0896</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.1361309185544367</v>
+        <v>-0.1375235544363864</v>
       </c>
       <c r="J5" t="n">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="K5" t="n">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="L5" t="n">
-        <v>0.003814355028520344</v>
+        <v>0.003925850280353527</v>
       </c>
       <c r="M5" t="n">
-        <v>13.5388010226337</v>
+        <v>13.47797023919756</v>
       </c>
       <c r="N5" t="n">
-        <v>281.3920576214047</v>
+        <v>279.9924860630665</v>
       </c>
       <c r="O5" t="n">
-        <v>16.77474463654826</v>
+        <v>16.73297600736541</v>
       </c>
       <c r="P5" t="n">
-        <v>366.0714084307654</v>
+        <v>366.085652010526</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -33089,28 +33239,28 @@
         <v>0.0824</v>
       </c>
       <c r="I6" t="n">
-        <v>0.04417091438647475</v>
+        <v>0.0428607128396148</v>
       </c>
       <c r="J6" t="n">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="K6" t="n">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="L6" t="n">
-        <v>0.000506526989989986</v>
+        <v>0.0004806129445852347</v>
       </c>
       <c r="M6" t="n">
-        <v>12.34787513450271</v>
+        <v>12.30992317636263</v>
       </c>
       <c r="N6" t="n">
-        <v>234.6393568496295</v>
+        <v>233.6283112828943</v>
       </c>
       <c r="O6" t="n">
-        <v>15.31794231774064</v>
+        <v>15.28490468674549</v>
       </c>
       <c r="P6" t="n">
-        <v>362.6098886214605</v>
+        <v>362.6228968767426</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -33167,28 +33317,28 @@
         <v>0.0901</v>
       </c>
       <c r="I7" t="n">
-        <v>0.08808190708602975</v>
+        <v>0.08152653378035163</v>
       </c>
       <c r="J7" t="n">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="K7" t="n">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="L7" t="n">
-        <v>0.002242221456141946</v>
+        <v>0.001925957251228128</v>
       </c>
       <c r="M7" t="n">
-        <v>11.68565693551675</v>
+        <v>11.6952839518503</v>
       </c>
       <c r="N7" t="n">
-        <v>213.2407878677175</v>
+        <v>213.4414493882277</v>
       </c>
       <c r="O7" t="n">
-        <v>14.60276644570191</v>
+        <v>14.60963549813026</v>
       </c>
       <c r="P7" t="n">
-        <v>360.5604804315797</v>
+        <v>360.6249360201672</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -33245,28 +33395,28 @@
         <v>0.08649999999999999</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.01961850235819027</v>
+        <v>-0.02133007159899973</v>
       </c>
       <c r="J8" t="n">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="K8" t="n">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0001406602800385626</v>
+        <v>0.0001673655057172763</v>
       </c>
       <c r="M8" t="n">
-        <v>10.35290350287847</v>
+        <v>10.33698122669456</v>
       </c>
       <c r="N8" t="n">
-        <v>169.9679647599196</v>
+        <v>169.4231212184372</v>
       </c>
       <c r="O8" t="n">
-        <v>13.03717625714708</v>
+        <v>13.01626371961006</v>
       </c>
       <c r="P8" t="n">
-        <v>362.0445289120869</v>
+        <v>362.0612541831387</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -33323,28 +33473,28 @@
         <v>0.0809</v>
       </c>
       <c r="I9" t="n">
-        <v>0.009808325167635815</v>
+        <v>0.01378254869069343</v>
       </c>
       <c r="J9" t="n">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="K9" t="n">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="L9" t="n">
-        <v>3.554671159955447e-05</v>
+        <v>7.064701222248004e-05</v>
       </c>
       <c r="M9" t="n">
-        <v>10.14709680031817</v>
+        <v>10.12519611387147</v>
       </c>
       <c r="N9" t="n">
-        <v>172.8433304127219</v>
+        <v>172.2683301424108</v>
       </c>
       <c r="O9" t="n">
-        <v>13.14698940490643</v>
+        <v>13.12510305263965</v>
       </c>
       <c r="P9" t="n">
-        <v>361.5334908791</v>
+        <v>361.4956913158563</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -33401,28 +33551,28 @@
         <v>0.08790000000000001</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.01299445058029534</v>
+        <v>-0.008746994630445952</v>
       </c>
       <c r="J10" t="n">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="K10" t="n">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="L10" t="n">
-        <v>6.5232719107855e-05</v>
+        <v>2.976621421346692e-05</v>
       </c>
       <c r="M10" t="n">
-        <v>10.13262468706194</v>
+        <v>10.11423033569341</v>
       </c>
       <c r="N10" t="n">
-        <v>162.6512874949109</v>
+        <v>162.0294490815129</v>
       </c>
       <c r="O10" t="n">
-        <v>12.75348138724917</v>
+        <v>12.72907887796728</v>
       </c>
       <c r="P10" t="n">
-        <v>362.4349264681967</v>
+        <v>362.3938853243224</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -33479,28 +33629,28 @@
         <v>0.1185</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.06509424377892917</v>
+        <v>-0.06543902129507535</v>
       </c>
       <c r="J11" t="n">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="K11" t="n">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="L11" t="n">
-        <v>0.001637547173945708</v>
+        <v>0.001667574079846301</v>
       </c>
       <c r="M11" t="n">
-        <v>10.24038172436415</v>
+        <v>10.20595660003668</v>
       </c>
       <c r="N11" t="n">
-        <v>159.8833024014523</v>
+        <v>159.1674063901432</v>
       </c>
       <c r="O11" t="n">
-        <v>12.64449692164351</v>
+        <v>12.61615656173239</v>
       </c>
       <c r="P11" t="n">
-        <v>362.605953778261</v>
+        <v>362.609286413252</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -33557,28 +33707,28 @@
         <v>0.106</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.147609698536652</v>
+        <v>-0.1478190803307944</v>
       </c>
       <c r="J12" t="n">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="K12" t="n">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="L12" t="n">
-        <v>0.007992970121793008</v>
+        <v>0.008077987135601594</v>
       </c>
       <c r="M12" t="n">
-        <v>10.05706709315621</v>
+        <v>10.01623996660406</v>
       </c>
       <c r="N12" t="n">
-        <v>165.1751265006637</v>
+        <v>164.4040796230606</v>
       </c>
       <c r="O12" t="n">
-        <v>12.85204756062876</v>
+        <v>12.82201542750049</v>
       </c>
       <c r="P12" t="n">
-        <v>365.2837565253159</v>
+        <v>365.2858517447114</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -33635,28 +33785,28 @@
         <v>0.07679999999999999</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.08820020765681882</v>
+        <v>-0.08821063457777413</v>
       </c>
       <c r="J13" t="n">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="K13" t="n">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="L13" t="n">
-        <v>0.002281371724133674</v>
+        <v>0.002299813497831815</v>
       </c>
       <c r="M13" t="n">
-        <v>11.28674519470955</v>
+        <v>11.24842915381399</v>
       </c>
       <c r="N13" t="n">
-        <v>208.4516236380755</v>
+        <v>207.5090062499194</v>
       </c>
       <c r="O13" t="n">
-        <v>14.43785384460154</v>
+        <v>14.40517289899428</v>
       </c>
       <c r="P13" t="n">
-        <v>366.3787808867668</v>
+        <v>366.3789334056827</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -33713,28 +33863,28 @@
         <v>0.0883</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.2101531235329309</v>
+        <v>-0.2066112965969409</v>
       </c>
       <c r="J14" t="n">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="K14" t="n">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0115292198086131</v>
+        <v>0.01122317897521619</v>
       </c>
       <c r="M14" t="n">
-        <v>12.06880021490733</v>
+        <v>12.04436107270153</v>
       </c>
       <c r="N14" t="n">
-        <v>229.846004749612</v>
+        <v>229.0293517492633</v>
       </c>
       <c r="O14" t="n">
-        <v>15.16067296493173</v>
+        <v>15.13371572844103</v>
       </c>
       <c r="P14" t="n">
-        <v>367.8926525442781</v>
+        <v>367.8574187560154</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -33791,28 +33941,28 @@
         <v>0.0925</v>
       </c>
       <c r="I15" t="n">
-        <v>-2.286758062698004</v>
+        <v>-2.247862519232037</v>
       </c>
       <c r="J15" t="n">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="K15" t="n">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="L15" t="n">
-        <v>0.06184666481488577</v>
+        <v>0.06025219075888466</v>
       </c>
       <c r="M15" t="n">
-        <v>44.89531774840021</v>
+        <v>44.70094989488766</v>
       </c>
       <c r="N15" t="n">
-        <v>4820.289354998637</v>
+        <v>4804.547913019305</v>
       </c>
       <c r="O15" t="n">
-        <v>69.42830370244283</v>
+        <v>69.31484626701054</v>
       </c>
       <c r="P15" t="n">
-        <v>380.2488252218945</v>
+        <v>379.8584853820323</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -33869,28 +34019,28 @@
         <v>0.0468</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.7515976242390059</v>
+        <v>-0.7305904051178559</v>
       </c>
       <c r="J16" t="n">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="K16" t="n">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="L16" t="n">
-        <v>0.00907199901271194</v>
+        <v>0.008656384397245587</v>
       </c>
       <c r="M16" t="n">
-        <v>42.16138085375539</v>
+        <v>41.95743210668983</v>
       </c>
       <c r="N16" t="n">
-        <v>3523.076663103615</v>
+        <v>3503.641810428467</v>
       </c>
       <c r="O16" t="n">
-        <v>59.35551080652592</v>
+        <v>59.19156874444592</v>
       </c>
       <c r="P16" t="n">
-        <v>352.370480384539</v>
+        <v>352.1498123290854</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -33947,28 +34097,28 @@
         <v>0.0532</v>
       </c>
       <c r="I17" t="n">
-        <v>-1.340248374400886</v>
+        <v>-1.307549589549726</v>
       </c>
       <c r="J17" t="n">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="K17" t="n">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="L17" t="n">
-        <v>0.05901893329688224</v>
+        <v>0.05690626340719973</v>
       </c>
       <c r="M17" t="n">
-        <v>27.29090688676772</v>
+        <v>27.1501087178418</v>
       </c>
       <c r="N17" t="n">
-        <v>1676.298445186868</v>
+        <v>1668.014161580751</v>
       </c>
       <c r="O17" t="n">
-        <v>40.94262381903324</v>
+        <v>40.84132908685454</v>
       </c>
       <c r="P17" t="n">
-        <v>362.1420032215205</v>
+        <v>361.8073501423879</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -34025,28 +34175,28 @@
         <v>0.0703</v>
       </c>
       <c r="I18" t="n">
-        <v>-1.696469634280165</v>
+        <v>-1.663005432254677</v>
       </c>
       <c r="J18" t="n">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="K18" t="n">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="L18" t="n">
-        <v>0.09075084648160958</v>
+        <v>0.08830494205916817</v>
       </c>
       <c r="M18" t="n">
-        <v>29.84772616988876</v>
+        <v>29.69357176671292</v>
       </c>
       <c r="N18" t="n">
-        <v>1747.824540573821</v>
+        <v>1739.53385380167</v>
       </c>
       <c r="O18" t="n">
-        <v>41.80699152742064</v>
+        <v>41.70771935507467</v>
       </c>
       <c r="P18" t="n">
-        <v>357.652931442914</v>
+        <v>357.3186706196539</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -34084,7 +34234,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S489"/>
+  <dimension ref="A1:S491"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74213,9 +74363,211 @@
         </is>
       </c>
       <c r="P489" t="inlineStr"/>
-      <c r="Q489" t="inlineStr"/>
-      <c r="R489" t="inlineStr"/>
+      <c r="Q489" t="inlineStr">
+        <is>
+          <t>-41.021496774898594,172.10915730920792</t>
+        </is>
+      </c>
+      <c r="R489" t="inlineStr">
+        <is>
+          <t>-41.02079897277448,172.10910376967917</t>
+        </is>
+      </c>
       <c r="S489" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-25 22:13:27+00:00</t>
+        </is>
+      </c>
+      <c r="B490" t="inlineStr">
+        <is>
+          <t>-41.03150786047177,172.11099539780932</t>
+        </is>
+      </c>
+      <c r="C490" t="inlineStr">
+        <is>
+          <t>-41.03081503813429,172.11112436127993</t>
+        </is>
+      </c>
+      <c r="D490" t="inlineStr">
+        <is>
+          <t>-41.03014594412463,172.11097321902648</t>
+        </is>
+      </c>
+      <c r="E490" t="inlineStr">
+        <is>
+          <t>-41.029470072170824,172.110901982861</t>
+        </is>
+      </c>
+      <c r="F490" t="inlineStr">
+        <is>
+          <t>-41.02880422284354,172.11071238791578</t>
+        </is>
+      </c>
+      <c r="G490" t="inlineStr">
+        <is>
+          <t>-41.028132904033065,172.1105872577149</t>
+        </is>
+      </c>
+      <c r="H490" t="inlineStr">
+        <is>
+          <t>-41.02745810920315,172.11050306704746</t>
+        </is>
+      </c>
+      <c r="I490" t="inlineStr">
+        <is>
+          <t>-41.0267908233355,172.11033061971045</t>
+        </is>
+      </c>
+      <c r="J490" t="inlineStr">
+        <is>
+          <t>-41.0261146068232,172.11026581030626</t>
+        </is>
+      </c>
+      <c r="K490" t="inlineStr">
+        <is>
+          <t>-41.02543069772041,172.1102880348602</t>
+        </is>
+      </c>
+      <c r="L490" t="inlineStr">
+        <is>
+          <t>-41.024763258827576,172.11011854696477</t>
+        </is>
+      </c>
+      <c r="M490" t="inlineStr">
+        <is>
+          <t>-41.024095377953415,172.10995405870213</t>
+        </is>
+      </c>
+      <c r="N490" t="inlineStr">
+        <is>
+          <t>-41.023429213660236,172.10976976753545</t>
+        </is>
+      </c>
+      <c r="O490" t="inlineStr">
+        <is>
+          <t>-41.02277098461,172.10968197053123</t>
+        </is>
+      </c>
+      <c r="P490" t="inlineStr">
+        <is>
+          <t>-41.02207352210906,172.1097223354054</t>
+        </is>
+      </c>
+      <c r="Q490" t="inlineStr">
+        <is>
+          <t>-41.02141428306769,172.10950469141673</t>
+        </is>
+      </c>
+      <c r="R490" t="inlineStr">
+        <is>
+          <t>-41.02074304398852,172.10933928958136</t>
+        </is>
+      </c>
+      <c r="S490" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:13:37+00:00</t>
+        </is>
+      </c>
+      <c r="B491" t="inlineStr">
+        <is>
+          <t>-41.03149059775141,172.11119912087304</t>
+        </is>
+      </c>
+      <c r="C491" t="inlineStr">
+        <is>
+          <t>-41.03082269229758,172.111034033167</t>
+        </is>
+      </c>
+      <c r="D491" t="inlineStr">
+        <is>
+          <t>-41.030152312567886,172.11089806392232</t>
+        </is>
+      </c>
+      <c r="E491" t="inlineStr">
+        <is>
+          <t>-41.02947266155985,172.11087142533725</t>
+        </is>
+      </c>
+      <c r="F491" t="inlineStr">
+        <is>
+          <t>-41.02879511080134,172.1108199193682</t>
+        </is>
+      </c>
+      <c r="G491" t="inlineStr">
+        <is>
+          <t>-41.02810547266333,172.1109109717189</t>
+        </is>
+      </c>
+      <c r="H491" t="inlineStr">
+        <is>
+          <t>-41.027443930404196,172.11067038952234</t>
+        </is>
+      </c>
+      <c r="I491" t="inlineStr">
+        <is>
+          <t>-41.02678063214944,172.11045067516312</t>
+        </is>
+      </c>
+      <c r="J491" t="inlineStr">
+        <is>
+          <t>-41.02611277158632,172.11028714224656</t>
+        </is>
+      </c>
+      <c r="K491" t="inlineStr">
+        <is>
+          <t>-41.02543685771481,172.11021725478307</t>
+        </is>
+      </c>
+      <c r="L491" t="inlineStr">
+        <is>
+          <t>-41.02476031882486,172.1101523283227</t>
+        </is>
+      </c>
+      <c r="M491" t="inlineStr">
+        <is>
+          <t>-41.02408870681801,172.11003071166277</t>
+        </is>
+      </c>
+      <c r="N491" t="inlineStr">
+        <is>
+          <t>-41.023414902413414,172.10993420710815</t>
+        </is>
+      </c>
+      <c r="O491" t="inlineStr">
+        <is>
+          <t>-41.02274413423315,172.1098576262234</t>
+        </is>
+      </c>
+      <c r="P491" t="inlineStr">
+        <is>
+          <t>-41.0221063690588,172.10957906754334</t>
+        </is>
+      </c>
+      <c r="Q491" t="inlineStr">
+        <is>
+          <t>-41.02139663113384,172.10957902497077</t>
+        </is>
+      </c>
+      <c r="R491" t="inlineStr">
+        <is>
+          <t>-41.02074470586919,172.10933229132456</t>
+        </is>
+      </c>
+      <c r="S491" t="inlineStr">
         <is>
           <t>L9</t>
         </is>

--- a/data/nzd0335/nzd0335.xlsx
+++ b/data/nzd0335/nzd0335.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S491"/>
+  <dimension ref="A1:S493"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27755,6 +27755,128 @@
         </is>
       </c>
     </row>
+    <row r="492">
+      <c r="A492" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-26 22:13:14+00:00</t>
+        </is>
+      </c>
+      <c r="B492" t="n">
+        <v>348.0533333333333</v>
+      </c>
+      <c r="C492" t="n">
+        <v>352.1022222222222</v>
+      </c>
+      <c r="D492" t="n">
+        <v>353.1476470588235</v>
+      </c>
+      <c r="E492" t="n">
+        <v>357.49</v>
+      </c>
+      <c r="F492" t="n">
+        <v>347.1466666666666</v>
+      </c>
+      <c r="G492" t="n">
+        <v>341.69</v>
+      </c>
+      <c r="H492" t="n">
+        <v>342.68</v>
+      </c>
+      <c r="I492" t="n">
+        <v>339.3766666666667</v>
+      </c>
+      <c r="J492" t="n">
+        <v>342.07</v>
+      </c>
+      <c r="K492" t="n">
+        <v>338.1799999999999</v>
+      </c>
+      <c r="L492" t="n">
+        <v>330.8022222222222</v>
+      </c>
+      <c r="M492" t="n">
+        <v>329.7342857142857</v>
+      </c>
+      <c r="N492" t="n">
+        <v>325.1666666666667</v>
+      </c>
+      <c r="O492" t="n">
+        <v>333.2966666666667</v>
+      </c>
+      <c r="P492" t="n">
+        <v>327.7885714285715</v>
+      </c>
+      <c r="Q492" t="n">
+        <v>317.24</v>
+      </c>
+      <c r="R492" t="n">
+        <v>300.7233333333333</v>
+      </c>
+      <c r="S492" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-04 22:13:17+00:00</t>
+        </is>
+      </c>
+      <c r="B493" t="inlineStr"/>
+      <c r="C493" t="inlineStr"/>
+      <c r="D493" t="n">
+        <v>353.9658823529412</v>
+      </c>
+      <c r="E493" t="n">
+        <v>355.525</v>
+      </c>
+      <c r="F493" t="n">
+        <v>360.5833333333333</v>
+      </c>
+      <c r="G493" t="n">
+        <v>354.695</v>
+      </c>
+      <c r="H493" t="n">
+        <v>347.065</v>
+      </c>
+      <c r="I493" t="n">
+        <v>341.0733333333333</v>
+      </c>
+      <c r="J493" t="n">
+        <v>343.295</v>
+      </c>
+      <c r="K493" t="n">
+        <v>353.86</v>
+      </c>
+      <c r="L493" t="n">
+        <v>340.5011111111111</v>
+      </c>
+      <c r="M493" t="n">
+        <v>340.44</v>
+      </c>
+      <c r="N493" t="n">
+        <v>333.2833333333333</v>
+      </c>
+      <c r="O493" t="n">
+        <v>344.9033333333333</v>
+      </c>
+      <c r="P493" t="n">
+        <v>343.78</v>
+      </c>
+      <c r="Q493" t="n">
+        <v>321.04</v>
+      </c>
+      <c r="R493" t="n">
+        <v>308.1266666666667</v>
+      </c>
+      <c r="S493" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -27766,7 +27888,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B498"/>
+  <dimension ref="A1:B500"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32754,6 +32876,26 @@
       </c>
       <c r="B498" t="n">
         <v>0.75</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>2025-09-26 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B499" t="n">
+        <v>-0.16</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>2025-10-04 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B500" t="n">
+        <v>0.91</v>
       </c>
     </row>
   </sheetData>
@@ -34234,7 +34376,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S491"/>
+  <dimension ref="A1:S493"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74573,6 +74715,192 @@
         </is>
       </c>
     </row>
+    <row r="492">
+      <c r="A492" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-26 22:13:14+00:00</t>
+        </is>
+      </c>
+      <c r="B492" t="inlineStr">
+        <is>
+          <t>-41.03147723809449,172.11135677960084</t>
+        </is>
+      </c>
+      <c r="C492" t="inlineStr">
+        <is>
+          <t>-41.03080838673449,172.1112028549099</t>
+        </is>
+      </c>
+      <c r="D492" t="inlineStr">
+        <is>
+          <t>-41.030136519822555,172.1110844357609</t>
+        </is>
+      </c>
+      <c r="E492" t="inlineStr">
+        <is>
+          <t>-41.02946794856526,172.11092704357517</t>
+        </is>
+      </c>
+      <c r="F492" t="inlineStr">
+        <is>
+          <t>-41.028784659709245,172.11094325148707</t>
+        </is>
+      </c>
+      <c r="G492" t="inlineStr">
+        <is>
+          <t>-41.02810625900523,172.1109016923544</t>
+        </is>
+      </c>
+      <c r="H492" t="inlineStr">
+        <is>
+          <t>-41.027434309116394,172.11078392762388</t>
+        </is>
+      </c>
+      <c r="I492" t="inlineStr">
+        <is>
+          <t>-41.026758031818574,172.110716908939</t>
+        </is>
+      </c>
+      <c r="J492" t="inlineStr">
+        <is>
+          <t>-41.02608769300771,172.11057863925814</t>
+        </is>
+      </c>
+      <c r="K492" t="inlineStr">
+        <is>
+          <t>-41.025410870263755,172.11051585445645</t>
+        </is>
+      </c>
+      <c r="L492" t="inlineStr">
+        <is>
+          <t>-41.02473055602273,172.11049430369007</t>
+        </is>
+      </c>
+      <c r="M492" t="inlineStr">
+        <is>
+          <t>-41.024056724029286,172.11039819328232</t>
+        </is>
+      </c>
+      <c r="N492" t="inlineStr">
+        <is>
+          <t>-41.023379286097075,172.11034343487927</t>
+        </is>
+      </c>
+      <c r="O492" t="inlineStr">
+        <is>
+          <t>-41.022701678010236,172.11013537178934</t>
+        </is>
+      </c>
+      <c r="P492" t="inlineStr">
+        <is>
+          <t>-41.022024732312566,172.1099351391483</t>
+        </is>
+      </c>
+      <c r="Q492" t="inlineStr">
+        <is>
+          <t>-41.021349118894285,172.10977910119828</t>
+        </is>
+      </c>
+      <c r="R492" t="inlineStr">
+        <is>
+          <t>-41.02065936549665,172.10969166082228</t>
+        </is>
+      </c>
+      <c r="S492" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-04 22:13:17+00:00</t>
+        </is>
+      </c>
+      <c r="B493" t="inlineStr"/>
+      <c r="C493" t="inlineStr"/>
+      <c r="D493" t="inlineStr">
+        <is>
+          <t>-41.03013733945945,172.11107476323005</t>
+        </is>
+      </c>
+      <c r="E493" t="inlineStr">
+        <is>
+          <t>-41.02946598021843,172.11095027201878</t>
+        </is>
+      </c>
+      <c r="F493" t="inlineStr">
+        <is>
+          <t>-41.02879811922215,172.11078441704862</t>
+        </is>
+      </c>
+      <c r="G493" t="inlineStr">
+        <is>
+          <t>-41.02811928612731,172.11074796221553</t>
+        </is>
+      </c>
+      <c r="H493" t="inlineStr">
+        <is>
+          <t>-41.02743870156624,172.11073209373131</t>
+        </is>
+      </c>
+      <c r="I493" t="inlineStr">
+        <is>
+          <t>-41.026759734306886,172.11069685374414</t>
+        </is>
+      </c>
+      <c r="J493" t="inlineStr">
+        <is>
+          <t>-41.02608893856576,172.110564161913</t>
+        </is>
+      </c>
+      <c r="K493" t="inlineStr">
+        <is>
+          <t>-41.02542699553253,172.1103305737987</t>
+        </is>
+      </c>
+      <c r="L493" t="inlineStr">
+        <is>
+          <t>-41.02474053039421,172.1103796992389</t>
+        </is>
+      </c>
+      <c r="M493" t="inlineStr">
+        <is>
+          <t>-41.024067733763204,172.11027169321645</t>
+        </is>
+      </c>
+      <c r="N493" t="inlineStr">
+        <is>
+          <t>-41.02338763326639,172.11024752831185</t>
+        </is>
+      </c>
+      <c r="O493" t="inlineStr">
+        <is>
+          <t>-41.02272236265684,172.1100000549078</t>
+        </is>
+      </c>
+      <c r="P493" t="inlineStr">
+        <is>
+          <t>-41.02206646800742,172.10975310301436</t>
+        </is>
+      </c>
+      <c r="Q493" t="inlineStr">
+        <is>
+          <t>-41.021359359792356,172.10973597645386</t>
+        </is>
+      </c>
+      <c r="R493" t="inlineStr">
+        <is>
+          <t>-41.020679317278756,172.10960764409802</t>
+        </is>
+      </c>
+      <c r="S493" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0335/nzd0335.xlsx
+++ b/data/nzd0335/nzd0335.xlsx
@@ -33069,28 +33069,28 @@
         <v>0.06419999999999999</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.4377139686345475</v>
+        <v>-0.4562344006541135</v>
       </c>
       <c r="J2" t="n">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="K2" t="n">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="L2" t="n">
-        <v>0.03473470239005838</v>
+        <v>0.0375173153409154</v>
       </c>
       <c r="M2" t="n">
-        <v>13.47664315978463</v>
+        <v>13.53704438125531</v>
       </c>
       <c r="N2" t="n">
-        <v>306.9341885895335</v>
+        <v>308.794131938751</v>
       </c>
       <c r="O2" t="n">
-        <v>17.51953733948284</v>
+        <v>17.57253914318449</v>
       </c>
       <c r="P2" t="n">
-        <v>388.4005709709093</v>
+        <v>388.5888234579937</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -33147,28 +33147,28 @@
         <v>0.1113</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.326901812080729</v>
+        <v>-0.3342230468959022</v>
       </c>
       <c r="J3" t="n">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="K3" t="n">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01665453369234327</v>
+        <v>0.01746603336082986</v>
       </c>
       <c r="M3" t="n">
-        <v>14.94394146140013</v>
+        <v>14.93705853455173</v>
       </c>
       <c r="N3" t="n">
-        <v>363.7657418704617</v>
+        <v>363.1266862866482</v>
       </c>
       <c r="O3" t="n">
-        <v>19.07264380914355</v>
+        <v>19.05588324603843</v>
       </c>
       <c r="P3" t="n">
-        <v>373.665471685063</v>
+        <v>373.7413074783167</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -33225,28 +33225,28 @@
         <v>0.1027</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.3473597318986145</v>
+        <v>-0.3556265929579818</v>
       </c>
       <c r="J4" t="n">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="K4" t="n">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="L4" t="n">
-        <v>0.02204632182528166</v>
+        <v>0.02325413716206781</v>
       </c>
       <c r="M4" t="n">
-        <v>14.12849513052962</v>
+        <v>14.10172087825847</v>
       </c>
       <c r="N4" t="n">
-        <v>312.4888134664186</v>
+        <v>311.2810763057188</v>
       </c>
       <c r="O4" t="n">
-        <v>17.67735312388194</v>
+        <v>17.64315947628765</v>
       </c>
       <c r="P4" t="n">
-        <v>371.8642886473294</v>
+        <v>371.9494060462015</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -33303,28 +33303,28 @@
         <v>0.0896</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.1375235544363864</v>
+        <v>-0.1426416633988689</v>
       </c>
       <c r="J5" t="n">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="K5" t="n">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="L5" t="n">
-        <v>0.003925850280353527</v>
+        <v>0.004255763018660486</v>
       </c>
       <c r="M5" t="n">
-        <v>13.47797023919756</v>
+        <v>13.43771995106708</v>
       </c>
       <c r="N5" t="n">
-        <v>279.9924860630665</v>
+        <v>278.7679342214176</v>
       </c>
       <c r="O5" t="n">
-        <v>16.73297600736541</v>
+        <v>16.69634493598577</v>
       </c>
       <c r="P5" t="n">
-        <v>366.085652010526</v>
+        <v>366.1382809055436</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -33381,28 +33381,28 @@
         <v>0.0824</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0428607128396148</v>
+        <v>0.03506017398645864</v>
       </c>
       <c r="J6" t="n">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="K6" t="n">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0004806129445852347</v>
+        <v>0.0003233277654480782</v>
       </c>
       <c r="M6" t="n">
-        <v>12.30992317636263</v>
+        <v>12.29394483266766</v>
       </c>
       <c r="N6" t="n">
-        <v>233.6283112828943</v>
+        <v>233.1893480128398</v>
       </c>
       <c r="O6" t="n">
-        <v>15.28490468674549</v>
+        <v>15.27053856328714</v>
       </c>
       <c r="P6" t="n">
-        <v>362.6228968767426</v>
+        <v>362.7001921184325</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -33459,28 +33459,28 @@
         <v>0.0901</v>
       </c>
       <c r="I7" t="n">
-        <v>0.08152653378035163</v>
+        <v>0.07010755483285147</v>
       </c>
       <c r="J7" t="n">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="K7" t="n">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="L7" t="n">
-        <v>0.001925957251228128</v>
+        <v>0.001428334996254166</v>
       </c>
       <c r="M7" t="n">
-        <v>11.6952839518503</v>
+        <v>11.70803928324004</v>
       </c>
       <c r="N7" t="n">
-        <v>213.4414493882277</v>
+        <v>213.6245466284698</v>
       </c>
       <c r="O7" t="n">
-        <v>14.60963549813026</v>
+        <v>14.61590047272045</v>
       </c>
       <c r="P7" t="n">
-        <v>360.6249360201672</v>
+        <v>360.7372554756309</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -33537,28 +33537,28 @@
         <v>0.08649999999999999</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.02133007159899973</v>
+        <v>-0.03422313449569196</v>
       </c>
       <c r="J8" t="n">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="K8" t="n">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0001673655057172763</v>
+        <v>0.0004308750539796513</v>
       </c>
       <c r="M8" t="n">
-        <v>10.33698122669456</v>
+        <v>10.36258028413137</v>
       </c>
       <c r="N8" t="n">
-        <v>169.4231212184372</v>
+        <v>169.9336305624765</v>
       </c>
       <c r="O8" t="n">
-        <v>13.01626371961006</v>
+        <v>13.0358594101991</v>
       </c>
       <c r="P8" t="n">
-        <v>362.0612541831387</v>
+        <v>362.1869237030384</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -33615,28 +33615,28 @@
         <v>0.0809</v>
       </c>
       <c r="I9" t="n">
-        <v>0.01378254869069343</v>
+        <v>-0.002729111098718192</v>
       </c>
       <c r="J9" t="n">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="K9" t="n">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="L9" t="n">
-        <v>7.064701222248004e-05</v>
+        <v>2.756947392934528e-06</v>
       </c>
       <c r="M9" t="n">
-        <v>10.12519611387147</v>
+        <v>10.17151217504606</v>
       </c>
       <c r="N9" t="n">
-        <v>172.2683301424108</v>
+        <v>173.648032748188</v>
       </c>
       <c r="O9" t="n">
-        <v>13.12510305263965</v>
+        <v>13.17755792050212</v>
       </c>
       <c r="P9" t="n">
-        <v>361.4956913158563</v>
+        <v>361.6537028675263</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -33693,28 +33693,28 @@
         <v>0.08790000000000001</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.008746994630445952</v>
+        <v>-0.02359635675944195</v>
       </c>
       <c r="J10" t="n">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="K10" t="n">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="L10" t="n">
-        <v>2.976621421346692e-05</v>
+        <v>0.0002159263877875572</v>
       </c>
       <c r="M10" t="n">
-        <v>10.11423033569341</v>
+        <v>10.1468576772957</v>
       </c>
       <c r="N10" t="n">
-        <v>162.0294490815129</v>
+        <v>163.032647535206</v>
       </c>
       <c r="O10" t="n">
-        <v>12.72907887796728</v>
+        <v>12.76842384694391</v>
       </c>
       <c r="P10" t="n">
-        <v>362.3938853243224</v>
+        <v>362.5379969887192</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -33771,28 +33771,28 @@
         <v>0.1185</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.06543902129507535</v>
+        <v>-0.07688739986528803</v>
       </c>
       <c r="J11" t="n">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="K11" t="n">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="L11" t="n">
-        <v>0.001667574079846301</v>
+        <v>0.002299592205954104</v>
       </c>
       <c r="M11" t="n">
-        <v>10.20595660003668</v>
+        <v>10.22681023018925</v>
       </c>
       <c r="N11" t="n">
-        <v>159.1674063901432</v>
+        <v>159.7392623320565</v>
       </c>
       <c r="O11" t="n">
-        <v>12.61615656173239</v>
+        <v>12.63879987704752</v>
       </c>
       <c r="P11" t="n">
-        <v>362.609286413252</v>
+        <v>362.7218941913872</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -33849,28 +33849,28 @@
         <v>0.106</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.1478190803307944</v>
+        <v>-0.1677182111292907</v>
       </c>
       <c r="J12" t="n">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="K12" t="n">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="L12" t="n">
-        <v>0.008077987135601594</v>
+        <v>0.01025781277862281</v>
       </c>
       <c r="M12" t="n">
-        <v>10.01623996660406</v>
+        <v>10.09067026411148</v>
       </c>
       <c r="N12" t="n">
-        <v>164.4040796230606</v>
+        <v>166.8279483219922</v>
       </c>
       <c r="O12" t="n">
-        <v>12.82201542750049</v>
+        <v>12.9161893885926</v>
       </c>
       <c r="P12" t="n">
-        <v>365.2858517447114</v>
+        <v>365.4836478485813</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -33927,28 +33927,28 @@
         <v>0.07679999999999999</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.08821063457777413</v>
+        <v>-0.1108859193699287</v>
       </c>
       <c r="J13" t="n">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="K13" t="n">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="L13" t="n">
-        <v>0.002299813497831815</v>
+        <v>0.003588079278046163</v>
       </c>
       <c r="M13" t="n">
-        <v>11.24842915381399</v>
+        <v>11.32498071544579</v>
       </c>
       <c r="N13" t="n">
-        <v>207.5090062499194</v>
+        <v>210.5931764488014</v>
       </c>
       <c r="O13" t="n">
-        <v>14.40517289899428</v>
+        <v>14.51182884576584</v>
       </c>
       <c r="P13" t="n">
-        <v>366.3789334056827</v>
+        <v>366.6029965131211</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -34005,28 +34005,28 @@
         <v>0.0883</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.2066112965969409</v>
+        <v>-0.2336853038514715</v>
       </c>
       <c r="J14" t="n">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="K14" t="n">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="L14" t="n">
-        <v>0.01122317897521619</v>
+        <v>0.01409221453545451</v>
       </c>
       <c r="M14" t="n">
-        <v>12.04436107270153</v>
+        <v>12.14095023797967</v>
       </c>
       <c r="N14" t="n">
-        <v>229.0293517492633</v>
+        <v>233.4062091866466</v>
       </c>
       <c r="O14" t="n">
-        <v>15.13371572844103</v>
+        <v>15.27763755253562</v>
       </c>
       <c r="P14" t="n">
-        <v>367.8574187560154</v>
+        <v>368.1286887084445</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -34083,28 +34083,28 @@
         <v>0.0925</v>
       </c>
       <c r="I15" t="n">
-        <v>-2.247862519232037</v>
+        <v>-2.232086017900382</v>
       </c>
       <c r="J15" t="n">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="K15" t="n">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="L15" t="n">
-        <v>0.06025219075888466</v>
+        <v>0.05992471691704671</v>
       </c>
       <c r="M15" t="n">
-        <v>44.70094989488766</v>
+        <v>44.47700390656696</v>
       </c>
       <c r="N15" t="n">
-        <v>4804.547913019305</v>
+        <v>4780.150248600228</v>
       </c>
       <c r="O15" t="n">
-        <v>69.31484626701054</v>
+        <v>69.1386306532045</v>
       </c>
       <c r="P15" t="n">
-        <v>379.8584853820323</v>
+        <v>379.6994121548862</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -34161,28 +34161,28 @@
         <v>0.0468</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.7305904051178559</v>
+        <v>-0.727753611926086</v>
       </c>
       <c r="J16" t="n">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="K16" t="n">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="L16" t="n">
-        <v>0.008656384397245587</v>
+        <v>0.008674929719140301</v>
       </c>
       <c r="M16" t="n">
-        <v>41.95743210668983</v>
+        <v>41.73692728186095</v>
       </c>
       <c r="N16" t="n">
-        <v>3503.641810428467</v>
+        <v>3482.189869362387</v>
       </c>
       <c r="O16" t="n">
-        <v>59.19156874444592</v>
+        <v>59.01008277711858</v>
       </c>
       <c r="P16" t="n">
-        <v>352.1498123290854</v>
+        <v>352.1198588141709</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -34239,28 +34239,28 @@
         <v>0.0532</v>
       </c>
       <c r="I17" t="n">
-        <v>-1.307549589549726</v>
+        <v>-1.315853251153579</v>
       </c>
       <c r="J17" t="n">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="K17" t="n">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="L17" t="n">
-        <v>0.05690626340719973</v>
+        <v>0.05810199765092205</v>
       </c>
       <c r="M17" t="n">
-        <v>27.1501087178418</v>
+        <v>27.06270771356503</v>
       </c>
       <c r="N17" t="n">
-        <v>1668.014161580751</v>
+        <v>1658.643465273347</v>
       </c>
       <c r="O17" t="n">
-        <v>40.84132908685454</v>
+        <v>40.72644675482195</v>
       </c>
       <c r="P17" t="n">
-        <v>361.8073501423879</v>
+        <v>361.8927917833806</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -34317,28 +34317,28 @@
         <v>0.0703</v>
       </c>
       <c r="I18" t="n">
-        <v>-1.663005432254677</v>
+        <v>-1.671248533626627</v>
       </c>
       <c r="J18" t="n">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="K18" t="n">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="L18" t="n">
-        <v>0.08830494205916817</v>
+        <v>0.08979020683842487</v>
       </c>
       <c r="M18" t="n">
-        <v>29.69357176671292</v>
+        <v>29.61288283852848</v>
       </c>
       <c r="N18" t="n">
-        <v>1739.53385380167</v>
+        <v>1730.729597542895</v>
       </c>
       <c r="O18" t="n">
-        <v>41.70771935507467</v>
+        <v>41.60203838206603</v>
       </c>
       <c r="P18" t="n">
-        <v>357.3186706196539</v>
+        <v>357.4014113764852</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">

--- a/data/nzd0335/nzd0335.xlsx
+++ b/data/nzd0335/nzd0335.xlsx
@@ -33060,13 +33060,13 @@
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0.06</v>
+        <v>0.12</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0542</v>
+        <v>0.0799</v>
       </c>
       <c r="H2" t="n">
-        <v>0.06419999999999999</v>
+        <v>0.2</v>
       </c>
       <c r="I2" t="n">
         <v>-0.4562551464022159</v>
@@ -33138,13 +33138,13 @@
         <v>0.9374934163019933</v>
       </c>
       <c r="F3" t="n">
-        <v>0.09</v>
+        <v>0.2</v>
       </c>
       <c r="G3" t="n">
-        <v>0.07679999999999999</v>
+        <v>0.1421</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1113</v>
+        <v>0.2</v>
       </c>
       <c r="I3" t="n">
         <v>-0.3342040599080386</v>
@@ -33216,13 +33216,13 @@
         <v>0.8749868326045648</v>
       </c>
       <c r="F4" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.15</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0747</v>
+        <v>0.1086</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1027</v>
+        <v>0.2</v>
       </c>
       <c r="I4" t="n">
         <v>-0.355621168434886</v>
@@ -33294,13 +33294,13 @@
         <v>0.8124802489071361</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08</v>
+        <v>0.115</v>
       </c>
       <c r="G5" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.0853</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0896</v>
+        <v>0.1803</v>
       </c>
       <c r="I5" t="n">
         <v>-0.1426466770657168</v>
@@ -33372,13 +33372,13 @@
         <v>0.7499736652097075</v>
       </c>
       <c r="F6" t="n">
-        <v>0.075</v>
+        <v>0.11</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0663</v>
+        <v>0.0848</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0824</v>
+        <v>0.167</v>
       </c>
       <c r="I6" t="n">
         <v>0.03508207278797507</v>
@@ -33450,13 +33450,13 @@
         <v>0.687467081512279</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08</v>
+        <v>0.14</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0711</v>
+        <v>0.0987</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0901</v>
+        <v>0.2</v>
       </c>
       <c r="I7" t="n">
         <v>0.07012951798138017</v>
@@ -33528,13 +33528,13 @@
         <v>0.6249604978148503</v>
       </c>
       <c r="F8" t="n">
-        <v>0.08</v>
+        <v>0.125</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0731</v>
+        <v>0.09180000000000001</v>
       </c>
       <c r="H8" t="n">
-        <v>0.08649999999999999</v>
+        <v>0.1997</v>
       </c>
       <c r="I8" t="n">
         <v>-0.03422049817588401</v>
@@ -33606,13 +33606,13 @@
         <v>0.5624539141171467</v>
       </c>
       <c r="F9" t="n">
-        <v>0.075</v>
+        <v>0.17</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0713</v>
+        <v>0.112</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0809</v>
+        <v>0.2</v>
       </c>
       <c r="I9" t="n">
         <v>-0.002708409663114741</v>
@@ -33684,13 +33684,13 @@
         <v>0.4999473619332615</v>
       </c>
       <c r="F10" t="n">
-        <v>0.08</v>
+        <v>0.13</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0737</v>
+        <v>0.0897</v>
       </c>
       <c r="H10" t="n">
-        <v>0.08790000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="I10" t="n">
         <v>-0.0235952758804136</v>
@@ -33762,13 +33762,13 @@
         <v>0.4374407782361958</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0895</v>
+        <v>0.08699999999999999</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1185</v>
+        <v>0.2</v>
       </c>
       <c r="I11" t="n">
         <v>-0.07688739986528786</v>
@@ -33840,13 +33840,13 @@
         <v>0.3749341945385521</v>
       </c>
       <c r="F12" t="n">
-        <v>0.09</v>
+        <v>0.125</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0814</v>
+        <v>0.0895</v>
       </c>
       <c r="H12" t="n">
-        <v>0.106</v>
+        <v>0.196</v>
       </c>
       <c r="I12" t="n">
         <v>-0.1676931665866835</v>
@@ -33918,13 +33918,13 @@
         <v>0.3124276108406266</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0645</v>
+        <v>0.097</v>
       </c>
       <c r="H13" t="n">
-        <v>0.07679999999999999</v>
+        <v>0.1906</v>
       </c>
       <c r="I13" t="n">
         <v>-0.1108960231492357</v>
@@ -33996,13 +33996,13 @@
         <v>0.2499210271432789</v>
       </c>
       <c r="F14" t="n">
-        <v>0.075</v>
+        <v>0.095</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0687</v>
+        <v>0.0635</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0883</v>
+        <v>0.1948</v>
       </c>
       <c r="I14" t="n">
         <v>-0.2336638915809922</v>
@@ -34074,13 +34074,13 @@
         <v>0.1874144434459312</v>
       </c>
       <c r="F15" t="n">
-        <v>0.075</v>
+        <v>0.155</v>
       </c>
       <c r="G15" t="n">
-        <v>0.06469999999999999</v>
+        <v>0.068</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0925</v>
+        <v>0.2</v>
       </c>
       <c r="I15" t="n">
         <v>-2.232074506949226</v>
@@ -34152,13 +34152,13 @@
         <v>0.1250131673948066</v>
       </c>
       <c r="F16" t="n">
-        <v>0.035</v>
+        <v>0.105</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0308</v>
+        <v>0.0621</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0468</v>
+        <v>0.2</v>
       </c>
       <c r="I16" t="n">
         <v>-0.7277818711656656</v>
@@ -34230,13 +34230,13 @@
         <v>0.06250658369768043</v>
       </c>
       <c r="F17" t="n">
-        <v>0.04</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0326</v>
+        <v>0.059</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0532</v>
+        <v>0.1449</v>
       </c>
       <c r="I17" t="n">
         <v>-1.315853251153579</v>
@@ -34308,13 +34308,13 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0528</v>
+        <v>0.0543</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0703</v>
+        <v>0.09520000000000001</v>
       </c>
       <c r="I18" t="n">
         <v>-1.671269729638375</v>
